--- a/Copy of ICD-10 conversions_5_10_20 (3)_JBS.xlsx
+++ b/Copy of ICD-10 conversions_5_10_20 (3)_JBS.xlsx
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="610">
   <si>
     <t>Working Number</t>
   </si>
@@ -2561,6 +2561,12 @@
   </si>
   <si>
     <t>I</t>
+  </si>
+  <si>
+    <t>Eligibility</t>
+  </si>
+  <si>
+    <t>Popped--if inclusion for pop it must happen on the same claim</t>
   </si>
 </sst>
 </file>
@@ -3222,7 +3228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="377">
+  <cellXfs count="379">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4018,16 +4024,6 @@
     <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4044,9 +4040,6 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4054,16 +4047,10 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1"/>
@@ -4073,17 +4060,11 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
@@ -4093,17 +4074,11 @@
     <xf numFmtId="0" fontId="0" fillId="40" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
@@ -4113,9 +4088,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="38" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="37" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="41" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="31" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="39" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -37575,679 +37583,723 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.08203125" defaultRowHeight="15.5"/>
   <cols>
     <col min="2" max="4" width="15.08203125" style="4"/>
-    <col min="5" max="7" width="15.08203125" style="342"/>
-    <col min="8" max="8" width="15.08203125" style="343"/>
-    <col min="9" max="9" width="15.08203125" style="345"/>
-    <col min="10" max="10" width="15.08203125" style="339"/>
+    <col min="5" max="7" width="15.08203125" style="338"/>
+    <col min="8" max="8" width="15.08203125" style="341"/>
+    <col min="9" max="9" width="15.08203125" style="368"/>
+    <col min="13" max="13" width="15.08203125" style="339"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="333"/>
-      <c r="B1" s="341" t="s">
+    <row r="1" spans="1:13">
+      <c r="B1" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="I1" s="367" t="s">
+        <v>608</v>
+      </c>
+      <c r="J1" t="s">
+        <v>609</v>
+      </c>
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="333"/>
+      <c r="B2" s="365" t="s">
         <v>594</v>
       </c>
-      <c r="C1" s="341"/>
-      <c r="D1" s="341"/>
-      <c r="E1" s="340" t="s">
+      <c r="C2" s="365"/>
+      <c r="D2" s="365"/>
+      <c r="E2" s="366" t="s">
         <v>597</v>
       </c>
-      <c r="F1" s="340"/>
-      <c r="G1" s="340"/>
-      <c r="H1" s="335"/>
-      <c r="I1" s="344"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="334" t="s">
+      <c r="F2" s="366"/>
+      <c r="G2" s="366"/>
+      <c r="H2" s="340"/>
+      <c r="J2" s="365" t="s">
+        <v>594</v>
+      </c>
+      <c r="K2" s="365"/>
+      <c r="L2" s="365"/>
+      <c r="M2" s="335"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="334" t="s">
         <v>593</v>
       </c>
-      <c r="B2" s="147" t="s">
+      <c r="B3" s="147" t="s">
         <v>595</v>
       </c>
-      <c r="C2" s="147" t="s">
+      <c r="C3" s="147" t="s">
         <v>596</v>
       </c>
-      <c r="D2" s="147" t="s">
+      <c r="D3" s="147" t="s">
         <v>600</v>
       </c>
-      <c r="E2" s="336" t="s">
+      <c r="E3" s="336" t="s">
         <v>595</v>
       </c>
-      <c r="F2" s="336" t="s">
+      <c r="F3" s="336" t="s">
         <v>596</v>
       </c>
-      <c r="G2" s="336" t="s">
+      <c r="G3" s="336" t="s">
         <v>600</v>
       </c>
-      <c r="H2" s="335" t="s">
+      <c r="H3" s="340" t="s">
+        <v>599</v>
+      </c>
+      <c r="I3" s="369" t="s">
+        <v>601</v>
+      </c>
+      <c r="J3" s="337" t="s">
+        <v>595</v>
+      </c>
+      <c r="K3" s="337" t="s">
+        <v>596</v>
+      </c>
+      <c r="L3" s="337" t="s">
+        <v>600</v>
+      </c>
+      <c r="M3" s="335" t="s">
         <v>598</v>
       </c>
-      <c r="I2" s="344" t="s">
-        <v>599</v>
-      </c>
-      <c r="J2" s="338" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="A3" s="374">
+    </row>
+    <row r="4" spans="1:13" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A4" s="363">
         <v>18</v>
       </c>
-      <c r="B3" s="374" t="s">
+      <c r="B4" s="363" t="s">
         <v>219</v>
       </c>
-      <c r="C3" s="374" t="s">
+      <c r="C4" s="363" t="s">
         <v>219</v>
       </c>
-      <c r="D3" s="374" t="s">
+      <c r="D4" s="363" t="s">
         <v>219</v>
       </c>
-      <c r="E3" s="374" t="s">
+      <c r="E4" s="363" t="s">
         <v>219</v>
       </c>
-      <c r="F3" s="374" t="s">
+      <c r="F4" s="363" t="s">
         <v>219</v>
       </c>
-      <c r="G3" s="374" t="s">
+      <c r="G4" s="363" t="s">
         <v>219</v>
       </c>
-      <c r="H3" s="374" t="s">
+      <c r="H4" s="364"/>
+      <c r="I4" s="370" t="s">
+        <v>602</v>
+      </c>
+      <c r="M4" s="363" t="s">
         <v>219</v>
       </c>
-      <c r="I3" s="375"/>
-      <c r="J3" s="337" t="s">
+    </row>
+    <row r="5" spans="1:13" s="3" customFormat="1">
+      <c r="A5" s="363">
+        <v>10</v>
+      </c>
+      <c r="B5" s="363" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" s="363" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5" s="363" t="s">
+        <v>219</v>
+      </c>
+      <c r="E5" s="363" t="s">
+        <v>219</v>
+      </c>
+      <c r="F5" s="363"/>
+      <c r="G5" s="363"/>
+      <c r="H5" s="364"/>
+      <c r="I5" s="370" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" s="3" customFormat="1">
-      <c r="A4" s="374">
-        <v>10</v>
-      </c>
-      <c r="B4" s="374" t="s">
+      <c r="M5" s="363" t="s">
         <v>219</v>
       </c>
-      <c r="C4" s="374" t="s">
+    </row>
+    <row r="6" spans="1:13" s="3" customFormat="1">
+      <c r="A6" s="363">
+        <v>14</v>
+      </c>
+      <c r="B6" s="363" t="s">
         <v>219</v>
       </c>
-      <c r="D4" s="374" t="s">
+      <c r="C6" s="363" t="s">
         <v>219</v>
       </c>
-      <c r="E4" s="374" t="s">
+      <c r="D6" s="363"/>
+      <c r="E6" s="363" t="s">
         <v>219</v>
       </c>
-      <c r="F4" s="374"/>
-      <c r="G4" s="374"/>
-      <c r="H4" s="374" t="s">
+      <c r="F6" s="363"/>
+      <c r="G6" s="363"/>
+      <c r="H6" s="364"/>
+      <c r="I6" s="370" t="s">
+        <v>602</v>
+      </c>
+      <c r="M6" s="363" t="s">
         <v>219</v>
       </c>
-      <c r="I4" s="375"/>
-      <c r="J4" s="337" t="s">
+    </row>
+    <row r="7" spans="1:13" s="345" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="343">
+        <v>3</v>
+      </c>
+      <c r="B7" s="343" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" s="343" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7" s="343" t="s">
+        <v>219</v>
+      </c>
+      <c r="E7" s="343"/>
+      <c r="F7" s="343"/>
+      <c r="G7" s="343" t="s">
+        <v>219</v>
+      </c>
+      <c r="H7" s="344"/>
+      <c r="I7" s="371" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" s="3" customFormat="1">
-      <c r="A5" s="374">
-        <v>14</v>
-      </c>
-      <c r="B5" s="374" t="s">
+      <c r="M7" s="343" t="s">
         <v>219</v>
       </c>
-      <c r="C5" s="374" t="s">
+    </row>
+    <row r="8" spans="1:13" s="345" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="343">
+        <v>7</v>
+      </c>
+      <c r="B8" s="343" t="s">
         <v>219</v>
       </c>
-      <c r="D5" s="374"/>
-      <c r="E5" s="374" t="s">
+      <c r="C8" s="343" t="s">
         <v>219</v>
       </c>
-      <c r="F5" s="374"/>
-      <c r="G5" s="374"/>
-      <c r="H5" s="374" t="s">
+      <c r="D8" s="343" t="s">
         <v>219</v>
       </c>
-      <c r="I5" s="375"/>
-      <c r="J5" s="337" t="s">
+      <c r="E8" s="343"/>
+      <c r="F8" s="343"/>
+      <c r="G8" s="343" t="s">
+        <v>219</v>
+      </c>
+      <c r="H8" s="344"/>
+      <c r="I8" s="371" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" s="350" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="347">
-        <v>3</v>
-      </c>
-      <c r="B6" s="347" t="s">
+      <c r="M8" s="343" t="s">
         <v>219</v>
       </c>
-      <c r="C6" s="347" t="s">
+    </row>
+    <row r="9" spans="1:13" s="345" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="343">
+        <v>8</v>
+      </c>
+      <c r="B9" s="343" t="s">
         <v>219</v>
       </c>
-      <c r="D6" s="347" t="s">
+      <c r="C9" s="343" t="s">
         <v>219</v>
       </c>
-      <c r="E6" s="347"/>
-      <c r="F6" s="347"/>
-      <c r="G6" s="347" t="s">
+      <c r="D9" s="343" t="s">
         <v>219</v>
       </c>
-      <c r="H6" s="347" t="s">
+      <c r="E9" s="343"/>
+      <c r="F9" s="343"/>
+      <c r="G9" s="343" t="s">
         <v>219</v>
       </c>
-      <c r="I6" s="348"/>
-      <c r="J6" s="349" t="s">
+      <c r="H9" s="344"/>
+      <c r="I9" s="371" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" s="350" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="347">
-        <v>7</v>
-      </c>
-      <c r="B7" s="347" t="s">
+      <c r="M9" s="343" t="s">
         <v>219</v>
       </c>
-      <c r="C7" s="347" t="s">
+    </row>
+    <row r="10" spans="1:13" s="30" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A10" s="346">
+        <v>13</v>
+      </c>
+      <c r="B10" s="346" t="s">
         <v>219</v>
       </c>
-      <c r="D7" s="347" t="s">
+      <c r="C10" s="346" t="s">
         <v>219</v>
       </c>
-      <c r="E7" s="347"/>
-      <c r="F7" s="347"/>
-      <c r="G7" s="347" t="s">
+      <c r="D10" s="346"/>
+      <c r="E10" s="346"/>
+      <c r="F10" s="346"/>
+      <c r="G10" s="346" t="s">
         <v>219</v>
       </c>
-      <c r="H7" s="347" t="s">
+      <c r="H10" s="347"/>
+      <c r="I10" s="372" t="s">
+        <v>602</v>
+      </c>
+      <c r="M10" s="346" t="s">
         <v>219</v>
       </c>
-      <c r="I7" s="348"/>
-      <c r="J7" s="349" t="s">
+    </row>
+    <row r="11" spans="1:13" s="30" customFormat="1">
+      <c r="A11" s="346">
+        <v>15</v>
+      </c>
+      <c r="B11" s="346" t="s">
+        <v>219</v>
+      </c>
+      <c r="C11" s="346" t="s">
+        <v>219</v>
+      </c>
+      <c r="D11" s="346"/>
+      <c r="E11" s="346"/>
+      <c r="F11" s="346"/>
+      <c r="G11" s="346" t="s">
+        <v>219</v>
+      </c>
+      <c r="H11" s="347"/>
+      <c r="I11" s="372" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" s="350" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="347">
-        <v>8</v>
-      </c>
-      <c r="B8" s="347" t="s">
+      <c r="M11" s="346" t="s">
         <v>219</v>
       </c>
-      <c r="C8" s="347" t="s">
+    </row>
+    <row r="12" spans="1:13" s="345" customFormat="1">
+      <c r="A12" s="343">
+        <v>17</v>
+      </c>
+      <c r="B12" s="343" t="s">
         <v>219</v>
       </c>
-      <c r="D8" s="347" t="s">
+      <c r="C12" s="343" t="s">
         <v>219</v>
       </c>
-      <c r="E8" s="347"/>
-      <c r="F8" s="347"/>
-      <c r="G8" s="347" t="s">
+      <c r="D12" s="343" t="s">
         <v>219</v>
       </c>
-      <c r="H8" s="347" t="s">
+      <c r="E12" s="343"/>
+      <c r="F12" s="343"/>
+      <c r="G12" s="343" t="s">
         <v>219</v>
       </c>
-      <c r="I8" s="348"/>
-      <c r="J8" s="349" t="s">
+      <c r="H12" s="344"/>
+      <c r="I12" s="371" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" s="30" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A9" s="351">
-        <v>13</v>
-      </c>
-      <c r="B9" s="351" t="s">
+      <c r="M12" s="343" t="s">
         <v>219</v>
       </c>
-      <c r="C9" s="351" t="s">
+    </row>
+    <row r="13" spans="1:13" s="3" customFormat="1">
+      <c r="A13" s="363">
+        <v>1</v>
+      </c>
+      <c r="B13" s="363" t="s">
         <v>219</v>
       </c>
-      <c r="D9" s="351"/>
-      <c r="E9" s="351"/>
-      <c r="F9" s="351"/>
-      <c r="G9" s="351" t="s">
+      <c r="C13" s="363"/>
+      <c r="D13" s="363"/>
+      <c r="E13" s="363"/>
+      <c r="F13" s="363"/>
+      <c r="G13" s="363"/>
+      <c r="H13" s="364"/>
+      <c r="I13" s="370" t="s">
+        <v>602</v>
+      </c>
+      <c r="M13" s="363" t="s">
         <v>219</v>
       </c>
-      <c r="H9" s="351" t="s">
+    </row>
+    <row r="14" spans="1:13" s="3" customFormat="1">
+      <c r="A14" s="363">
+        <v>5</v>
+      </c>
+      <c r="B14" s="363" t="s">
         <v>219</v>
       </c>
-      <c r="I9" s="352"/>
-      <c r="J9" s="353" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="30" customFormat="1">
-      <c r="A10" s="351">
-        <v>15</v>
-      </c>
-      <c r="B10" s="351" t="s">
+      <c r="C14" s="363" t="s">
         <v>219</v>
       </c>
-      <c r="C10" s="351" t="s">
+      <c r="D14" s="363" t="s">
         <v>219</v>
       </c>
-      <c r="D10" s="351"/>
-      <c r="E10" s="351"/>
-      <c r="F10" s="351"/>
-      <c r="G10" s="351" t="s">
+      <c r="E14" s="363"/>
+      <c r="F14" s="363"/>
+      <c r="G14" s="363"/>
+      <c r="H14" s="364" t="s">
         <v>219</v>
       </c>
-      <c r="H10" s="351" t="s">
+      <c r="I14" s="370" t="s">
+        <v>603</v>
+      </c>
+      <c r="M14" s="363" t="s">
         <v>219</v>
       </c>
-      <c r="I10" s="352"/>
-      <c r="J10" s="353" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="350" customFormat="1">
-      <c r="A11" s="347">
-        <v>17</v>
-      </c>
-      <c r="B11" s="347" t="s">
+    </row>
+    <row r="15" spans="1:13" s="359" customFormat="1">
+      <c r="A15" s="357">
+        <v>2</v>
+      </c>
+      <c r="B15" s="357" t="s">
         <v>219</v>
       </c>
-      <c r="C11" s="347" t="s">
+      <c r="C15" s="357"/>
+      <c r="D15" s="357" t="s">
         <v>219</v>
       </c>
-      <c r="D11" s="347" t="s">
+      <c r="E15" s="357"/>
+      <c r="F15" s="357"/>
+      <c r="G15" s="357" t="s">
         <v>219</v>
       </c>
-      <c r="E11" s="347"/>
-      <c r="F11" s="347"/>
-      <c r="G11" s="347" t="s">
+      <c r="H15" s="358"/>
+      <c r="I15" s="373" t="s">
+        <v>604</v>
+      </c>
+      <c r="M15" s="357"/>
+    </row>
+    <row r="16" spans="1:13" s="359" customFormat="1">
+      <c r="A16" s="357">
+        <v>4</v>
+      </c>
+      <c r="B16" s="357" t="s">
         <v>219</v>
       </c>
-      <c r="H11" s="347" t="s">
+      <c r="C16" s="357"/>
+      <c r="D16" s="357" t="s">
         <v>219</v>
       </c>
-      <c r="I11" s="348"/>
-      <c r="J11" s="349" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="3" customFormat="1">
-      <c r="A12" s="374">
-        <v>1</v>
-      </c>
-      <c r="B12" s="374" t="s">
+      <c r="E16" s="357"/>
+      <c r="F16" s="357"/>
+      <c r="G16" s="357" t="s">
         <v>219</v>
       </c>
-      <c r="C12" s="374"/>
-      <c r="D12" s="374"/>
-      <c r="E12" s="374"/>
-      <c r="F12" s="374"/>
-      <c r="G12" s="374"/>
-      <c r="H12" s="374" t="s">
+      <c r="H16" s="358"/>
+      <c r="I16" s="373" t="s">
+        <v>604</v>
+      </c>
+      <c r="M16" s="357"/>
+    </row>
+    <row r="17" spans="1:13" s="362" customFormat="1">
+      <c r="A17" s="360">
+        <v>6</v>
+      </c>
+      <c r="B17" s="360" t="s">
         <v>219</v>
       </c>
-      <c r="I12" s="375"/>
-      <c r="J12" s="337" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="3" customFormat="1">
-      <c r="A13" s="374">
-        <v>5</v>
-      </c>
-      <c r="B13" s="374" t="s">
+      <c r="C17" s="360" t="s">
         <v>219</v>
       </c>
-      <c r="C13" s="374" t="s">
+      <c r="D17" s="360"/>
+      <c r="E17" s="360"/>
+      <c r="F17" s="360"/>
+      <c r="G17" s="360" t="s">
         <v>219</v>
       </c>
-      <c r="D13" s="374" t="s">
+      <c r="H17" s="361"/>
+      <c r="I17" s="374" t="s">
+        <v>604</v>
+      </c>
+      <c r="M17" s="360"/>
+    </row>
+    <row r="18" spans="1:13" s="362" customFormat="1">
+      <c r="A18" s="360">
+        <v>11</v>
+      </c>
+      <c r="B18" s="360" t="s">
         <v>219</v>
       </c>
-      <c r="E13" s="374"/>
-      <c r="F13" s="374"/>
-      <c r="G13" s="374"/>
-      <c r="H13" s="374" t="s">
+      <c r="C18" s="360" t="s">
         <v>219</v>
       </c>
-      <c r="I13" s="375" t="s">
+      <c r="D18" s="360"/>
+      <c r="E18" s="360"/>
+      <c r="F18" s="360"/>
+      <c r="G18" s="360" t="s">
         <v>219</v>
       </c>
-      <c r="J13" s="376" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="369" customFormat="1">
-      <c r="A14" s="366">
-        <v>2</v>
-      </c>
-      <c r="B14" s="366" t="s">
+      <c r="H18" s="361"/>
+      <c r="I18" s="374" t="s">
+        <v>605</v>
+      </c>
+      <c r="M18" s="360"/>
+    </row>
+    <row r="19" spans="1:13" s="3" customFormat="1">
+      <c r="A19" s="363">
+        <v>19</v>
+      </c>
+      <c r="B19" s="363" t="s">
         <v>219</v>
       </c>
-      <c r="C14" s="366"/>
-      <c r="D14" s="366" t="s">
+      <c r="C19" s="363"/>
+      <c r="D19" s="363" t="s">
         <v>219</v>
       </c>
-      <c r="E14" s="366"/>
-      <c r="F14" s="366"/>
-      <c r="G14" s="366" t="s">
+      <c r="E19" s="363"/>
+      <c r="F19" s="363"/>
+      <c r="G19" s="363" t="s">
         <v>219</v>
       </c>
-      <c r="H14" s="366"/>
-      <c r="I14" s="367"/>
-      <c r="J14" s="368" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="369" customFormat="1">
-      <c r="A15" s="366">
-        <v>4</v>
-      </c>
-      <c r="B15" s="366" t="s">
+      <c r="H19" s="364" t="s">
         <v>219</v>
       </c>
-      <c r="C15" s="366"/>
-      <c r="D15" s="366" t="s">
+      <c r="I19" s="370" t="s">
+        <v>606</v>
+      </c>
+      <c r="M19" s="363"/>
+    </row>
+    <row r="20" spans="1:13" s="350" customFormat="1">
+      <c r="A20" s="348">
+        <v>20</v>
+      </c>
+      <c r="B20" s="348" t="s">
         <v>219</v>
       </c>
-      <c r="E15" s="366"/>
-      <c r="F15" s="366"/>
-      <c r="G15" s="366" t="s">
+      <c r="C20" s="348"/>
+      <c r="D20" s="348"/>
+      <c r="E20" s="348"/>
+      <c r="F20" s="348"/>
+      <c r="G20" s="348" t="s">
         <v>219</v>
       </c>
-      <c r="H15" s="366"/>
-      <c r="I15" s="367"/>
-      <c r="J15" s="368" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="373" customFormat="1">
-      <c r="A16" s="370">
-        <v>6</v>
-      </c>
-      <c r="B16" s="370" t="s">
+      <c r="H20" s="349" t="s">
         <v>219</v>
       </c>
-      <c r="C16" s="370" t="s">
+      <c r="I20" s="375" t="s">
+        <v>606</v>
+      </c>
+      <c r="M20" s="348"/>
+    </row>
+    <row r="21" spans="1:13" s="350" customFormat="1">
+      <c r="A21" s="348">
+        <v>21</v>
+      </c>
+      <c r="B21" s="348" t="s">
         <v>219</v>
       </c>
-      <c r="D16" s="370"/>
-      <c r="E16" s="370"/>
-      <c r="F16" s="370"/>
-      <c r="G16" s="370" t="s">
+      <c r="C21" s="348"/>
+      <c r="D21" s="348"/>
+      <c r="E21" s="348"/>
+      <c r="F21" s="348"/>
+      <c r="G21" s="348" t="s">
         <v>219</v>
       </c>
-      <c r="H16" s="370"/>
-      <c r="I16" s="371"/>
-      <c r="J16" s="372" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="373" customFormat="1">
-      <c r="A17" s="370">
-        <v>11</v>
-      </c>
-      <c r="B17" s="370" t="s">
+      <c r="H21" s="349" t="s">
         <v>219</v>
       </c>
-      <c r="C17" s="370" t="s">
+      <c r="I21" s="375" t="s">
+        <v>606</v>
+      </c>
+      <c r="M21" s="348"/>
+    </row>
+    <row r="22" spans="1:13" s="353" customFormat="1">
+      <c r="A22" s="351">
+        <v>9</v>
+      </c>
+      <c r="B22" s="351" t="s">
         <v>219</v>
       </c>
-      <c r="D17" s="370"/>
-      <c r="E17" s="370"/>
-      <c r="F17" s="370"/>
-      <c r="G17" s="370" t="s">
+      <c r="C22" s="351" t="s">
         <v>219</v>
       </c>
-      <c r="H17" s="370"/>
-      <c r="I17" s="371"/>
-      <c r="J17" s="372" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="3" customFormat="1">
-      <c r="A18" s="374">
-        <v>19</v>
-      </c>
-      <c r="B18" s="374" t="s">
+      <c r="D22" s="351"/>
+      <c r="E22" s="351"/>
+      <c r="F22" s="351"/>
+      <c r="G22" s="351"/>
+      <c r="H22" s="352"/>
+      <c r="I22" s="376" t="s">
+        <v>607</v>
+      </c>
+      <c r="M22" s="351"/>
+    </row>
+    <row r="23" spans="1:13" s="356" customFormat="1" ht="33" customHeight="1">
+      <c r="A23" s="354">
+        <v>12</v>
+      </c>
+      <c r="B23" s="354" t="s">
         <v>219</v>
       </c>
-      <c r="C18" s="374"/>
-      <c r="D18" s="374" t="s">
+      <c r="C23" s="354" t="s">
         <v>219</v>
       </c>
-      <c r="E18" s="374"/>
-      <c r="F18" s="374"/>
-      <c r="G18" s="374" t="s">
+      <c r="D23" s="354" t="s">
         <v>219</v>
       </c>
-      <c r="H18" s="374"/>
-      <c r="I18" s="375" t="s">
+      <c r="E23" s="354"/>
+      <c r="F23" s="354"/>
+      <c r="G23" s="354"/>
+      <c r="H23" s="355"/>
+      <c r="I23" s="377" t="s">
+        <v>607</v>
+      </c>
+      <c r="M23" s="354"/>
+    </row>
+    <row r="24" spans="1:13" s="356" customFormat="1">
+      <c r="A24" s="354">
+        <v>16</v>
+      </c>
+      <c r="B24" s="354" t="s">
         <v>219</v>
       </c>
-      <c r="J18" s="376" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="357" customFormat="1">
-      <c r="A19" s="354">
-        <v>20</v>
-      </c>
-      <c r="B19" s="354" t="s">
+      <c r="C24" s="354" t="s">
         <v>219</v>
       </c>
-      <c r="C19" s="354"/>
-      <c r="D19" s="354"/>
-      <c r="E19" s="354"/>
-      <c r="F19" s="354"/>
-      <c r="G19" s="354" t="s">
+      <c r="D24" s="354" t="s">
         <v>219</v>
       </c>
-      <c r="H19" s="354"/>
-      <c r="I19" s="355" t="s">
+      <c r="E24" s="354"/>
+      <c r="F24" s="354"/>
+      <c r="G24" s="354"/>
+      <c r="H24" s="355"/>
+      <c r="I24" s="377" t="s">
+        <v>607</v>
+      </c>
+      <c r="M24" s="354"/>
+    </row>
+    <row r="25" spans="1:13" s="353" customFormat="1">
+      <c r="A25" s="351">
+        <v>22</v>
+      </c>
+      <c r="B25" s="351" t="s">
         <v>219</v>
       </c>
-      <c r="J19" s="356" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="357" customFormat="1">
-      <c r="A20" s="354">
-        <v>21</v>
-      </c>
-      <c r="B20" s="354" t="s">
+      <c r="C25" s="351" t="s">
         <v>219</v>
       </c>
-      <c r="C20" s="354"/>
-      <c r="D20" s="354"/>
-      <c r="E20" s="354"/>
-      <c r="F20" s="354"/>
-      <c r="G20" s="354" t="s">
-        <v>219</v>
-      </c>
-      <c r="H20" s="354"/>
-      <c r="I20" s="355" t="s">
-        <v>219</v>
-      </c>
-      <c r="J20" s="356" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="361" customFormat="1">
-      <c r="A21" s="358">
-        <v>9</v>
-      </c>
-      <c r="B21" s="358" t="s">
-        <v>219</v>
-      </c>
-      <c r="C21" s="358" t="s">
-        <v>219</v>
-      </c>
-      <c r="D21" s="358"/>
-      <c r="E21" s="358"/>
-      <c r="F21" s="358"/>
-      <c r="G21" s="358"/>
-      <c r="H21" s="358"/>
-      <c r="I21" s="359"/>
-      <c r="J21" s="360" t="s">
+      <c r="D25" s="351"/>
+      <c r="E25" s="351"/>
+      <c r="F25" s="351"/>
+      <c r="G25" s="351"/>
+      <c r="H25" s="352"/>
+      <c r="I25" s="376" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" s="365" customFormat="1" ht="33" customHeight="1">
-      <c r="A22" s="362">
-        <v>12</v>
-      </c>
-      <c r="B22" s="362" t="s">
-        <v>219</v>
-      </c>
-      <c r="C22" s="362" t="s">
-        <v>219</v>
-      </c>
-      <c r="D22" s="362" t="s">
-        <v>219</v>
-      </c>
-      <c r="E22" s="362"/>
-      <c r="F22" s="362"/>
-      <c r="G22" s="362"/>
-      <c r="H22" s="362"/>
-      <c r="I22" s="363"/>
-      <c r="J22" s="364" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="365" customFormat="1">
-      <c r="A23" s="362">
-        <v>16</v>
-      </c>
-      <c r="B23" s="362" t="s">
-        <v>219</v>
-      </c>
-      <c r="C23" s="362" t="s">
-        <v>219</v>
-      </c>
-      <c r="D23" s="362" t="s">
-        <v>219</v>
-      </c>
-      <c r="E23" s="362"/>
-      <c r="F23" s="362"/>
-      <c r="G23" s="362"/>
-      <c r="H23" s="362"/>
-      <c r="I23" s="363"/>
-      <c r="J23" s="364" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="361" customFormat="1">
-      <c r="A24" s="358">
-        <v>22</v>
-      </c>
-      <c r="B24" s="358" t="s">
-        <v>219</v>
-      </c>
-      <c r="C24" s="358" t="s">
-        <v>219</v>
-      </c>
-      <c r="D24" s="358"/>
-      <c r="E24" s="358"/>
-      <c r="F24" s="358"/>
-      <c r="G24" s="358"/>
-      <c r="H24" s="358"/>
-      <c r="I24" s="359"/>
-      <c r="J24" s="360" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="J25" s="320"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="I26" s="346"/>
-      <c r="J26" s="320"/>
-      <c r="K26" s="320"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="I27" s="346"/>
+      <c r="M25" s="351"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="I26" s="378"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="H27" s="342"/>
+      <c r="I27" s="378"/>
       <c r="J27" s="320"/>
-      <c r="K27" s="320"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="I28" s="346"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="H28" s="342"/>
+      <c r="I28" s="378"/>
       <c r="J28" s="320"/>
-      <c r="K28" s="320"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="I29" s="346"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="H29" s="342"/>
+      <c r="I29" s="378"/>
       <c r="J29" s="320"/>
-      <c r="K29" s="320"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="I30" s="346"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="H30" s="342"/>
+      <c r="I30" s="378"/>
       <c r="J30" s="320"/>
-      <c r="K30" s="320"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="I31" s="346"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="H31" s="342"/>
+      <c r="I31" s="378"/>
       <c r="J31" s="320"/>
-      <c r="K31" s="320"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="I32" s="346"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="H32" s="342"/>
+      <c r="I32" s="378"/>
       <c r="J32" s="320"/>
-      <c r="K32" s="320"/>
-    </row>
-    <row r="33" spans="9:11">
-      <c r="I33" s="346"/>
+    </row>
+    <row r="33" spans="8:10">
+      <c r="H33" s="342"/>
+      <c r="I33" s="378"/>
       <c r="J33" s="320"/>
-      <c r="K33" s="320"/>
-    </row>
-    <row r="34" spans="9:11">
-      <c r="I34" s="346"/>
+    </row>
+    <row r="34" spans="8:10">
+      <c r="H34" s="342"/>
+      <c r="I34" s="378"/>
       <c r="J34" s="320"/>
-      <c r="K34" s="320"/>
-    </row>
-    <row r="35" spans="9:11">
-      <c r="I35" s="346"/>
+    </row>
+    <row r="35" spans="8:10">
+      <c r="H35" s="342"/>
+      <c r="I35" s="378"/>
       <c r="J35" s="320"/>
-      <c r="K35" s="320"/>
-    </row>
-    <row r="36" spans="9:11">
-      <c r="I36" s="346"/>
+    </row>
+    <row r="36" spans="8:10">
+      <c r="H36" s="342"/>
+      <c r="I36" s="378"/>
       <c r="J36" s="320"/>
-      <c r="K36" s="320"/>
-    </row>
-    <row r="37" spans="9:11">
-      <c r="I37" s="346"/>
+    </row>
+    <row r="37" spans="8:10">
+      <c r="H37" s="342"/>
+      <c r="I37" s="378"/>
       <c r="J37" s="320"/>
-      <c r="K37" s="320"/>
-    </row>
-    <row r="38" spans="9:11">
-      <c r="I38" s="346"/>
+    </row>
+    <row r="38" spans="8:10">
+      <c r="H38" s="342"/>
+      <c r="I38" s="378"/>
       <c r="J38" s="320"/>
-      <c r="K38" s="320"/>
-    </row>
-    <row r="39" spans="9:11">
-      <c r="I39" s="346"/>
+    </row>
+    <row r="39" spans="8:10">
+      <c r="H39" s="342"/>
+      <c r="I39" s="378"/>
       <c r="J39" s="320"/>
-      <c r="K39" s="320"/>
-    </row>
-    <row r="40" spans="9:11">
-      <c r="I40" s="346"/>
+    </row>
+    <row r="40" spans="8:10">
+      <c r="H40" s="342"/>
+      <c r="I40" s="378"/>
       <c r="J40" s="320"/>
-      <c r="K40" s="320"/>
-    </row>
-    <row r="41" spans="9:11">
-      <c r="I41" s="346"/>
+    </row>
+    <row r="41" spans="8:10">
+      <c r="H41" s="342"/>
+      <c r="I41" s="378"/>
       <c r="J41" s="320"/>
-      <c r="K41" s="320"/>
+    </row>
+    <row r="42" spans="8:10">
+      <c r="H42" s="342"/>
+      <c r="I42" s="378"/>
+      <c r="J42" s="320"/>
     </row>
   </sheetData>
   <sortState ref="A3:I24">
-    <sortCondition ref="H3:H24"/>
     <sortCondition ref="E3:E24"/>
     <sortCondition ref="F3:F24"/>
     <sortCondition ref="G3:G24"/>
   </sortState>
-  <mergeCells count="2">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
+  <mergeCells count="3">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="J2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Copy of ICD-10 conversions_5_10_20 (3)_JBS.xlsx
+++ b/Copy of ICD-10 conversions_5_10_20 (3)_JBS.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shutfle1\Documents\GitHub\Johns-Hopkins-Overuse-Project-with-Segal\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="500" yWindow="560" windowWidth="20730" windowHeight="11760" activeTab="6"/>
+    <workbookView xWindow="495" yWindow="555" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="4" r:id="rId1"/>
@@ -43,7 +38,7 @@
     <definedName name="OLE_LINK3" localSheetId="1">'Indicator Descriptions'!$B$17</definedName>
     <definedName name="OLE_LINK4" localSheetId="1">'Indicator Descriptions'!$B$18</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -66,7 +61,7 @@
     <author>Jodi</author>
   </authors>
   <commentList>
-    <comment ref="D19" authorId="0" shapeId="0">
+    <comment ref="D19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -95,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="614">
   <si>
     <t>Working Number</t>
   </si>
@@ -2568,11 +2563,23 @@
   <si>
     <t>Popped--if inclusion for pop it must happen on the same claim</t>
   </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Not really</t>
+  </si>
+  <si>
+    <t>Do we NEED inpatient?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="47">
     <font>
       <sz val="12"/>
@@ -3228,7 +3235,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="379">
+  <cellXfs count="383">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4088,12 +4095,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="40" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="40" fillId="38" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4124,6 +4125,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4447,7 +4466,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4461,7 +4480,7 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="98.5" style="2" customWidth="1"/>
   </cols>
@@ -4471,7 +4490,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="31">
+    <row r="2" spans="1:1" ht="31.5">
       <c r="A2" s="17" t="s">
         <v>268</v>
       </c>
@@ -4550,7 +4569,7 @@
     <row r="18" spans="1:1">
       <c r="A18" s="17"/>
     </row>
-    <row r="19" spans="1:1" ht="46.5">
+    <row r="19" spans="1:1" ht="47.25">
       <c r="A19" s="17" t="s">
         <v>271</v>
       </c>
@@ -4633,34 +4652,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R174"/>
+  <dimension ref="A1:S174"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.58203125" style="218" customWidth="1"/>
+    <col min="1" max="1" width="10.625" style="218" customWidth="1"/>
     <col min="2" max="2" width="29" style="219" customWidth="1"/>
     <col min="3" max="3" width="32" style="220" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" style="221" customWidth="1"/>
-    <col min="5" max="5" width="20" style="221" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="38.33203125" style="247" customWidth="1"/>
-    <col min="7" max="7" width="41.33203125" style="247" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="222" customWidth="1"/>
-    <col min="9" max="9" width="13.5" style="222" customWidth="1"/>
-    <col min="10" max="10" width="20.83203125" customWidth="1"/>
-    <col min="11" max="11" width="9.5" style="314" customWidth="1"/>
-    <col min="12" max="12" width="7.5" style="314" customWidth="1"/>
-    <col min="13" max="13" width="10.58203125" style="314" customWidth="1"/>
-    <col min="14" max="14" width="27" style="258" customWidth="1"/>
-    <col min="15" max="15" width="25" style="258" customWidth="1"/>
-    <col min="16" max="16" width="8.83203125" style="258"/>
+    <col min="4" max="4" width="28.375" style="221" customWidth="1"/>
+    <col min="5" max="5" width="20" style="221" customWidth="1"/>
+    <col min="6" max="6" width="20" style="382" customWidth="1"/>
+    <col min="7" max="7" width="38.375" style="247" customWidth="1"/>
+    <col min="8" max="8" width="41.375" style="247" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="222" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="222" customWidth="1"/>
+    <col min="11" max="11" width="20.875" customWidth="1"/>
+    <col min="12" max="12" width="9.5" style="314" customWidth="1"/>
+    <col min="13" max="13" width="7.5" style="314" customWidth="1"/>
+    <col min="14" max="14" width="10.625" style="314" customWidth="1"/>
+    <col min="15" max="15" width="27" style="258" customWidth="1"/>
+    <col min="16" max="16" width="25" style="258" customWidth="1"/>
+    <col min="17" max="17" width="8.875" style="258"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="198" customFormat="1" ht="39" customHeight="1">
+    <row r="1" spans="1:19" s="198" customFormat="1" ht="39" customHeight="1">
       <c r="A1" s="199" t="s">
         <v>351</v>
       </c>
@@ -4676,39 +4696,42 @@
       <c r="E1" s="200" t="s">
         <v>439</v>
       </c>
-      <c r="F1" s="244" t="s">
+      <c r="F1" s="379" t="s">
+        <v>613</v>
+      </c>
+      <c r="G1" s="244" t="s">
         <v>500</v>
       </c>
-      <c r="G1" s="244" t="s">
+      <c r="H1" s="244" t="s">
         <v>518</v>
       </c>
-      <c r="H1" s="201" t="s">
+      <c r="I1" s="201" t="s">
         <v>221</v>
       </c>
-      <c r="I1" s="201" t="s">
+      <c r="J1" s="201" t="s">
         <v>222</v>
       </c>
-      <c r="J1" s="201" t="s">
+      <c r="K1" s="201" t="s">
         <v>426</v>
       </c>
-      <c r="K1" s="309" t="s">
+      <c r="L1" s="309" t="s">
         <v>445</v>
       </c>
-      <c r="L1" s="310" t="s">
+      <c r="M1" s="310" t="s">
         <v>448</v>
       </c>
-      <c r="M1" s="310" t="s">
+      <c r="N1" s="310" t="s">
         <v>590</v>
       </c>
-      <c r="N1" s="249" t="s">
+      <c r="O1" s="249" t="s">
         <v>449</v>
       </c>
-      <c r="O1" s="249" t="s">
+      <c r="P1" s="249" t="s">
         <v>452</v>
       </c>
-      <c r="P1" s="249"/>
-    </row>
-    <row r="2" spans="1:18" s="53" customFormat="1" ht="95.5" customHeight="1">
+      <c r="Q1" s="249"/>
+    </row>
+    <row r="2" spans="1:19" s="53" customFormat="1" ht="95.45" customHeight="1">
       <c r="A2" s="202">
         <v>1</v>
       </c>
@@ -4724,35 +4747,38 @@
       <c r="E2" s="200" t="s">
         <v>240</v>
       </c>
-      <c r="F2" s="244" t="s">
+      <c r="F2" s="379" t="s">
+        <v>610</v>
+      </c>
+      <c r="G2" s="244" t="s">
         <v>495</v>
       </c>
-      <c r="G2" s="244" t="s">
+      <c r="H2" s="244" t="s">
         <v>542</v>
       </c>
-      <c r="H2" s="204" t="s">
+      <c r="I2" s="204" t="s">
         <v>232</v>
       </c>
-      <c r="I2" s="204" t="s">
+      <c r="J2" s="204" t="s">
         <v>233</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="311" t="s">
+      <c r="K2" s="48"/>
+      <c r="L2" s="311" t="s">
         <v>446</v>
       </c>
-      <c r="L2" s="311" t="s">
+      <c r="M2" s="311" t="s">
         <v>447</v>
       </c>
-      <c r="M2" s="327" t="s">
+      <c r="N2" s="327" t="s">
         <v>591</v>
       </c>
-      <c r="N2" s="250" t="s">
+      <c r="O2" s="250" t="s">
         <v>478</v>
       </c>
-      <c r="O2" s="250"/>
       <c r="P2" s="250"/>
-    </row>
-    <row r="3" spans="1:18" s="48" customFormat="1" ht="84" customHeight="1">
+      <c r="Q2" s="250"/>
+    </row>
+    <row r="3" spans="1:19" s="48" customFormat="1" ht="84" customHeight="1">
       <c r="A3" s="202">
         <v>2</v>
       </c>
@@ -4768,32 +4794,35 @@
       <c r="E3" s="200" t="s">
         <v>444</v>
       </c>
-      <c r="F3" s="244" t="s">
+      <c r="F3" s="379" t="s">
+        <v>610</v>
+      </c>
+      <c r="G3" s="244" t="s">
         <v>522</v>
       </c>
-      <c r="G3" s="244" t="s">
+      <c r="H3" s="244" t="s">
         <v>541</v>
       </c>
-      <c r="H3" s="204" t="s">
+      <c r="I3" s="204" t="s">
         <v>257</v>
       </c>
-      <c r="I3" s="204" t="s">
+      <c r="J3" s="204" t="s">
         <v>258</v>
-      </c>
-      <c r="K3" s="312" t="s">
-        <v>447</v>
       </c>
       <c r="L3" s="312" t="s">
         <v>447</v>
       </c>
-      <c r="M3" s="312"/>
-      <c r="N3" s="251" t="s">
+      <c r="M3" s="312" t="s">
+        <v>447</v>
+      </c>
+      <c r="N3" s="312"/>
+      <c r="O3" s="251" t="s">
         <v>460</v>
       </c>
-      <c r="O3" s="252"/>
       <c r="P3" s="252"/>
-    </row>
-    <row r="4" spans="1:18" s="48" customFormat="1" ht="195">
+      <c r="Q3" s="252"/>
+    </row>
+    <row r="4" spans="1:19" s="48" customFormat="1" ht="178.5">
       <c r="A4" s="202">
         <v>3</v>
       </c>
@@ -4809,42 +4838,45 @@
       <c r="E4" s="200" t="s">
         <v>443</v>
       </c>
-      <c r="F4" s="244" t="s">
+      <c r="F4" s="379" t="s">
+        <v>610</v>
+      </c>
+      <c r="G4" s="244" t="s">
         <v>501</v>
       </c>
-      <c r="G4" s="244" t="s">
+      <c r="H4" s="244" t="s">
         <v>592</v>
       </c>
-      <c r="H4" s="204" t="s">
+      <c r="I4" s="204" t="s">
         <v>251</v>
       </c>
-      <c r="I4" s="204" t="s">
+      <c r="J4" s="204" t="s">
         <v>252</v>
-      </c>
-      <c r="K4" s="312" t="s">
-        <v>446</v>
       </c>
       <c r="L4" s="312" t="s">
         <v>446</v>
       </c>
-      <c r="M4" s="312"/>
-      <c r="N4" s="251" t="s">
+      <c r="M4" s="312" t="s">
+        <v>446</v>
+      </c>
+      <c r="N4" s="312"/>
+      <c r="O4" s="251" t="s">
         <v>471</v>
       </c>
-      <c r="O4" s="251" t="s">
+      <c r="P4" s="251" t="s">
         <v>473</v>
       </c>
-      <c r="P4" s="251" t="s">
+      <c r="Q4" s="251" t="s">
         <v>472</v>
       </c>
-      <c r="Q4" s="243" t="s">
+      <c r="R4" s="243" t="s">
         <v>477</v>
       </c>
-      <c r="R4" s="261" t="s">
+      <c r="S4" s="261" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="48" customFormat="1" ht="78">
+    <row r="5" spans="1:19" s="48" customFormat="1" ht="76.5">
       <c r="A5" s="202">
         <v>4</v>
       </c>
@@ -4860,32 +4892,35 @@
       <c r="E5" s="200" t="s">
         <v>440</v>
       </c>
-      <c r="F5" s="244" t="s">
+      <c r="F5" s="379" t="s">
+        <v>611</v>
+      </c>
+      <c r="G5" s="244" t="s">
         <v>511</v>
       </c>
-      <c r="G5" s="244" t="s">
+      <c r="H5" s="244" t="s">
         <v>529</v>
       </c>
-      <c r="H5" s="204" t="s">
+      <c r="I5" s="204" t="s">
         <v>235</v>
       </c>
-      <c r="I5" s="204" t="s">
+      <c r="J5" s="204" t="s">
         <v>236</v>
-      </c>
-      <c r="K5" s="312" t="s">
-        <v>447</v>
       </c>
       <c r="L5" s="312" t="s">
         <v>447</v>
       </c>
-      <c r="M5" s="312"/>
-      <c r="N5" s="252" t="s">
+      <c r="M5" s="312" t="s">
+        <v>447</v>
+      </c>
+      <c r="N5" s="312"/>
+      <c r="O5" s="252" t="s">
         <v>453</v>
       </c>
-      <c r="O5" s="252"/>
       <c r="P5" s="252"/>
-    </row>
-    <row r="6" spans="1:18" s="233" customFormat="1" ht="102.75" customHeight="1">
+      <c r="Q5" s="252"/>
+    </row>
+    <row r="6" spans="1:19" s="233" customFormat="1" ht="102.75" customHeight="1">
       <c r="A6" s="232">
         <v>5</v>
       </c>
@@ -4901,37 +4936,40 @@
       <c r="E6" s="206" t="s">
         <v>451</v>
       </c>
-      <c r="F6" s="245" t="s">
+      <c r="F6" s="380" t="s">
+        <v>610</v>
+      </c>
+      <c r="G6" s="245" t="s">
         <v>520</v>
       </c>
-      <c r="G6" s="245" t="s">
+      <c r="H6" s="245" t="s">
         <v>538</v>
       </c>
-      <c r="H6" s="204" t="s">
+      <c r="I6" s="204" t="s">
         <v>402</v>
       </c>
-      <c r="I6" s="234" t="s">
+      <c r="J6" s="234" t="s">
         <v>403</v>
       </c>
-      <c r="J6" s="235" t="s">
+      <c r="K6" s="235" t="s">
         <v>400</v>
-      </c>
-      <c r="K6" s="313" t="s">
-        <v>446</v>
       </c>
       <c r="L6" s="313" t="s">
         <v>446</v>
       </c>
-      <c r="M6" s="313"/>
-      <c r="N6" s="253" t="s">
+      <c r="M6" s="313" t="s">
+        <v>446</v>
+      </c>
+      <c r="N6" s="313"/>
+      <c r="O6" s="253" t="s">
         <v>454</v>
       </c>
-      <c r="O6" s="254" t="s">
+      <c r="P6" s="254" t="s">
         <v>479</v>
       </c>
-      <c r="P6" s="253"/>
-    </row>
-    <row r="7" spans="1:18" s="48" customFormat="1" ht="91">
+      <c r="Q6" s="253"/>
+    </row>
+    <row r="7" spans="1:19" s="48" customFormat="1" ht="89.25">
       <c r="A7" s="202">
         <v>6</v>
       </c>
@@ -4947,34 +4985,37 @@
       <c r="E7" s="200" t="s">
         <v>441</v>
       </c>
-      <c r="F7" s="244" t="s">
+      <c r="F7" s="379" t="s">
+        <v>610</v>
+      </c>
+      <c r="G7" s="244" t="s">
         <v>502</v>
       </c>
-      <c r="G7" s="244" t="s">
+      <c r="H7" s="244" t="s">
         <v>540</v>
       </c>
-      <c r="H7" s="204" t="s">
+      <c r="I7" s="204" t="s">
         <v>240</v>
       </c>
-      <c r="I7" s="204" t="s">
+      <c r="J7" s="204" t="s">
         <v>241</v>
       </c>
-      <c r="K7" s="312" t="s">
+      <c r="L7" s="312" t="s">
         <v>447</v>
       </c>
-      <c r="L7" s="312" t="s">
+      <c r="M7" s="312" t="s">
         <v>446</v>
       </c>
-      <c r="M7" s="312"/>
-      <c r="N7" s="251" t="s">
+      <c r="N7" s="312"/>
+      <c r="O7" s="251" t="s">
         <v>462</v>
       </c>
-      <c r="O7" s="252" t="s">
+      <c r="P7" s="252" t="s">
         <v>494</v>
       </c>
-      <c r="P7" s="252"/>
-    </row>
-    <row r="8" spans="1:18" s="48" customFormat="1" ht="108.75" customHeight="1">
+      <c r="Q7" s="252"/>
+    </row>
+    <row r="8" spans="1:19" s="48" customFormat="1" ht="108.75" customHeight="1">
       <c r="A8" s="202">
         <v>7</v>
       </c>
@@ -4990,34 +5031,37 @@
       <c r="E8" s="206" t="s">
         <v>464</v>
       </c>
-      <c r="F8" s="245" t="s">
+      <c r="F8" s="380" t="s">
+        <v>610</v>
+      </c>
+      <c r="G8" s="245" t="s">
         <v>503</v>
       </c>
-      <c r="G8" s="245" t="s">
+      <c r="H8" s="245" t="s">
         <v>543</v>
       </c>
-      <c r="H8" s="204" t="s">
+      <c r="I8" s="204" t="s">
         <v>228</v>
       </c>
-      <c r="I8" s="204" t="s">
+      <c r="J8" s="204" t="s">
         <v>229</v>
-      </c>
-      <c r="K8" s="312" t="s">
-        <v>446</v>
       </c>
       <c r="L8" s="312" t="s">
         <v>446</v>
       </c>
-      <c r="M8" s="312"/>
-      <c r="N8" s="252" t="s">
+      <c r="M8" s="312" t="s">
+        <v>446</v>
+      </c>
+      <c r="N8" s="312"/>
+      <c r="O8" s="252" t="s">
         <v>465</v>
       </c>
-      <c r="O8" s="255" t="s">
+      <c r="P8" s="255" t="s">
         <v>480</v>
       </c>
-      <c r="P8" s="252"/>
-    </row>
-    <row r="9" spans="1:18" s="48" customFormat="1" ht="104">
+      <c r="Q8" s="252"/>
+    </row>
+    <row r="9" spans="1:19" s="48" customFormat="1" ht="102">
       <c r="A9" s="202">
         <v>8</v>
       </c>
@@ -5033,34 +5077,37 @@
       <c r="E9" s="206" t="s">
         <v>440</v>
       </c>
-      <c r="F9" s="245" t="s">
+      <c r="F9" s="380" t="s">
+        <v>612</v>
+      </c>
+      <c r="G9" s="245" t="s">
         <v>503</v>
       </c>
-      <c r="G9" s="245" t="s">
+      <c r="H9" s="245" t="s">
         <v>539</v>
       </c>
-      <c r="H9" s="204" t="s">
+      <c r="I9" s="204" t="s">
         <v>228</v>
       </c>
-      <c r="I9" s="204" t="s">
+      <c r="J9" s="204" t="s">
         <v>292</v>
-      </c>
-      <c r="K9" s="312" t="s">
-        <v>446</v>
       </c>
       <c r="L9" s="312" t="s">
         <v>446</v>
       </c>
-      <c r="M9" s="312"/>
-      <c r="N9" s="252" t="s">
+      <c r="M9" s="312" t="s">
+        <v>446</v>
+      </c>
+      <c r="N9" s="312"/>
+      <c r="O9" s="252" t="s">
         <v>481</v>
       </c>
-      <c r="O9" s="255" t="s">
+      <c r="P9" s="255" t="s">
         <v>493</v>
       </c>
-      <c r="P9" s="252"/>
-    </row>
-    <row r="10" spans="1:18" s="48" customFormat="1" ht="91">
+      <c r="Q9" s="252"/>
+    </row>
+    <row r="10" spans="1:19" s="48" customFormat="1" ht="89.25">
       <c r="A10" s="202">
         <v>9</v>
       </c>
@@ -5076,32 +5123,35 @@
       <c r="E10" s="200" t="s">
         <v>440</v>
       </c>
-      <c r="F10" s="244" t="s">
+      <c r="F10" s="379" t="s">
+        <v>612</v>
+      </c>
+      <c r="G10" s="244" t="s">
         <v>523</v>
       </c>
-      <c r="G10" s="244" t="s">
+      <c r="H10" s="244" t="s">
         <v>524</v>
       </c>
-      <c r="H10" s="204" t="s">
+      <c r="I10" s="204" t="s">
         <v>265</v>
       </c>
-      <c r="I10" s="204" t="s">
+      <c r="J10" s="204" t="s">
         <v>266</v>
       </c>
-      <c r="K10" s="312" t="s">
+      <c r="L10" s="312" t="s">
         <v>447</v>
       </c>
-      <c r="L10" s="312" t="s">
+      <c r="M10" s="312" t="s">
         <v>446</v>
       </c>
-      <c r="M10" s="312"/>
-      <c r="N10" s="252" t="s">
+      <c r="N10" s="312"/>
+      <c r="O10" s="252" t="s">
         <v>492</v>
       </c>
-      <c r="O10" s="252"/>
       <c r="P10" s="252"/>
-    </row>
-    <row r="11" spans="1:18" s="48" customFormat="1" ht="97.5" customHeight="1">
+      <c r="Q10" s="252"/>
+    </row>
+    <row r="11" spans="1:19" s="48" customFormat="1" ht="97.5" customHeight="1">
       <c r="A11" s="202">
         <v>10</v>
       </c>
@@ -5117,34 +5167,37 @@
       <c r="E11" s="206" t="s">
         <v>440</v>
       </c>
-      <c r="F11" s="245" t="s">
+      <c r="F11" s="380" t="s">
+        <v>612</v>
+      </c>
+      <c r="G11" s="245" t="s">
         <v>504</v>
       </c>
-      <c r="G11" s="245" t="s">
+      <c r="H11" s="245" t="s">
         <v>530</v>
       </c>
-      <c r="H11" s="204" t="s">
+      <c r="I11" s="204" t="s">
         <v>243</v>
       </c>
-      <c r="I11" s="204" t="s">
+      <c r="J11" s="204" t="s">
         <v>244</v>
-      </c>
-      <c r="K11" s="312" t="s">
-        <v>446</v>
       </c>
       <c r="L11" s="312" t="s">
         <v>446</v>
       </c>
-      <c r="M11" s="312"/>
-      <c r="N11" s="252" t="s">
+      <c r="M11" s="312" t="s">
+        <v>446</v>
+      </c>
+      <c r="N11" s="312"/>
+      <c r="O11" s="252" t="s">
         <v>491</v>
       </c>
-      <c r="O11" s="252" t="s">
+      <c r="P11" s="252" t="s">
         <v>474</v>
       </c>
-      <c r="P11" s="252"/>
-    </row>
-    <row r="12" spans="1:18" s="48" customFormat="1" ht="117">
+      <c r="Q11" s="252"/>
+    </row>
+    <row r="12" spans="1:19" s="48" customFormat="1" ht="114.75">
       <c r="A12" s="202">
         <v>11</v>
       </c>
@@ -5160,32 +5213,35 @@
       <c r="E12" s="206" t="s">
         <v>440</v>
       </c>
-      <c r="F12" s="245" t="s">
+      <c r="F12" s="380" t="s">
+        <v>611</v>
+      </c>
+      <c r="G12" s="245" t="s">
         <v>505</v>
       </c>
-      <c r="G12" s="245" t="s">
+      <c r="H12" s="245" t="s">
         <v>531</v>
       </c>
-      <c r="H12" s="204" t="s">
+      <c r="I12" s="204" t="s">
         <v>226</v>
       </c>
-      <c r="I12" s="204" t="s">
+      <c r="J12" s="204" t="s">
         <v>227</v>
       </c>
-      <c r="K12" s="312" t="s">
+      <c r="L12" s="312" t="s">
         <v>447</v>
       </c>
-      <c r="L12" s="312" t="s">
+      <c r="M12" s="312" t="s">
         <v>446</v>
       </c>
-      <c r="M12" s="312"/>
-      <c r="N12" s="252" t="s">
+      <c r="N12" s="312"/>
+      <c r="O12" s="252" t="s">
         <v>490</v>
       </c>
-      <c r="O12" s="252"/>
       <c r="P12" s="252"/>
-    </row>
-    <row r="13" spans="1:18" s="48" customFormat="1" ht="156">
+      <c r="Q12" s="252"/>
+    </row>
+    <row r="13" spans="1:19" s="48" customFormat="1" ht="153">
       <c r="A13" s="202">
         <v>12</v>
       </c>
@@ -5201,34 +5257,37 @@
       <c r="E13" s="206" t="s">
         <v>442</v>
       </c>
-      <c r="F13" s="245" t="s">
+      <c r="F13" s="380" t="s">
+        <v>611</v>
+      </c>
+      <c r="G13" s="245" t="s">
         <v>508</v>
       </c>
-      <c r="G13" s="245" t="s">
+      <c r="H13" s="245" t="s">
         <v>532</v>
       </c>
-      <c r="H13" s="204" t="s">
+      <c r="I13" s="204" t="s">
         <v>238</v>
       </c>
-      <c r="I13" s="204" t="s">
+      <c r="J13" s="204" t="s">
         <v>239</v>
       </c>
-      <c r="K13" s="312" t="s">
+      <c r="L13" s="312" t="s">
         <v>447</v>
       </c>
-      <c r="L13" s="312" t="s">
+      <c r="M13" s="312" t="s">
         <v>446</v>
       </c>
-      <c r="M13" s="312"/>
-      <c r="N13" s="256" t="s">
+      <c r="N13" s="312"/>
+      <c r="O13" s="256" t="s">
         <v>482</v>
       </c>
-      <c r="O13" s="252" t="s">
+      <c r="P13" s="252" t="s">
         <v>475</v>
       </c>
-      <c r="P13" s="252"/>
-    </row>
-    <row r="14" spans="1:18" s="48" customFormat="1" ht="108.75" customHeight="1">
+      <c r="Q13" s="252"/>
+    </row>
+    <row r="14" spans="1:19" s="48" customFormat="1" ht="108.75" customHeight="1">
       <c r="A14" s="202">
         <v>13</v>
       </c>
@@ -5244,34 +5303,37 @@
       <c r="E14" s="206" t="s">
         <v>443</v>
       </c>
-      <c r="F14" s="245" t="s">
+      <c r="F14" s="380" t="s">
+        <v>610</v>
+      </c>
+      <c r="G14" s="245" t="s">
         <v>506</v>
       </c>
-      <c r="G14" s="245" t="s">
+      <c r="H14" s="245" t="s">
         <v>533</v>
       </c>
-      <c r="H14" s="204" t="s">
+      <c r="I14" s="204" t="s">
         <v>248</v>
       </c>
-      <c r="I14" s="204" t="s">
+      <c r="J14" s="204" t="s">
         <v>249</v>
-      </c>
-      <c r="K14" s="312" t="s">
-        <v>446</v>
       </c>
       <c r="L14" s="312" t="s">
         <v>446</v>
       </c>
-      <c r="M14" s="312"/>
-      <c r="N14" s="252" t="s">
+      <c r="M14" s="312" t="s">
+        <v>446</v>
+      </c>
+      <c r="N14" s="312"/>
+      <c r="O14" s="252" t="s">
         <v>489</v>
       </c>
-      <c r="O14" s="252" t="s">
+      <c r="P14" s="252" t="s">
         <v>488</v>
       </c>
-      <c r="P14" s="252"/>
-    </row>
-    <row r="15" spans="1:18" s="48" customFormat="1" ht="104">
+      <c r="Q14" s="252"/>
+    </row>
+    <row r="15" spans="1:19" s="48" customFormat="1" ht="102">
       <c r="A15" s="202">
         <v>14</v>
       </c>
@@ -5287,30 +5349,33 @@
       <c r="E15" s="206" t="s">
         <v>440</v>
       </c>
-      <c r="F15" s="245" t="s">
+      <c r="F15" s="380" t="s">
+        <v>612</v>
+      </c>
+      <c r="G15" s="245" t="s">
         <v>507</v>
       </c>
-      <c r="G15" s="245" t="s">
+      <c r="H15" s="245" t="s">
         <v>534</v>
       </c>
-      <c r="H15" s="204" t="s">
+      <c r="I15" s="204" t="s">
         <v>254</v>
       </c>
-      <c r="I15" s="204" t="s">
+      <c r="J15" s="204" t="s">
         <v>255</v>
-      </c>
-      <c r="K15" s="312" t="s">
-        <v>446</v>
       </c>
       <c r="L15" s="312" t="s">
         <v>446</v>
       </c>
-      <c r="M15" s="312"/>
-      <c r="N15" s="252"/>
+      <c r="M15" s="312" t="s">
+        <v>446</v>
+      </c>
+      <c r="N15" s="312"/>
       <c r="O15" s="252"/>
       <c r="P15" s="252"/>
-    </row>
-    <row r="16" spans="1:18" s="48" customFormat="1" ht="117">
+      <c r="Q15" s="252"/>
+    </row>
+    <row r="16" spans="1:19" s="48" customFormat="1" ht="114.75">
       <c r="A16" s="202">
         <v>15</v>
       </c>
@@ -5326,30 +5391,33 @@
       <c r="E16" s="200" t="s">
         <v>440</v>
       </c>
-      <c r="F16" s="244" t="s">
+      <c r="F16" s="379" t="s">
+        <v>611</v>
+      </c>
+      <c r="G16" s="244" t="s">
         <v>525</v>
       </c>
-      <c r="G16" s="244" t="s">
+      <c r="H16" s="244" t="s">
         <v>535</v>
       </c>
-      <c r="H16" s="204" t="s">
+      <c r="I16" s="204" t="s">
         <v>224</v>
       </c>
-      <c r="I16" s="204" t="s">
+      <c r="J16" s="204" t="s">
         <v>225</v>
-      </c>
-      <c r="K16" s="312" t="s">
-        <v>446</v>
       </c>
       <c r="L16" s="312" t="s">
         <v>446</v>
       </c>
-      <c r="M16" s="312"/>
-      <c r="N16" s="252"/>
+      <c r="M16" s="312" t="s">
+        <v>446</v>
+      </c>
+      <c r="N16" s="312"/>
       <c r="O16" s="252"/>
       <c r="P16" s="252"/>
-    </row>
-    <row r="17" spans="1:16" s="48" customFormat="1" ht="78">
+      <c r="Q16" s="252"/>
+    </row>
+    <row r="17" spans="1:17" s="48" customFormat="1" ht="76.5">
       <c r="A17" s="202">
         <v>16</v>
       </c>
@@ -5365,34 +5433,37 @@
       <c r="E17" s="200" t="s">
         <v>440</v>
       </c>
-      <c r="F17" s="244" t="s">
+      <c r="F17" s="379" t="s">
+        <v>612</v>
+      </c>
+      <c r="G17" s="244" t="s">
         <v>509</v>
       </c>
-      <c r="G17" s="244" t="s">
+      <c r="H17" s="244" t="s">
         <v>536</v>
       </c>
-      <c r="H17" s="204" t="s">
+      <c r="I17" s="204" t="s">
         <v>224</v>
       </c>
-      <c r="I17" s="204" t="s">
+      <c r="J17" s="204" t="s">
         <v>246</v>
       </c>
-      <c r="K17" s="312" t="s">
+      <c r="L17" s="312" t="s">
         <v>447</v>
       </c>
-      <c r="L17" s="312" t="s">
+      <c r="M17" s="312" t="s">
         <v>446</v>
       </c>
-      <c r="M17" s="312"/>
-      <c r="N17" s="251" t="s">
+      <c r="N17" s="312"/>
+      <c r="O17" s="251" t="s">
         <v>467</v>
       </c>
-      <c r="O17" s="252" t="s">
+      <c r="P17" s="252" t="s">
         <v>488</v>
       </c>
-      <c r="P17" s="252"/>
-    </row>
-    <row r="18" spans="1:16" s="48" customFormat="1" ht="156">
+      <c r="Q17" s="252"/>
+    </row>
+    <row r="18" spans="1:17" s="48" customFormat="1" ht="153">
       <c r="A18" s="202">
         <v>17</v>
       </c>
@@ -5408,30 +5479,33 @@
       <c r="E18" s="200" t="s">
         <v>444</v>
       </c>
-      <c r="F18" s="244" t="s">
+      <c r="F18" s="379" t="s">
+        <v>610</v>
+      </c>
+      <c r="G18" s="244" t="s">
         <v>510</v>
       </c>
-      <c r="G18" s="244" t="s">
+      <c r="H18" s="244" t="s">
         <v>537</v>
       </c>
-      <c r="H18" s="204" t="s">
+      <c r="I18" s="204" t="s">
         <v>224</v>
       </c>
-      <c r="I18" s="204" t="s">
+      <c r="J18" s="204" t="s">
         <v>260</v>
-      </c>
-      <c r="K18" s="312" t="s">
-        <v>446</v>
       </c>
       <c r="L18" s="312" t="s">
         <v>446</v>
       </c>
-      <c r="M18" s="312"/>
-      <c r="N18" s="252"/>
+      <c r="M18" s="312" t="s">
+        <v>446</v>
+      </c>
+      <c r="N18" s="312"/>
       <c r="O18" s="252"/>
       <c r="P18" s="252"/>
-    </row>
-    <row r="19" spans="1:16" s="19" customFormat="1" ht="78">
+      <c r="Q18" s="252"/>
+    </row>
+    <row r="19" spans="1:17" s="19" customFormat="1" ht="76.5">
       <c r="A19" s="207">
         <v>18</v>
       </c>
@@ -5447,34 +5521,37 @@
       <c r="E19" s="200" t="s">
         <v>440</v>
       </c>
-      <c r="F19" s="244" t="s">
+      <c r="F19" s="379" t="s">
+        <v>611</v>
+      </c>
+      <c r="G19" s="244" t="s">
         <v>585</v>
       </c>
-      <c r="G19" s="244" t="s">
+      <c r="H19" s="244" t="s">
         <v>589</v>
       </c>
-      <c r="H19" s="204" t="s">
+      <c r="I19" s="204" t="s">
         <v>224</v>
       </c>
-      <c r="I19" s="204" t="s">
+      <c r="J19" s="204" t="s">
         <v>283</v>
-      </c>
-      <c r="K19" s="314" t="s">
-        <v>446</v>
       </c>
       <c r="L19" s="314" t="s">
         <v>446</v>
       </c>
-      <c r="M19" s="314"/>
-      <c r="N19" s="257" t="s">
+      <c r="M19" s="314" t="s">
+        <v>446</v>
+      </c>
+      <c r="N19" s="314"/>
+      <c r="O19" s="257" t="s">
         <v>483</v>
       </c>
-      <c r="O19" s="258" t="s">
+      <c r="P19" s="258" t="s">
         <v>488</v>
       </c>
-      <c r="P19" s="258"/>
-    </row>
-    <row r="20" spans="1:16" ht="132" customHeight="1">
+      <c r="Q19" s="258"/>
+    </row>
+    <row r="20" spans="1:17" ht="132" customHeight="1">
       <c r="A20" s="202">
         <v>19</v>
       </c>
@@ -5490,32 +5567,35 @@
       <c r="E20" s="206" t="s">
         <v>443</v>
       </c>
-      <c r="F20" s="245" t="s">
+      <c r="F20" s="380" t="s">
+        <v>610</v>
+      </c>
+      <c r="G20" s="245" t="s">
         <v>498</v>
       </c>
-      <c r="G20" s="245" t="s">
+      <c r="H20" s="245" t="s">
         <v>526</v>
       </c>
-      <c r="H20" s="204" t="s">
+      <c r="I20" s="204" t="s">
         <v>277</v>
       </c>
-      <c r="I20" s="204" t="s">
+      <c r="J20" s="204" t="s">
         <v>278</v>
       </c>
-      <c r="K20" s="312" t="s">
+      <c r="L20" s="312" t="s">
         <v>447</v>
       </c>
-      <c r="L20" s="314" t="s">
+      <c r="M20" s="314" t="s">
         <v>447</v>
       </c>
-      <c r="N20" s="258" t="s">
+      <c r="O20" s="258" t="s">
         <v>476</v>
       </c>
-      <c r="O20" s="257" t="s">
+      <c r="P20" s="257" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="86.25" customHeight="1">
+    <row r="21" spans="1:17" ht="86.25" customHeight="1">
       <c r="A21" s="209">
         <v>20</v>
       </c>
@@ -5531,29 +5611,32 @@
       <c r="E21" s="206" t="s">
         <v>443</v>
       </c>
-      <c r="F21" s="246" t="s">
+      <c r="F21" s="381" t="s">
+        <v>610</v>
+      </c>
+      <c r="G21" s="246" t="s">
         <v>497</v>
       </c>
-      <c r="G21" s="246" t="s">
+      <c r="H21" s="246" t="s">
         <v>527</v>
       </c>
-      <c r="H21" s="212" t="s">
+      <c r="I21" s="212" t="s">
         <v>277</v>
       </c>
-      <c r="I21" s="212" t="s">
+      <c r="J21" s="212" t="s">
         <v>279</v>
       </c>
-      <c r="K21" s="312" t="s">
+      <c r="L21" s="312" t="s">
         <v>447</v>
       </c>
-      <c r="L21" s="314" t="s">
+      <c r="M21" s="314" t="s">
         <v>447</v>
       </c>
-      <c r="N21" s="258" t="s">
+      <c r="O21" s="258" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="201.5">
+    <row r="22" spans="1:17" ht="204.75">
       <c r="A22" s="202">
         <v>21</v>
       </c>
@@ -5569,29 +5652,32 @@
       <c r="E22" s="206" t="s">
         <v>443</v>
       </c>
-      <c r="F22" s="245" t="s">
+      <c r="F22" s="380" t="s">
+        <v>610</v>
+      </c>
+      <c r="G22" s="245" t="s">
         <v>499</v>
       </c>
-      <c r="G22" s="245" t="s">
+      <c r="H22" s="245" t="s">
         <v>528</v>
       </c>
-      <c r="H22" s="204" t="s">
+      <c r="I22" s="204" t="s">
         <v>277</v>
       </c>
-      <c r="I22" s="204" t="s">
+      <c r="J22" s="204" t="s">
         <v>281</v>
       </c>
-      <c r="K22" s="312" t="s">
+      <c r="L22" s="312" t="s">
         <v>447</v>
       </c>
-      <c r="L22" s="314" t="s">
+      <c r="M22" s="314" t="s">
         <v>447</v>
       </c>
-      <c r="N22" s="259" t="s">
+      <c r="O22" s="259" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="104">
+    <row r="23" spans="1:17" ht="102">
       <c r="A23" s="202">
         <v>22</v>
       </c>
@@ -5607,2596 +5693,2750 @@
       <c r="E23" s="200" t="s">
         <v>440</v>
       </c>
-      <c r="F23" s="244" t="s">
+      <c r="F23" s="379" t="s">
+        <v>612</v>
+      </c>
+      <c r="G23" s="244" t="s">
         <v>512</v>
       </c>
-      <c r="G23" s="244" t="s">
+      <c r="H23" s="244" t="s">
         <v>524</v>
       </c>
-      <c r="H23" s="204" t="s">
+      <c r="I23" s="204" t="s">
         <v>262</v>
       </c>
-      <c r="I23" s="204" t="s">
+      <c r="J23" s="204" t="s">
         <v>263</v>
       </c>
-      <c r="K23" s="312" t="s">
+      <c r="L23" s="312" t="s">
         <v>447</v>
       </c>
-      <c r="L23" s="314" t="s">
+      <c r="M23" s="314" t="s">
         <v>446</v>
       </c>
-      <c r="N23" s="258" t="s">
+      <c r="O23" s="258" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="180" customFormat="1">
+    <row r="24" spans="1:17" s="180" customFormat="1">
       <c r="A24" s="213"/>
       <c r="B24" s="214"/>
       <c r="C24" s="215"/>
       <c r="D24" s="216"/>
       <c r="E24" s="216"/>
-      <c r="H24" s="217"/>
+      <c r="F24" s="382"/>
       <c r="I24" s="217"/>
-      <c r="K24" s="214"/>
+      <c r="J24" s="217"/>
       <c r="L24" s="214"/>
       <c r="M24" s="214"/>
-      <c r="N24" s="260"/>
+      <c r="N24" s="214"/>
       <c r="O24" s="260"/>
       <c r="P24" s="260"/>
-    </row>
-    <row r="25" spans="1:16" s="180" customFormat="1">
+      <c r="Q24" s="260"/>
+    </row>
+    <row r="25" spans="1:17" s="180" customFormat="1">
       <c r="A25" s="213"/>
       <c r="B25" s="214"/>
       <c r="C25" s="215"/>
       <c r="D25" s="216"/>
       <c r="E25" s="216"/>
-      <c r="H25" s="217"/>
+      <c r="F25" s="382"/>
       <c r="I25" s="217"/>
-      <c r="K25" s="214"/>
+      <c r="J25" s="217"/>
       <c r="L25" s="214"/>
       <c r="M25" s="214"/>
-      <c r="N25" s="260"/>
+      <c r="N25" s="214"/>
       <c r="O25" s="260"/>
       <c r="P25" s="260"/>
-    </row>
-    <row r="26" spans="1:16" s="180" customFormat="1">
+      <c r="Q25" s="260"/>
+    </row>
+    <row r="26" spans="1:17" s="180" customFormat="1">
       <c r="A26" s="213"/>
       <c r="B26" s="214"/>
       <c r="C26" s="215"/>
       <c r="D26" s="216"/>
       <c r="E26" s="216"/>
-      <c r="H26" s="217"/>
+      <c r="F26" s="382"/>
       <c r="I26" s="217"/>
-      <c r="K26" s="214"/>
+      <c r="J26" s="217"/>
       <c r="L26" s="214"/>
       <c r="M26" s="214"/>
-      <c r="N26" s="260"/>
+      <c r="N26" s="214"/>
       <c r="O26" s="260"/>
       <c r="P26" s="260"/>
-    </row>
-    <row r="27" spans="1:16" s="180" customFormat="1">
+      <c r="Q26" s="260"/>
+    </row>
+    <row r="27" spans="1:17" s="180" customFormat="1">
       <c r="A27" s="213"/>
       <c r="B27" s="214"/>
       <c r="C27" s="215"/>
       <c r="D27" s="216"/>
       <c r="E27" s="216"/>
-      <c r="F27" s="216"/>
+      <c r="F27" s="382"/>
       <c r="G27" s="216"/>
-      <c r="H27" s="217"/>
+      <c r="H27" s="216"/>
       <c r="I27" s="217"/>
-      <c r="K27" s="214"/>
+      <c r="J27" s="217"/>
       <c r="L27" s="214"/>
       <c r="M27" s="214"/>
-      <c r="N27" s="260"/>
+      <c r="N27" s="214"/>
       <c r="O27" s="260"/>
       <c r="P27" s="260"/>
-    </row>
-    <row r="28" spans="1:16" s="180" customFormat="1">
+      <c r="Q27" s="260"/>
+    </row>
+    <row r="28" spans="1:17" s="180" customFormat="1">
       <c r="A28" s="213"/>
       <c r="B28" s="214"/>
       <c r="C28" s="215"/>
       <c r="D28" s="216"/>
       <c r="E28" s="216"/>
-      <c r="H28" s="217"/>
+      <c r="F28" s="382"/>
       <c r="I28" s="217"/>
-      <c r="K28" s="214"/>
+      <c r="J28" s="217"/>
       <c r="L28" s="214"/>
       <c r="M28" s="214"/>
-      <c r="N28" s="260"/>
+      <c r="N28" s="214"/>
       <c r="O28" s="260"/>
       <c r="P28" s="260"/>
-    </row>
-    <row r="29" spans="1:16" s="180" customFormat="1">
+      <c r="Q28" s="260"/>
+    </row>
+    <row r="29" spans="1:17" s="180" customFormat="1">
       <c r="A29" s="213"/>
       <c r="B29" s="214"/>
       <c r="C29" s="215"/>
       <c r="D29" s="216"/>
       <c r="E29" s="216"/>
-      <c r="F29" s="216"/>
+      <c r="F29" s="382"/>
       <c r="G29" s="216"/>
-      <c r="H29" s="217"/>
+      <c r="H29" s="216"/>
       <c r="I29" s="217"/>
-      <c r="K29" s="214"/>
+      <c r="J29" s="217"/>
       <c r="L29" s="214"/>
       <c r="M29" s="214"/>
-      <c r="N29" s="260"/>
+      <c r="N29" s="214"/>
       <c r="O29" s="260"/>
       <c r="P29" s="260"/>
-    </row>
-    <row r="30" spans="1:16" s="180" customFormat="1">
+      <c r="Q29" s="260"/>
+    </row>
+    <row r="30" spans="1:17" s="180" customFormat="1">
       <c r="A30" s="213"/>
       <c r="B30" s="214"/>
       <c r="C30" s="215"/>
       <c r="D30" s="216"/>
       <c r="E30" s="216"/>
-      <c r="F30" s="216"/>
+      <c r="F30" s="382"/>
       <c r="G30" s="216"/>
-      <c r="H30" s="217"/>
+      <c r="H30" s="216"/>
       <c r="I30" s="217"/>
-      <c r="K30" s="214"/>
+      <c r="J30" s="217"/>
       <c r="L30" s="214"/>
       <c r="M30" s="214"/>
-      <c r="N30" s="260"/>
+      <c r="N30" s="214"/>
       <c r="O30" s="260"/>
       <c r="P30" s="260"/>
-    </row>
-    <row r="31" spans="1:16" s="180" customFormat="1">
+      <c r="Q30" s="260"/>
+    </row>
+    <row r="31" spans="1:17" s="180" customFormat="1">
       <c r="A31" s="213"/>
       <c r="B31" s="214"/>
       <c r="C31" s="215"/>
       <c r="D31" s="216"/>
       <c r="E31" s="216"/>
-      <c r="F31" s="216"/>
+      <c r="F31" s="382"/>
       <c r="G31" s="216"/>
-      <c r="H31" s="217"/>
+      <c r="H31" s="216"/>
       <c r="I31" s="217"/>
-      <c r="K31" s="214"/>
+      <c r="J31" s="217"/>
       <c r="L31" s="214"/>
       <c r="M31" s="214"/>
-      <c r="N31" s="260"/>
+      <c r="N31" s="214"/>
       <c r="O31" s="260"/>
       <c r="P31" s="260"/>
-    </row>
-    <row r="32" spans="1:16" s="180" customFormat="1">
+      <c r="Q31" s="260"/>
+    </row>
+    <row r="32" spans="1:17" s="180" customFormat="1">
       <c r="A32" s="213"/>
       <c r="B32" s="214"/>
       <c r="C32" s="215"/>
       <c r="D32" s="216"/>
       <c r="E32" s="216"/>
-      <c r="F32" s="216"/>
+      <c r="F32" s="382"/>
       <c r="G32" s="216"/>
-      <c r="H32" s="217"/>
+      <c r="H32" s="216"/>
       <c r="I32" s="217"/>
-      <c r="K32" s="214"/>
+      <c r="J32" s="217"/>
       <c r="L32" s="214"/>
       <c r="M32" s="214"/>
-      <c r="N32" s="260"/>
+      <c r="N32" s="214"/>
       <c r="O32" s="260"/>
       <c r="P32" s="260"/>
-    </row>
-    <row r="33" spans="1:16" s="180" customFormat="1">
+      <c r="Q32" s="260"/>
+    </row>
+    <row r="33" spans="1:17" s="180" customFormat="1">
       <c r="A33" s="213"/>
       <c r="B33" s="214"/>
       <c r="C33" s="215"/>
       <c r="D33" s="216"/>
       <c r="E33" s="216"/>
-      <c r="F33" s="216"/>
+      <c r="F33" s="382"/>
       <c r="G33" s="216"/>
-      <c r="H33" s="217"/>
+      <c r="H33" s="216"/>
       <c r="I33" s="217"/>
-      <c r="K33" s="214"/>
+      <c r="J33" s="217"/>
       <c r="L33" s="214"/>
       <c r="M33" s="214"/>
-      <c r="N33" s="260"/>
+      <c r="N33" s="214"/>
       <c r="O33" s="260"/>
       <c r="P33" s="260"/>
-    </row>
-    <row r="34" spans="1:16" s="180" customFormat="1">
+      <c r="Q33" s="260"/>
+    </row>
+    <row r="34" spans="1:17" s="180" customFormat="1">
       <c r="A34" s="213"/>
       <c r="B34" s="214"/>
       <c r="C34" s="215"/>
       <c r="D34" s="216"/>
       <c r="E34" s="216"/>
-      <c r="F34" s="216"/>
+      <c r="F34" s="382"/>
       <c r="G34" s="216"/>
-      <c r="H34" s="217"/>
+      <c r="H34" s="216"/>
       <c r="I34" s="217"/>
-      <c r="K34" s="214"/>
+      <c r="J34" s="217"/>
       <c r="L34" s="214"/>
       <c r="M34" s="214"/>
-      <c r="N34" s="260"/>
+      <c r="N34" s="214"/>
       <c r="O34" s="260"/>
       <c r="P34" s="260"/>
-    </row>
-    <row r="35" spans="1:16" s="180" customFormat="1">
+      <c r="Q34" s="260"/>
+    </row>
+    <row r="35" spans="1:17" s="180" customFormat="1">
       <c r="A35" s="213"/>
       <c r="B35" s="214"/>
       <c r="C35" s="215"/>
       <c r="D35" s="216"/>
       <c r="E35" s="216"/>
-      <c r="F35" s="216"/>
+      <c r="F35" s="382"/>
       <c r="G35" s="216"/>
-      <c r="H35" s="217"/>
+      <c r="H35" s="216"/>
       <c r="I35" s="217"/>
-      <c r="K35" s="214"/>
+      <c r="J35" s="217"/>
       <c r="L35" s="214"/>
       <c r="M35" s="214"/>
-      <c r="N35" s="260"/>
+      <c r="N35" s="214"/>
       <c r="O35" s="260"/>
       <c r="P35" s="260"/>
-    </row>
-    <row r="36" spans="1:16" s="180" customFormat="1">
+      <c r="Q35" s="260"/>
+    </row>
+    <row r="36" spans="1:17" s="180" customFormat="1">
       <c r="A36" s="213"/>
       <c r="B36" s="214"/>
       <c r="C36" s="215"/>
       <c r="D36" s="216"/>
       <c r="E36" s="216"/>
-      <c r="F36" s="216"/>
+      <c r="F36" s="382"/>
       <c r="G36" s="216"/>
-      <c r="H36" s="217"/>
+      <c r="H36" s="216"/>
       <c r="I36" s="217"/>
-      <c r="K36" s="214"/>
+      <c r="J36" s="217"/>
       <c r="L36" s="214"/>
       <c r="M36" s="214"/>
-      <c r="N36" s="260"/>
+      <c r="N36" s="214"/>
       <c r="O36" s="260"/>
       <c r="P36" s="260"/>
-    </row>
-    <row r="37" spans="1:16" s="180" customFormat="1">
+      <c r="Q36" s="260"/>
+    </row>
+    <row r="37" spans="1:17" s="180" customFormat="1">
       <c r="A37" s="213"/>
       <c r="B37" s="214"/>
       <c r="C37" s="215"/>
       <c r="D37" s="216"/>
       <c r="E37" s="216"/>
-      <c r="F37" s="216"/>
+      <c r="F37" s="382"/>
       <c r="G37" s="216"/>
-      <c r="H37" s="217"/>
+      <c r="H37" s="216"/>
       <c r="I37" s="217"/>
-      <c r="K37" s="214"/>
+      <c r="J37" s="217"/>
       <c r="L37" s="214"/>
       <c r="M37" s="214"/>
-      <c r="N37" s="260"/>
+      <c r="N37" s="214"/>
       <c r="O37" s="260"/>
       <c r="P37" s="260"/>
-    </row>
-    <row r="38" spans="1:16" s="180" customFormat="1">
+      <c r="Q37" s="260"/>
+    </row>
+    <row r="38" spans="1:17" s="180" customFormat="1">
       <c r="A38" s="213"/>
       <c r="B38" s="214"/>
       <c r="C38" s="215"/>
       <c r="D38" s="216"/>
       <c r="E38" s="216"/>
-      <c r="F38" s="216"/>
+      <c r="F38" s="382"/>
       <c r="G38" s="216"/>
-      <c r="H38" s="217"/>
+      <c r="H38" s="216"/>
       <c r="I38" s="217"/>
-      <c r="K38" s="214"/>
+      <c r="J38" s="217"/>
       <c r="L38" s="214"/>
       <c r="M38" s="214"/>
-      <c r="N38" s="260"/>
+      <c r="N38" s="214"/>
       <c r="O38" s="260"/>
       <c r="P38" s="260"/>
-    </row>
-    <row r="39" spans="1:16" s="180" customFormat="1">
+      <c r="Q38" s="260"/>
+    </row>
+    <row r="39" spans="1:17" s="180" customFormat="1">
       <c r="A39" s="213"/>
       <c r="B39" s="214"/>
       <c r="C39" s="215"/>
       <c r="D39" s="216"/>
       <c r="E39" s="216"/>
-      <c r="F39" s="216"/>
+      <c r="F39" s="382"/>
       <c r="G39" s="216"/>
-      <c r="H39" s="217"/>
+      <c r="H39" s="216"/>
       <c r="I39" s="217"/>
-      <c r="K39" s="214"/>
+      <c r="J39" s="217"/>
       <c r="L39" s="214"/>
       <c r="M39" s="214"/>
-      <c r="N39" s="260"/>
+      <c r="N39" s="214"/>
       <c r="O39" s="260"/>
       <c r="P39" s="260"/>
-    </row>
-    <row r="40" spans="1:16" s="180" customFormat="1">
+      <c r="Q39" s="260"/>
+    </row>
+    <row r="40" spans="1:17" s="180" customFormat="1">
       <c r="A40" s="213"/>
       <c r="B40" s="214"/>
       <c r="C40" s="215"/>
       <c r="D40" s="216"/>
       <c r="E40" s="216"/>
-      <c r="F40" s="216"/>
+      <c r="F40" s="382"/>
       <c r="G40" s="216"/>
-      <c r="H40" s="217"/>
+      <c r="H40" s="216"/>
       <c r="I40" s="217"/>
-      <c r="K40" s="214"/>
+      <c r="J40" s="217"/>
       <c r="L40" s="214"/>
       <c r="M40" s="214"/>
-      <c r="N40" s="260"/>
+      <c r="N40" s="214"/>
       <c r="O40" s="260"/>
       <c r="P40" s="260"/>
-    </row>
-    <row r="41" spans="1:16" s="180" customFormat="1">
+      <c r="Q40" s="260"/>
+    </row>
+    <row r="41" spans="1:17" s="180" customFormat="1">
       <c r="A41" s="213"/>
       <c r="B41" s="214"/>
       <c r="C41" s="215"/>
       <c r="D41" s="216"/>
       <c r="E41" s="216"/>
-      <c r="F41" s="216"/>
+      <c r="F41" s="382"/>
       <c r="G41" s="216"/>
-      <c r="H41" s="217"/>
+      <c r="H41" s="216"/>
       <c r="I41" s="217"/>
-      <c r="K41" s="214"/>
+      <c r="J41" s="217"/>
       <c r="L41" s="214"/>
       <c r="M41" s="214"/>
-      <c r="N41" s="260"/>
+      <c r="N41" s="214"/>
       <c r="O41" s="260"/>
       <c r="P41" s="260"/>
-    </row>
-    <row r="42" spans="1:16" s="180" customFormat="1">
+      <c r="Q41" s="260"/>
+    </row>
+    <row r="42" spans="1:17" s="180" customFormat="1">
       <c r="A42" s="213"/>
       <c r="B42" s="214"/>
       <c r="C42" s="215"/>
       <c r="D42" s="216"/>
       <c r="E42" s="216"/>
-      <c r="F42" s="216"/>
-      <c r="G42" s="319"/>
-      <c r="H42" s="217"/>
+      <c r="F42" s="382"/>
+      <c r="G42" s="216"/>
+      <c r="H42" s="319"/>
       <c r="I42" s="217"/>
-      <c r="K42" s="214"/>
+      <c r="J42" s="217"/>
       <c r="L42" s="214"/>
       <c r="M42" s="214"/>
-      <c r="N42" s="260"/>
+      <c r="N42" s="214"/>
       <c r="O42" s="260"/>
       <c r="P42" s="260"/>
-    </row>
-    <row r="43" spans="1:16" s="180" customFormat="1">
+      <c r="Q42" s="260"/>
+    </row>
+    <row r="43" spans="1:17" s="180" customFormat="1">
       <c r="A43" s="213"/>
       <c r="B43" s="214"/>
       <c r="C43" s="215"/>
       <c r="D43" s="216"/>
       <c r="E43" s="216"/>
-      <c r="F43" s="216"/>
-      <c r="G43" s="319"/>
-      <c r="H43" s="217"/>
+      <c r="F43" s="382"/>
+      <c r="G43" s="216"/>
+      <c r="H43" s="319"/>
       <c r="I43" s="217"/>
-      <c r="K43" s="214"/>
+      <c r="J43" s="217"/>
       <c r="L43" s="214"/>
       <c r="M43" s="214"/>
-      <c r="N43" s="260"/>
+      <c r="N43" s="214"/>
       <c r="O43" s="260"/>
       <c r="P43" s="260"/>
-    </row>
-    <row r="44" spans="1:16" s="180" customFormat="1">
+      <c r="Q43" s="260"/>
+    </row>
+    <row r="44" spans="1:17" s="180" customFormat="1">
       <c r="A44" s="213"/>
       <c r="B44" s="214"/>
       <c r="C44" s="215"/>
       <c r="D44" s="216"/>
       <c r="E44" s="216"/>
-      <c r="F44" s="216"/>
-      <c r="G44" s="319"/>
-      <c r="H44" s="217"/>
+      <c r="F44" s="382"/>
+      <c r="G44" s="216"/>
+      <c r="H44" s="319"/>
       <c r="I44" s="217"/>
-      <c r="K44" s="214"/>
+      <c r="J44" s="217"/>
       <c r="L44" s="214"/>
       <c r="M44" s="214"/>
-      <c r="N44" s="260"/>
+      <c r="N44" s="214"/>
       <c r="O44" s="260"/>
       <c r="P44" s="260"/>
-    </row>
-    <row r="45" spans="1:16" s="180" customFormat="1">
+      <c r="Q44" s="260"/>
+    </row>
+    <row r="45" spans="1:17" s="180" customFormat="1">
       <c r="A45" s="213"/>
       <c r="B45" s="214"/>
       <c r="C45" s="215"/>
       <c r="D45" s="216"/>
       <c r="E45" s="216"/>
-      <c r="F45" s="216"/>
-      <c r="G45" s="319"/>
-      <c r="H45" s="217"/>
+      <c r="F45" s="382"/>
+      <c r="G45" s="216"/>
+      <c r="H45" s="319"/>
       <c r="I45" s="217"/>
-      <c r="K45" s="214"/>
+      <c r="J45" s="217"/>
       <c r="L45" s="214"/>
       <c r="M45" s="214"/>
-      <c r="N45" s="260"/>
+      <c r="N45" s="214"/>
       <c r="O45" s="260"/>
       <c r="P45" s="260"/>
-    </row>
-    <row r="46" spans="1:16" s="180" customFormat="1">
+      <c r="Q45" s="260"/>
+    </row>
+    <row r="46" spans="1:17" s="180" customFormat="1">
       <c r="A46" s="213"/>
       <c r="B46" s="214"/>
       <c r="C46" s="215"/>
       <c r="D46" s="216"/>
       <c r="E46" s="216"/>
-      <c r="F46" s="216"/>
-      <c r="G46" s="320"/>
-      <c r="H46" s="217"/>
+      <c r="F46" s="382"/>
+      <c r="G46" s="216"/>
+      <c r="H46" s="320"/>
       <c r="I46" s="217"/>
-      <c r="K46" s="214"/>
+      <c r="J46" s="217"/>
       <c r="L46" s="214"/>
       <c r="M46" s="214"/>
-      <c r="N46" s="260"/>
+      <c r="N46" s="214"/>
       <c r="O46" s="260"/>
       <c r="P46" s="260"/>
-    </row>
-    <row r="47" spans="1:16" s="180" customFormat="1">
+      <c r="Q46" s="260"/>
+    </row>
+    <row r="47" spans="1:17" s="180" customFormat="1">
       <c r="A47" s="213"/>
       <c r="B47" s="214"/>
       <c r="C47" s="215"/>
       <c r="D47" s="216"/>
       <c r="E47" s="216"/>
-      <c r="F47" s="216"/>
-      <c r="G47" s="320"/>
-      <c r="H47" s="217"/>
+      <c r="F47" s="382"/>
+      <c r="G47" s="216"/>
+      <c r="H47" s="320"/>
       <c r="I47" s="217"/>
-      <c r="K47" s="214"/>
+      <c r="J47" s="217"/>
       <c r="L47" s="214"/>
       <c r="M47" s="214"/>
-      <c r="N47" s="260"/>
+      <c r="N47" s="214"/>
       <c r="O47" s="260"/>
       <c r="P47" s="260"/>
-    </row>
-    <row r="48" spans="1:16" s="180" customFormat="1">
+      <c r="Q47" s="260"/>
+    </row>
+    <row r="48" spans="1:17" s="180" customFormat="1">
       <c r="A48" s="213"/>
       <c r="B48" s="214"/>
       <c r="C48" s="215"/>
       <c r="D48" s="216"/>
       <c r="E48" s="216"/>
-      <c r="F48" s="216"/>
-      <c r="G48" s="320"/>
-      <c r="H48" s="217"/>
+      <c r="F48" s="382"/>
+      <c r="G48" s="216"/>
+      <c r="H48" s="320"/>
       <c r="I48" s="217"/>
-      <c r="K48" s="214"/>
+      <c r="J48" s="217"/>
       <c r="L48" s="214"/>
       <c r="M48" s="214"/>
-      <c r="N48" s="260"/>
+      <c r="N48" s="214"/>
       <c r="O48" s="260"/>
       <c r="P48" s="260"/>
-    </row>
-    <row r="49" spans="1:16" s="180" customFormat="1">
+      <c r="Q48" s="260"/>
+    </row>
+    <row r="49" spans="1:17" s="180" customFormat="1">
       <c r="A49" s="213"/>
       <c r="B49" s="214"/>
       <c r="C49" s="215"/>
       <c r="D49" s="216"/>
       <c r="E49" s="216"/>
-      <c r="F49" s="216"/>
-      <c r="G49"/>
-      <c r="H49" s="217"/>
+      <c r="F49" s="382"/>
+      <c r="G49" s="216"/>
+      <c r="H49"/>
       <c r="I49" s="217"/>
-      <c r="K49" s="214"/>
+      <c r="J49" s="217"/>
       <c r="L49" s="214"/>
       <c r="M49" s="214"/>
-      <c r="N49" s="260"/>
+      <c r="N49" s="214"/>
       <c r="O49" s="260"/>
       <c r="P49" s="260"/>
-    </row>
-    <row r="50" spans="1:16" s="180" customFormat="1">
+      <c r="Q49" s="260"/>
+    </row>
+    <row r="50" spans="1:17" s="180" customFormat="1">
       <c r="A50" s="213"/>
       <c r="B50" s="214"/>
       <c r="C50" s="215"/>
       <c r="D50" s="216"/>
       <c r="E50" s="216"/>
-      <c r="F50" s="216"/>
+      <c r="F50" s="382"/>
       <c r="G50" s="216"/>
-      <c r="H50" s="217"/>
+      <c r="H50" s="216"/>
       <c r="I50" s="217"/>
-      <c r="K50" s="214"/>
+      <c r="J50" s="217"/>
       <c r="L50" s="214"/>
       <c r="M50" s="214"/>
-      <c r="N50" s="260"/>
+      <c r="N50" s="214"/>
       <c r="O50" s="260"/>
       <c r="P50" s="260"/>
-    </row>
-    <row r="51" spans="1:16" s="180" customFormat="1">
+      <c r="Q50" s="260"/>
+    </row>
+    <row r="51" spans="1:17" s="180" customFormat="1">
       <c r="A51" s="213"/>
       <c r="B51" s="214"/>
       <c r="C51" s="215"/>
       <c r="D51" s="216"/>
       <c r="E51" s="216"/>
-      <c r="F51" s="216"/>
+      <c r="F51" s="382"/>
       <c r="G51" s="216"/>
-      <c r="H51" s="217"/>
+      <c r="H51" s="216"/>
       <c r="I51" s="217"/>
-      <c r="K51" s="214"/>
+      <c r="J51" s="217"/>
       <c r="L51" s="214"/>
       <c r="M51" s="214"/>
-      <c r="N51" s="260"/>
+      <c r="N51" s="214"/>
       <c r="O51" s="260"/>
       <c r="P51" s="260"/>
-    </row>
-    <row r="52" spans="1:16" s="180" customFormat="1">
+      <c r="Q51" s="260"/>
+    </row>
+    <row r="52" spans="1:17" s="180" customFormat="1">
       <c r="A52" s="213"/>
       <c r="B52" s="214"/>
       <c r="C52" s="215"/>
       <c r="D52" s="216"/>
       <c r="E52" s="216"/>
-      <c r="F52" s="216"/>
+      <c r="F52" s="382"/>
       <c r="G52" s="216"/>
-      <c r="H52" s="217"/>
+      <c r="H52" s="216"/>
       <c r="I52" s="217"/>
-      <c r="K52" s="214"/>
+      <c r="J52" s="217"/>
       <c r="L52" s="214"/>
       <c r="M52" s="214"/>
-      <c r="N52" s="260"/>
+      <c r="N52" s="214"/>
       <c r="O52" s="260"/>
       <c r="P52" s="260"/>
-    </row>
-    <row r="53" spans="1:16" s="180" customFormat="1">
+      <c r="Q52" s="260"/>
+    </row>
+    <row r="53" spans="1:17" s="180" customFormat="1">
       <c r="A53" s="213"/>
       <c r="B53" s="214"/>
       <c r="C53" s="215"/>
       <c r="D53" s="216"/>
       <c r="E53" s="216"/>
-      <c r="F53" s="216"/>
+      <c r="F53" s="382"/>
       <c r="G53" s="216"/>
-      <c r="H53" s="217"/>
+      <c r="H53" s="216"/>
       <c r="I53" s="217"/>
-      <c r="K53" s="214"/>
+      <c r="J53" s="217"/>
       <c r="L53" s="214"/>
       <c r="M53" s="214"/>
-      <c r="N53" s="260"/>
+      <c r="N53" s="214"/>
       <c r="O53" s="260"/>
       <c r="P53" s="260"/>
-    </row>
-    <row r="54" spans="1:16" s="180" customFormat="1">
+      <c r="Q53" s="260"/>
+    </row>
+    <row r="54" spans="1:17" s="180" customFormat="1">
       <c r="A54" s="213"/>
       <c r="B54" s="214"/>
       <c r="C54" s="215"/>
       <c r="D54" s="216"/>
       <c r="E54" s="216"/>
-      <c r="F54" s="216"/>
+      <c r="F54" s="382"/>
       <c r="G54" s="216"/>
-      <c r="H54" s="217"/>
+      <c r="H54" s="216"/>
       <c r="I54" s="217"/>
-      <c r="K54" s="214"/>
+      <c r="J54" s="217"/>
       <c r="L54" s="214"/>
       <c r="M54" s="214"/>
-      <c r="N54" s="260"/>
+      <c r="N54" s="214"/>
       <c r="O54" s="260"/>
       <c r="P54" s="260"/>
-    </row>
-    <row r="55" spans="1:16" s="180" customFormat="1">
+      <c r="Q54" s="260"/>
+    </row>
+    <row r="55" spans="1:17" s="180" customFormat="1">
       <c r="A55" s="213"/>
       <c r="B55" s="214"/>
       <c r="C55" s="215"/>
       <c r="D55" s="216"/>
       <c r="E55" s="216"/>
-      <c r="F55" s="216"/>
+      <c r="F55" s="382"/>
       <c r="G55" s="216"/>
-      <c r="H55" s="217"/>
+      <c r="H55" s="216"/>
       <c r="I55" s="217"/>
-      <c r="K55" s="214"/>
+      <c r="J55" s="217"/>
       <c r="L55" s="214"/>
       <c r="M55" s="214"/>
-      <c r="N55" s="260"/>
+      <c r="N55" s="214"/>
       <c r="O55" s="260"/>
       <c r="P55" s="260"/>
-    </row>
-    <row r="56" spans="1:16" s="180" customFormat="1">
+      <c r="Q55" s="260"/>
+    </row>
+    <row r="56" spans="1:17" s="180" customFormat="1">
       <c r="A56" s="213"/>
       <c r="B56" s="214"/>
       <c r="C56" s="215"/>
       <c r="D56" s="216"/>
       <c r="E56" s="216"/>
-      <c r="F56" s="216"/>
+      <c r="F56" s="382"/>
       <c r="G56" s="216"/>
-      <c r="H56" s="217"/>
+      <c r="H56" s="216"/>
       <c r="I56" s="217"/>
-      <c r="K56" s="214"/>
+      <c r="J56" s="217"/>
       <c r="L56" s="214"/>
       <c r="M56" s="214"/>
-      <c r="N56" s="260"/>
+      <c r="N56" s="214"/>
       <c r="O56" s="260"/>
       <c r="P56" s="260"/>
-    </row>
-    <row r="57" spans="1:16" s="180" customFormat="1">
+      <c r="Q56" s="260"/>
+    </row>
+    <row r="57" spans="1:17" s="180" customFormat="1">
       <c r="A57" s="213"/>
       <c r="B57" s="214"/>
       <c r="C57" s="215"/>
       <c r="D57" s="216"/>
       <c r="E57" s="216"/>
-      <c r="F57" s="216"/>
+      <c r="F57" s="382"/>
       <c r="G57" s="216"/>
-      <c r="H57" s="217"/>
+      <c r="H57" s="216"/>
       <c r="I57" s="217"/>
-      <c r="K57" s="214"/>
+      <c r="J57" s="217"/>
       <c r="L57" s="214"/>
       <c r="M57" s="214"/>
-      <c r="N57" s="260"/>
+      <c r="N57" s="214"/>
       <c r="O57" s="260"/>
       <c r="P57" s="260"/>
-    </row>
-    <row r="58" spans="1:16" s="180" customFormat="1">
+      <c r="Q57" s="260"/>
+    </row>
+    <row r="58" spans="1:17" s="180" customFormat="1">
       <c r="A58" s="213"/>
       <c r="B58" s="214"/>
       <c r="C58" s="215"/>
       <c r="D58" s="216"/>
       <c r="E58" s="216"/>
-      <c r="F58" s="216"/>
+      <c r="F58" s="382"/>
       <c r="G58" s="216"/>
-      <c r="H58" s="217"/>
+      <c r="H58" s="216"/>
       <c r="I58" s="217"/>
-      <c r="K58" s="214"/>
+      <c r="J58" s="217"/>
       <c r="L58" s="214"/>
       <c r="M58" s="214"/>
-      <c r="N58" s="260"/>
+      <c r="N58" s="214"/>
       <c r="O58" s="260"/>
       <c r="P58" s="260"/>
-    </row>
-    <row r="59" spans="1:16" s="180" customFormat="1">
+      <c r="Q58" s="260"/>
+    </row>
+    <row r="59" spans="1:17" s="180" customFormat="1">
       <c r="A59" s="213"/>
       <c r="B59" s="214"/>
       <c r="C59" s="215"/>
       <c r="D59" s="216"/>
       <c r="E59" s="216"/>
-      <c r="F59" s="216"/>
+      <c r="F59" s="382"/>
       <c r="G59" s="216"/>
-      <c r="H59" s="217"/>
+      <c r="H59" s="216"/>
       <c r="I59" s="217"/>
-      <c r="K59" s="214"/>
+      <c r="J59" s="217"/>
       <c r="L59" s="214"/>
       <c r="M59" s="214"/>
-      <c r="N59" s="260"/>
+      <c r="N59" s="214"/>
       <c r="O59" s="260"/>
       <c r="P59" s="260"/>
-    </row>
-    <row r="60" spans="1:16" s="180" customFormat="1">
+      <c r="Q59" s="260"/>
+    </row>
+    <row r="60" spans="1:17" s="180" customFormat="1">
       <c r="A60" s="213"/>
       <c r="B60" s="214"/>
       <c r="C60" s="215"/>
       <c r="D60" s="216"/>
       <c r="E60" s="216"/>
-      <c r="F60" s="216"/>
+      <c r="F60" s="382"/>
       <c r="G60" s="216"/>
-      <c r="H60" s="217"/>
+      <c r="H60" s="216"/>
       <c r="I60" s="217"/>
-      <c r="K60" s="214"/>
+      <c r="J60" s="217"/>
       <c r="L60" s="214"/>
       <c r="M60" s="214"/>
-      <c r="N60" s="260"/>
+      <c r="N60" s="214"/>
       <c r="O60" s="260"/>
       <c r="P60" s="260"/>
-    </row>
-    <row r="61" spans="1:16" s="180" customFormat="1">
+      <c r="Q60" s="260"/>
+    </row>
+    <row r="61" spans="1:17" s="180" customFormat="1">
       <c r="A61" s="213"/>
       <c r="B61" s="214"/>
       <c r="C61" s="215"/>
       <c r="D61" s="216"/>
       <c r="E61" s="216"/>
-      <c r="F61" s="216"/>
+      <c r="F61" s="382"/>
       <c r="G61" s="216"/>
-      <c r="H61" s="217"/>
+      <c r="H61" s="216"/>
       <c r="I61" s="217"/>
-      <c r="K61" s="214"/>
+      <c r="J61" s="217"/>
       <c r="L61" s="214"/>
       <c r="M61" s="214"/>
-      <c r="N61" s="260"/>
+      <c r="N61" s="214"/>
       <c r="O61" s="260"/>
       <c r="P61" s="260"/>
-    </row>
-    <row r="62" spans="1:16" s="180" customFormat="1">
+      <c r="Q61" s="260"/>
+    </row>
+    <row r="62" spans="1:17" s="180" customFormat="1">
       <c r="A62" s="213"/>
       <c r="B62" s="214"/>
       <c r="C62" s="215"/>
       <c r="D62" s="216"/>
       <c r="E62" s="216"/>
-      <c r="F62" s="216"/>
+      <c r="F62" s="382"/>
       <c r="G62" s="216"/>
-      <c r="H62" s="217"/>
+      <c r="H62" s="216"/>
       <c r="I62" s="217"/>
-      <c r="K62" s="214"/>
+      <c r="J62" s="217"/>
       <c r="L62" s="214"/>
       <c r="M62" s="214"/>
-      <c r="N62" s="260"/>
+      <c r="N62" s="214"/>
       <c r="O62" s="260"/>
       <c r="P62" s="260"/>
-    </row>
-    <row r="63" spans="1:16" s="180" customFormat="1">
+      <c r="Q62" s="260"/>
+    </row>
+    <row r="63" spans="1:17" s="180" customFormat="1">
       <c r="A63" s="213"/>
       <c r="B63" s="214"/>
       <c r="C63" s="215"/>
       <c r="D63" s="216"/>
       <c r="E63" s="216"/>
-      <c r="F63" s="216"/>
+      <c r="F63" s="382"/>
       <c r="G63" s="216"/>
-      <c r="H63" s="217"/>
+      <c r="H63" s="216"/>
       <c r="I63" s="217"/>
-      <c r="K63" s="214"/>
+      <c r="J63" s="217"/>
       <c r="L63" s="214"/>
       <c r="M63" s="214"/>
-      <c r="N63" s="260"/>
+      <c r="N63" s="214"/>
       <c r="O63" s="260"/>
       <c r="P63" s="260"/>
-    </row>
-    <row r="64" spans="1:16" s="180" customFormat="1">
+      <c r="Q63" s="260"/>
+    </row>
+    <row r="64" spans="1:17" s="180" customFormat="1">
       <c r="A64" s="213"/>
       <c r="B64" s="214"/>
       <c r="C64" s="215"/>
       <c r="D64" s="216"/>
       <c r="E64" s="216"/>
-      <c r="F64" s="216"/>
+      <c r="F64" s="382"/>
       <c r="G64" s="216"/>
-      <c r="H64" s="217"/>
+      <c r="H64" s="216"/>
       <c r="I64" s="217"/>
-      <c r="K64" s="214"/>
+      <c r="J64" s="217"/>
       <c r="L64" s="214"/>
       <c r="M64" s="214"/>
-      <c r="N64" s="260"/>
+      <c r="N64" s="214"/>
       <c r="O64" s="260"/>
       <c r="P64" s="260"/>
-    </row>
-    <row r="65" spans="1:16" s="180" customFormat="1">
+      <c r="Q64" s="260"/>
+    </row>
+    <row r="65" spans="1:17" s="180" customFormat="1">
       <c r="A65" s="213"/>
       <c r="B65" s="214"/>
       <c r="C65" s="215"/>
       <c r="D65" s="216"/>
       <c r="E65" s="216"/>
-      <c r="F65" s="216"/>
+      <c r="F65" s="382"/>
       <c r="G65" s="216"/>
-      <c r="H65" s="217"/>
+      <c r="H65" s="216"/>
       <c r="I65" s="217"/>
-      <c r="K65" s="214"/>
+      <c r="J65" s="217"/>
       <c r="L65" s="214"/>
       <c r="M65" s="214"/>
-      <c r="N65" s="260"/>
+      <c r="N65" s="214"/>
       <c r="O65" s="260"/>
       <c r="P65" s="260"/>
-    </row>
-    <row r="66" spans="1:16" s="180" customFormat="1">
+      <c r="Q65" s="260"/>
+    </row>
+    <row r="66" spans="1:17" s="180" customFormat="1">
       <c r="A66" s="213"/>
       <c r="B66" s="214"/>
       <c r="C66" s="215"/>
       <c r="D66" s="216"/>
       <c r="E66" s="216"/>
-      <c r="F66" s="216"/>
+      <c r="F66" s="382"/>
       <c r="G66" s="216"/>
-      <c r="H66" s="217"/>
+      <c r="H66" s="216"/>
       <c r="I66" s="217"/>
-      <c r="K66" s="214"/>
+      <c r="J66" s="217"/>
       <c r="L66" s="214"/>
       <c r="M66" s="214"/>
-      <c r="N66" s="260"/>
+      <c r="N66" s="214"/>
       <c r="O66" s="260"/>
       <c r="P66" s="260"/>
-    </row>
-    <row r="67" spans="1:16" s="180" customFormat="1">
+      <c r="Q66" s="260"/>
+    </row>
+    <row r="67" spans="1:17" s="180" customFormat="1">
       <c r="A67" s="213"/>
       <c r="B67" s="214"/>
       <c r="C67" s="215"/>
       <c r="D67" s="216"/>
       <c r="E67" s="216"/>
-      <c r="F67" s="216"/>
+      <c r="F67" s="382"/>
       <c r="G67" s="216"/>
-      <c r="H67" s="217"/>
+      <c r="H67" s="216"/>
       <c r="I67" s="217"/>
-      <c r="K67" s="214"/>
+      <c r="J67" s="217"/>
       <c r="L67" s="214"/>
       <c r="M67" s="214"/>
-      <c r="N67" s="260"/>
+      <c r="N67" s="214"/>
       <c r="O67" s="260"/>
       <c r="P67" s="260"/>
-    </row>
-    <row r="68" spans="1:16" s="180" customFormat="1">
+      <c r="Q67" s="260"/>
+    </row>
+    <row r="68" spans="1:17" s="180" customFormat="1">
       <c r="A68" s="213"/>
       <c r="B68" s="214"/>
       <c r="C68" s="215"/>
       <c r="D68" s="216"/>
       <c r="E68" s="216"/>
-      <c r="F68" s="216"/>
+      <c r="F68" s="382"/>
       <c r="G68" s="216"/>
-      <c r="H68" s="217"/>
+      <c r="H68" s="216"/>
       <c r="I68" s="217"/>
-      <c r="K68" s="214"/>
+      <c r="J68" s="217"/>
       <c r="L68" s="214"/>
       <c r="M68" s="214"/>
-      <c r="N68" s="260"/>
+      <c r="N68" s="214"/>
       <c r="O68" s="260"/>
       <c r="P68" s="260"/>
-    </row>
-    <row r="69" spans="1:16" s="180" customFormat="1">
+      <c r="Q68" s="260"/>
+    </row>
+    <row r="69" spans="1:17" s="180" customFormat="1">
       <c r="A69" s="213"/>
       <c r="B69" s="214"/>
       <c r="C69" s="215"/>
       <c r="D69" s="216"/>
       <c r="E69" s="216"/>
-      <c r="F69" s="216"/>
+      <c r="F69" s="382"/>
       <c r="G69" s="216"/>
-      <c r="H69" s="217"/>
+      <c r="H69" s="216"/>
       <c r="I69" s="217"/>
-      <c r="K69" s="214"/>
+      <c r="J69" s="217"/>
       <c r="L69" s="214"/>
       <c r="M69" s="214"/>
-      <c r="N69" s="260"/>
+      <c r="N69" s="214"/>
       <c r="O69" s="260"/>
       <c r="P69" s="260"/>
-    </row>
-    <row r="70" spans="1:16" s="180" customFormat="1">
+      <c r="Q69" s="260"/>
+    </row>
+    <row r="70" spans="1:17" s="180" customFormat="1">
       <c r="A70" s="213"/>
       <c r="B70" s="214"/>
       <c r="C70" s="215"/>
       <c r="D70" s="216"/>
       <c r="E70" s="216"/>
-      <c r="F70" s="216"/>
+      <c r="F70" s="382"/>
       <c r="G70" s="216"/>
-      <c r="H70" s="217"/>
+      <c r="H70" s="216"/>
       <c r="I70" s="217"/>
-      <c r="K70" s="214"/>
+      <c r="J70" s="217"/>
       <c r="L70" s="214"/>
       <c r="M70" s="214"/>
-      <c r="N70" s="260"/>
+      <c r="N70" s="214"/>
       <c r="O70" s="260"/>
       <c r="P70" s="260"/>
-    </row>
-    <row r="71" spans="1:16" s="180" customFormat="1">
+      <c r="Q70" s="260"/>
+    </row>
+    <row r="71" spans="1:17" s="180" customFormat="1">
       <c r="A71" s="213"/>
       <c r="B71" s="214"/>
       <c r="C71" s="215"/>
       <c r="D71" s="216"/>
       <c r="E71" s="216"/>
-      <c r="F71" s="216"/>
+      <c r="F71" s="382"/>
       <c r="G71" s="216"/>
-      <c r="H71" s="217"/>
+      <c r="H71" s="216"/>
       <c r="I71" s="217"/>
-      <c r="K71" s="214"/>
+      <c r="J71" s="217"/>
       <c r="L71" s="214"/>
       <c r="M71" s="214"/>
-      <c r="N71" s="260"/>
+      <c r="N71" s="214"/>
       <c r="O71" s="260"/>
       <c r="P71" s="260"/>
-    </row>
-    <row r="72" spans="1:16" s="180" customFormat="1">
+      <c r="Q71" s="260"/>
+    </row>
+    <row r="72" spans="1:17" s="180" customFormat="1">
       <c r="A72" s="213"/>
       <c r="B72" s="214"/>
       <c r="C72" s="215"/>
       <c r="D72" s="216"/>
       <c r="E72" s="216"/>
-      <c r="F72" s="216"/>
+      <c r="F72" s="382"/>
       <c r="G72" s="216"/>
-      <c r="H72" s="217"/>
+      <c r="H72" s="216"/>
       <c r="I72" s="217"/>
-      <c r="K72" s="214"/>
+      <c r="J72" s="217"/>
       <c r="L72" s="214"/>
       <c r="M72" s="214"/>
-      <c r="N72" s="260"/>
+      <c r="N72" s="214"/>
       <c r="O72" s="260"/>
       <c r="P72" s="260"/>
-    </row>
-    <row r="73" spans="1:16" s="180" customFormat="1">
+      <c r="Q72" s="260"/>
+    </row>
+    <row r="73" spans="1:17" s="180" customFormat="1">
       <c r="A73" s="213"/>
       <c r="B73" s="214"/>
       <c r="C73" s="215"/>
       <c r="D73" s="216"/>
       <c r="E73" s="216"/>
-      <c r="F73" s="216"/>
+      <c r="F73" s="382"/>
       <c r="G73" s="216"/>
-      <c r="H73" s="217"/>
+      <c r="H73" s="216"/>
       <c r="I73" s="217"/>
-      <c r="K73" s="214"/>
+      <c r="J73" s="217"/>
       <c r="L73" s="214"/>
       <c r="M73" s="214"/>
-      <c r="N73" s="260"/>
+      <c r="N73" s="214"/>
       <c r="O73" s="260"/>
       <c r="P73" s="260"/>
-    </row>
-    <row r="74" spans="1:16" s="180" customFormat="1">
+      <c r="Q73" s="260"/>
+    </row>
+    <row r="74" spans="1:17" s="180" customFormat="1">
       <c r="A74" s="213"/>
       <c r="B74" s="214"/>
       <c r="C74" s="215"/>
       <c r="D74" s="216"/>
       <c r="E74" s="216"/>
-      <c r="F74" s="216"/>
+      <c r="F74" s="382"/>
       <c r="G74" s="216"/>
-      <c r="H74" s="217"/>
+      <c r="H74" s="216"/>
       <c r="I74" s="217"/>
-      <c r="K74" s="214"/>
+      <c r="J74" s="217"/>
       <c r="L74" s="214"/>
       <c r="M74" s="214"/>
-      <c r="N74" s="260"/>
+      <c r="N74" s="214"/>
       <c r="O74" s="260"/>
       <c r="P74" s="260"/>
-    </row>
-    <row r="75" spans="1:16" s="180" customFormat="1">
+      <c r="Q74" s="260"/>
+    </row>
+    <row r="75" spans="1:17" s="180" customFormat="1">
       <c r="A75" s="213"/>
       <c r="B75" s="214"/>
       <c r="C75" s="215"/>
       <c r="D75" s="216"/>
       <c r="E75" s="216"/>
-      <c r="F75" s="216"/>
+      <c r="F75" s="382"/>
       <c r="G75" s="216"/>
-      <c r="H75" s="217"/>
+      <c r="H75" s="216"/>
       <c r="I75" s="217"/>
-      <c r="K75" s="214"/>
+      <c r="J75" s="217"/>
       <c r="L75" s="214"/>
       <c r="M75" s="214"/>
-      <c r="N75" s="260"/>
+      <c r="N75" s="214"/>
       <c r="O75" s="260"/>
       <c r="P75" s="260"/>
-    </row>
-    <row r="76" spans="1:16" s="180" customFormat="1">
+      <c r="Q75" s="260"/>
+    </row>
+    <row r="76" spans="1:17" s="180" customFormat="1">
       <c r="A76" s="213"/>
       <c r="B76" s="214"/>
       <c r="C76" s="215"/>
       <c r="D76" s="216"/>
       <c r="E76" s="216"/>
-      <c r="F76" s="216"/>
+      <c r="F76" s="382"/>
       <c r="G76" s="216"/>
-      <c r="H76" s="217"/>
+      <c r="H76" s="216"/>
       <c r="I76" s="217"/>
-      <c r="K76" s="214"/>
+      <c r="J76" s="217"/>
       <c r="L76" s="214"/>
       <c r="M76" s="214"/>
-      <c r="N76" s="260"/>
+      <c r="N76" s="214"/>
       <c r="O76" s="260"/>
       <c r="P76" s="260"/>
-    </row>
-    <row r="77" spans="1:16" s="180" customFormat="1">
+      <c r="Q76" s="260"/>
+    </row>
+    <row r="77" spans="1:17" s="180" customFormat="1">
       <c r="A77" s="213"/>
       <c r="B77" s="214"/>
       <c r="C77" s="215"/>
       <c r="D77" s="216"/>
       <c r="E77" s="216"/>
-      <c r="F77" s="216"/>
+      <c r="F77" s="382"/>
       <c r="G77" s="216"/>
-      <c r="H77" s="217"/>
+      <c r="H77" s="216"/>
       <c r="I77" s="217"/>
-      <c r="K77" s="214"/>
+      <c r="J77" s="217"/>
       <c r="L77" s="214"/>
       <c r="M77" s="214"/>
-      <c r="N77" s="260"/>
+      <c r="N77" s="214"/>
       <c r="O77" s="260"/>
       <c r="P77" s="260"/>
-    </row>
-    <row r="78" spans="1:16" s="180" customFormat="1">
+      <c r="Q77" s="260"/>
+    </row>
+    <row r="78" spans="1:17" s="180" customFormat="1">
       <c r="A78" s="213"/>
       <c r="B78" s="214"/>
       <c r="C78" s="215"/>
       <c r="D78" s="216"/>
       <c r="E78" s="216"/>
-      <c r="F78" s="216"/>
+      <c r="F78" s="382"/>
       <c r="G78" s="216"/>
-      <c r="H78" s="217"/>
+      <c r="H78" s="216"/>
       <c r="I78" s="217"/>
-      <c r="K78" s="214"/>
+      <c r="J78" s="217"/>
       <c r="L78" s="214"/>
       <c r="M78" s="214"/>
-      <c r="N78" s="260"/>
+      <c r="N78" s="214"/>
       <c r="O78" s="260"/>
       <c r="P78" s="260"/>
-    </row>
-    <row r="79" spans="1:16" s="180" customFormat="1">
+      <c r="Q78" s="260"/>
+    </row>
+    <row r="79" spans="1:17" s="180" customFormat="1">
       <c r="A79" s="213"/>
       <c r="B79" s="214"/>
       <c r="C79" s="215"/>
       <c r="D79" s="216"/>
       <c r="E79" s="216"/>
-      <c r="F79" s="216"/>
+      <c r="F79" s="382"/>
       <c r="G79" s="216"/>
-      <c r="H79" s="217"/>
+      <c r="H79" s="216"/>
       <c r="I79" s="217"/>
-      <c r="K79" s="214"/>
+      <c r="J79" s="217"/>
       <c r="L79" s="214"/>
       <c r="M79" s="214"/>
-      <c r="N79" s="260"/>
+      <c r="N79" s="214"/>
       <c r="O79" s="260"/>
       <c r="P79" s="260"/>
-    </row>
-    <row r="80" spans="1:16" s="180" customFormat="1">
+      <c r="Q79" s="260"/>
+    </row>
+    <row r="80" spans="1:17" s="180" customFormat="1">
       <c r="A80" s="213"/>
       <c r="B80" s="214"/>
       <c r="C80" s="215"/>
       <c r="D80" s="216"/>
       <c r="E80" s="216"/>
-      <c r="F80" s="216"/>
+      <c r="F80" s="382"/>
       <c r="G80" s="216"/>
-      <c r="H80" s="217"/>
+      <c r="H80" s="216"/>
       <c r="I80" s="217"/>
-      <c r="K80" s="214"/>
+      <c r="J80" s="217"/>
       <c r="L80" s="214"/>
       <c r="M80" s="214"/>
-      <c r="N80" s="260"/>
+      <c r="N80" s="214"/>
       <c r="O80" s="260"/>
       <c r="P80" s="260"/>
-    </row>
-    <row r="81" spans="1:16" s="180" customFormat="1">
+      <c r="Q80" s="260"/>
+    </row>
+    <row r="81" spans="1:17" s="180" customFormat="1">
       <c r="A81" s="213"/>
       <c r="B81" s="214"/>
       <c r="C81" s="215"/>
       <c r="D81" s="216"/>
       <c r="E81" s="216"/>
-      <c r="F81" s="216"/>
+      <c r="F81" s="382"/>
       <c r="G81" s="216"/>
-      <c r="H81" s="217"/>
+      <c r="H81" s="216"/>
       <c r="I81" s="217"/>
-      <c r="K81" s="214"/>
+      <c r="J81" s="217"/>
       <c r="L81" s="214"/>
       <c r="M81" s="214"/>
-      <c r="N81" s="260"/>
+      <c r="N81" s="214"/>
       <c r="O81" s="260"/>
       <c r="P81" s="260"/>
-    </row>
-    <row r="82" spans="1:16" s="180" customFormat="1">
+      <c r="Q81" s="260"/>
+    </row>
+    <row r="82" spans="1:17" s="180" customFormat="1">
       <c r="A82" s="213"/>
       <c r="B82" s="214"/>
       <c r="C82" s="215"/>
       <c r="D82" s="216"/>
       <c r="E82" s="216"/>
-      <c r="F82" s="216"/>
+      <c r="F82" s="382"/>
       <c r="G82" s="216"/>
-      <c r="H82" s="217"/>
+      <c r="H82" s="216"/>
       <c r="I82" s="217"/>
-      <c r="K82" s="214"/>
+      <c r="J82" s="217"/>
       <c r="L82" s="214"/>
       <c r="M82" s="214"/>
-      <c r="N82" s="260"/>
+      <c r="N82" s="214"/>
       <c r="O82" s="260"/>
       <c r="P82" s="260"/>
-    </row>
-    <row r="83" spans="1:16" s="180" customFormat="1">
+      <c r="Q82" s="260"/>
+    </row>
+    <row r="83" spans="1:17" s="180" customFormat="1">
       <c r="A83" s="213"/>
       <c r="B83" s="214"/>
       <c r="C83" s="215"/>
       <c r="D83" s="216"/>
       <c r="E83" s="216"/>
-      <c r="F83" s="216"/>
+      <c r="F83" s="382"/>
       <c r="G83" s="216"/>
-      <c r="H83" s="217"/>
+      <c r="H83" s="216"/>
       <c r="I83" s="217"/>
-      <c r="K83" s="214"/>
+      <c r="J83" s="217"/>
       <c r="L83" s="214"/>
       <c r="M83" s="214"/>
-      <c r="N83" s="260"/>
+      <c r="N83" s="214"/>
       <c r="O83" s="260"/>
       <c r="P83" s="260"/>
-    </row>
-    <row r="84" spans="1:16" s="180" customFormat="1">
+      <c r="Q83" s="260"/>
+    </row>
+    <row r="84" spans="1:17" s="180" customFormat="1">
       <c r="A84" s="213"/>
       <c r="B84" s="214"/>
       <c r="C84" s="215"/>
       <c r="D84" s="216"/>
       <c r="E84" s="216"/>
-      <c r="F84" s="216"/>
+      <c r="F84" s="382"/>
       <c r="G84" s="216"/>
-      <c r="H84" s="217"/>
+      <c r="H84" s="216"/>
       <c r="I84" s="217"/>
-      <c r="K84" s="214"/>
+      <c r="J84" s="217"/>
       <c r="L84" s="214"/>
       <c r="M84" s="214"/>
-      <c r="N84" s="260"/>
+      <c r="N84" s="214"/>
       <c r="O84" s="260"/>
       <c r="P84" s="260"/>
-    </row>
-    <row r="85" spans="1:16" s="180" customFormat="1">
+      <c r="Q84" s="260"/>
+    </row>
+    <row r="85" spans="1:17" s="180" customFormat="1">
       <c r="A85" s="213"/>
       <c r="B85" s="214"/>
       <c r="C85" s="215"/>
       <c r="D85" s="216"/>
       <c r="E85" s="216"/>
-      <c r="F85" s="216"/>
+      <c r="F85" s="382"/>
       <c r="G85" s="216"/>
-      <c r="H85" s="217"/>
+      <c r="H85" s="216"/>
       <c r="I85" s="217"/>
-      <c r="K85" s="214"/>
+      <c r="J85" s="217"/>
       <c r="L85" s="214"/>
       <c r="M85" s="214"/>
-      <c r="N85" s="260"/>
+      <c r="N85" s="214"/>
       <c r="O85" s="260"/>
       <c r="P85" s="260"/>
-    </row>
-    <row r="86" spans="1:16" s="180" customFormat="1">
+      <c r="Q85" s="260"/>
+    </row>
+    <row r="86" spans="1:17" s="180" customFormat="1">
       <c r="A86" s="213"/>
       <c r="B86" s="214"/>
       <c r="C86" s="215"/>
       <c r="D86" s="216"/>
       <c r="E86" s="216"/>
-      <c r="F86" s="216"/>
+      <c r="F86" s="382"/>
       <c r="G86" s="216"/>
-      <c r="H86" s="217"/>
+      <c r="H86" s="216"/>
       <c r="I86" s="217"/>
-      <c r="K86" s="214"/>
+      <c r="J86" s="217"/>
       <c r="L86" s="214"/>
       <c r="M86" s="214"/>
-      <c r="N86" s="260"/>
+      <c r="N86" s="214"/>
       <c r="O86" s="260"/>
       <c r="P86" s="260"/>
-    </row>
-    <row r="87" spans="1:16" s="180" customFormat="1">
+      <c r="Q86" s="260"/>
+    </row>
+    <row r="87" spans="1:17" s="180" customFormat="1">
       <c r="A87" s="213"/>
       <c r="B87" s="214"/>
       <c r="C87" s="215"/>
       <c r="D87" s="216"/>
       <c r="E87" s="216"/>
-      <c r="F87" s="216"/>
+      <c r="F87" s="382"/>
       <c r="G87" s="216"/>
-      <c r="H87" s="217"/>
+      <c r="H87" s="216"/>
       <c r="I87" s="217"/>
-      <c r="K87" s="214"/>
+      <c r="J87" s="217"/>
       <c r="L87" s="214"/>
       <c r="M87" s="214"/>
-      <c r="N87" s="260"/>
+      <c r="N87" s="214"/>
       <c r="O87" s="260"/>
       <c r="P87" s="260"/>
-    </row>
-    <row r="88" spans="1:16" s="180" customFormat="1">
+      <c r="Q87" s="260"/>
+    </row>
+    <row r="88" spans="1:17" s="180" customFormat="1">
       <c r="A88" s="213"/>
       <c r="B88" s="214"/>
       <c r="C88" s="215"/>
       <c r="D88" s="216"/>
       <c r="E88" s="216"/>
-      <c r="F88" s="216"/>
+      <c r="F88" s="382"/>
       <c r="G88" s="216"/>
-      <c r="H88" s="217"/>
+      <c r="H88" s="216"/>
       <c r="I88" s="217"/>
-      <c r="K88" s="214"/>
+      <c r="J88" s="217"/>
       <c r="L88" s="214"/>
       <c r="M88" s="214"/>
-      <c r="N88" s="260"/>
+      <c r="N88" s="214"/>
       <c r="O88" s="260"/>
       <c r="P88" s="260"/>
-    </row>
-    <row r="89" spans="1:16" s="180" customFormat="1">
+      <c r="Q88" s="260"/>
+    </row>
+    <row r="89" spans="1:17" s="180" customFormat="1">
       <c r="A89" s="213"/>
       <c r="B89" s="214"/>
       <c r="C89" s="215"/>
       <c r="D89" s="216"/>
       <c r="E89" s="216"/>
-      <c r="F89" s="216"/>
+      <c r="F89" s="382"/>
       <c r="G89" s="216"/>
-      <c r="H89" s="217"/>
+      <c r="H89" s="216"/>
       <c r="I89" s="217"/>
-      <c r="K89" s="214"/>
+      <c r="J89" s="217"/>
       <c r="L89" s="214"/>
       <c r="M89" s="214"/>
-      <c r="N89" s="260"/>
+      <c r="N89" s="214"/>
       <c r="O89" s="260"/>
       <c r="P89" s="260"/>
-    </row>
-    <row r="90" spans="1:16" s="180" customFormat="1">
+      <c r="Q89" s="260"/>
+    </row>
+    <row r="90" spans="1:17" s="180" customFormat="1">
       <c r="A90" s="213"/>
       <c r="B90" s="214"/>
       <c r="C90" s="215"/>
       <c r="D90" s="216"/>
       <c r="E90" s="216"/>
-      <c r="F90" s="216"/>
+      <c r="F90" s="382"/>
       <c r="G90" s="216"/>
-      <c r="H90" s="217"/>
+      <c r="H90" s="216"/>
       <c r="I90" s="217"/>
-      <c r="K90" s="214"/>
+      <c r="J90" s="217"/>
       <c r="L90" s="214"/>
       <c r="M90" s="214"/>
-      <c r="N90" s="260"/>
+      <c r="N90" s="214"/>
       <c r="O90" s="260"/>
       <c r="P90" s="260"/>
-    </row>
-    <row r="91" spans="1:16" s="180" customFormat="1">
+      <c r="Q90" s="260"/>
+    </row>
+    <row r="91" spans="1:17" s="180" customFormat="1">
       <c r="A91" s="213"/>
       <c r="B91" s="214"/>
       <c r="C91" s="215"/>
       <c r="D91" s="216"/>
       <c r="E91" s="216"/>
-      <c r="F91" s="216"/>
+      <c r="F91" s="382"/>
       <c r="G91" s="216"/>
-      <c r="H91" s="217"/>
+      <c r="H91" s="216"/>
       <c r="I91" s="217"/>
-      <c r="K91" s="214"/>
+      <c r="J91" s="217"/>
       <c r="L91" s="214"/>
       <c r="M91" s="214"/>
-      <c r="N91" s="260"/>
+      <c r="N91" s="214"/>
       <c r="O91" s="260"/>
       <c r="P91" s="260"/>
-    </row>
-    <row r="92" spans="1:16" s="180" customFormat="1">
+      <c r="Q91" s="260"/>
+    </row>
+    <row r="92" spans="1:17" s="180" customFormat="1">
       <c r="A92" s="213"/>
       <c r="B92" s="214"/>
       <c r="C92" s="215"/>
       <c r="D92" s="216"/>
       <c r="E92" s="216"/>
-      <c r="F92" s="216"/>
+      <c r="F92" s="382"/>
       <c r="G92" s="216"/>
-      <c r="H92" s="217"/>
+      <c r="H92" s="216"/>
       <c r="I92" s="217"/>
-      <c r="K92" s="214"/>
+      <c r="J92" s="217"/>
       <c r="L92" s="214"/>
       <c r="M92" s="214"/>
-      <c r="N92" s="260"/>
+      <c r="N92" s="214"/>
       <c r="O92" s="260"/>
       <c r="P92" s="260"/>
-    </row>
-    <row r="93" spans="1:16" s="180" customFormat="1">
+      <c r="Q92" s="260"/>
+    </row>
+    <row r="93" spans="1:17" s="180" customFormat="1">
       <c r="A93" s="213"/>
       <c r="B93" s="214"/>
       <c r="C93" s="215"/>
       <c r="D93" s="216"/>
       <c r="E93" s="216"/>
-      <c r="F93" s="216"/>
+      <c r="F93" s="382"/>
       <c r="G93" s="216"/>
-      <c r="H93" s="217"/>
+      <c r="H93" s="216"/>
       <c r="I93" s="217"/>
-      <c r="K93" s="214"/>
+      <c r="J93" s="217"/>
       <c r="L93" s="214"/>
       <c r="M93" s="214"/>
-      <c r="N93" s="260"/>
+      <c r="N93" s="214"/>
       <c r="O93" s="260"/>
       <c r="P93" s="260"/>
-    </row>
-    <row r="94" spans="1:16" s="180" customFormat="1">
+      <c r="Q93" s="260"/>
+    </row>
+    <row r="94" spans="1:17" s="180" customFormat="1">
       <c r="A94" s="213"/>
       <c r="B94" s="214"/>
       <c r="C94" s="215"/>
       <c r="D94" s="216"/>
       <c r="E94" s="216"/>
-      <c r="F94" s="216"/>
+      <c r="F94" s="382"/>
       <c r="G94" s="216"/>
-      <c r="H94" s="217"/>
+      <c r="H94" s="216"/>
       <c r="I94" s="217"/>
-      <c r="K94" s="214"/>
+      <c r="J94" s="217"/>
       <c r="L94" s="214"/>
       <c r="M94" s="214"/>
-      <c r="N94" s="260"/>
+      <c r="N94" s="214"/>
       <c r="O94" s="260"/>
       <c r="P94" s="260"/>
-    </row>
-    <row r="95" spans="1:16" s="180" customFormat="1">
+      <c r="Q94" s="260"/>
+    </row>
+    <row r="95" spans="1:17" s="180" customFormat="1">
       <c r="A95" s="213"/>
       <c r="B95" s="214"/>
       <c r="C95" s="215"/>
       <c r="D95" s="216"/>
       <c r="E95" s="216"/>
-      <c r="F95" s="216"/>
+      <c r="F95" s="382"/>
       <c r="G95" s="216"/>
-      <c r="H95" s="217"/>
+      <c r="H95" s="216"/>
       <c r="I95" s="217"/>
-      <c r="K95" s="214"/>
+      <c r="J95" s="217"/>
       <c r="L95" s="214"/>
       <c r="M95" s="214"/>
-      <c r="N95" s="260"/>
+      <c r="N95" s="214"/>
       <c r="O95" s="260"/>
       <c r="P95" s="260"/>
-    </row>
-    <row r="96" spans="1:16" s="180" customFormat="1">
+      <c r="Q95" s="260"/>
+    </row>
+    <row r="96" spans="1:17" s="180" customFormat="1">
       <c r="A96" s="213"/>
       <c r="B96" s="214"/>
       <c r="C96" s="215"/>
       <c r="D96" s="216"/>
       <c r="E96" s="216"/>
-      <c r="F96" s="216"/>
+      <c r="F96" s="382"/>
       <c r="G96" s="216"/>
-      <c r="H96" s="217"/>
+      <c r="H96" s="216"/>
       <c r="I96" s="217"/>
-      <c r="K96" s="214"/>
+      <c r="J96" s="217"/>
       <c r="L96" s="214"/>
       <c r="M96" s="214"/>
-      <c r="N96" s="260"/>
+      <c r="N96" s="214"/>
       <c r="O96" s="260"/>
       <c r="P96" s="260"/>
-    </row>
-    <row r="97" spans="1:16" s="180" customFormat="1">
+      <c r="Q96" s="260"/>
+    </row>
+    <row r="97" spans="1:17" s="180" customFormat="1">
       <c r="A97" s="213"/>
       <c r="B97" s="214"/>
       <c r="C97" s="215"/>
       <c r="D97" s="216"/>
       <c r="E97" s="216"/>
-      <c r="F97" s="216"/>
+      <c r="F97" s="382"/>
       <c r="G97" s="216"/>
-      <c r="H97" s="217"/>
+      <c r="H97" s="216"/>
       <c r="I97" s="217"/>
-      <c r="K97" s="214"/>
+      <c r="J97" s="217"/>
       <c r="L97" s="214"/>
       <c r="M97" s="214"/>
-      <c r="N97" s="260"/>
+      <c r="N97" s="214"/>
       <c r="O97" s="260"/>
       <c r="P97" s="260"/>
-    </row>
-    <row r="98" spans="1:16" s="180" customFormat="1">
+      <c r="Q97" s="260"/>
+    </row>
+    <row r="98" spans="1:17" s="180" customFormat="1">
       <c r="A98" s="213"/>
       <c r="B98" s="214"/>
       <c r="C98" s="215"/>
       <c r="D98" s="216"/>
       <c r="E98" s="216"/>
-      <c r="F98" s="216"/>
+      <c r="F98" s="382"/>
       <c r="G98" s="216"/>
-      <c r="H98" s="217"/>
+      <c r="H98" s="216"/>
       <c r="I98" s="217"/>
-      <c r="K98" s="214"/>
+      <c r="J98" s="217"/>
       <c r="L98" s="214"/>
       <c r="M98" s="214"/>
-      <c r="N98" s="260"/>
+      <c r="N98" s="214"/>
       <c r="O98" s="260"/>
       <c r="P98" s="260"/>
-    </row>
-    <row r="99" spans="1:16" s="180" customFormat="1">
+      <c r="Q98" s="260"/>
+    </row>
+    <row r="99" spans="1:17" s="180" customFormat="1">
       <c r="A99" s="213"/>
       <c r="B99" s="214"/>
       <c r="C99" s="215"/>
       <c r="D99" s="216"/>
       <c r="E99" s="216"/>
-      <c r="F99" s="216"/>
+      <c r="F99" s="382"/>
       <c r="G99" s="216"/>
-      <c r="H99" s="217"/>
+      <c r="H99" s="216"/>
       <c r="I99" s="217"/>
-      <c r="K99" s="214"/>
+      <c r="J99" s="217"/>
       <c r="L99" s="214"/>
       <c r="M99" s="214"/>
-      <c r="N99" s="260"/>
+      <c r="N99" s="214"/>
       <c r="O99" s="260"/>
       <c r="P99" s="260"/>
-    </row>
-    <row r="100" spans="1:16" s="180" customFormat="1">
+      <c r="Q99" s="260"/>
+    </row>
+    <row r="100" spans="1:17" s="180" customFormat="1">
       <c r="A100" s="213"/>
       <c r="B100" s="214"/>
       <c r="C100" s="215"/>
       <c r="D100" s="216"/>
       <c r="E100" s="216"/>
-      <c r="F100" s="216"/>
+      <c r="F100" s="382"/>
       <c r="G100" s="216"/>
-      <c r="H100" s="217"/>
+      <c r="H100" s="216"/>
       <c r="I100" s="217"/>
-      <c r="K100" s="214"/>
+      <c r="J100" s="217"/>
       <c r="L100" s="214"/>
       <c r="M100" s="214"/>
-      <c r="N100" s="260"/>
+      <c r="N100" s="214"/>
       <c r="O100" s="260"/>
       <c r="P100" s="260"/>
-    </row>
-    <row r="101" spans="1:16" s="180" customFormat="1">
+      <c r="Q100" s="260"/>
+    </row>
+    <row r="101" spans="1:17" s="180" customFormat="1">
       <c r="A101" s="213"/>
       <c r="B101" s="214"/>
       <c r="C101" s="215"/>
       <c r="D101" s="216"/>
       <c r="E101" s="216"/>
-      <c r="F101" s="216"/>
+      <c r="F101" s="382"/>
       <c r="G101" s="216"/>
-      <c r="H101" s="217"/>
+      <c r="H101" s="216"/>
       <c r="I101" s="217"/>
-      <c r="K101" s="214"/>
+      <c r="J101" s="217"/>
       <c r="L101" s="214"/>
       <c r="M101" s="214"/>
-      <c r="N101" s="260"/>
+      <c r="N101" s="214"/>
       <c r="O101" s="260"/>
       <c r="P101" s="260"/>
-    </row>
-    <row r="102" spans="1:16" s="180" customFormat="1">
+      <c r="Q101" s="260"/>
+    </row>
+    <row r="102" spans="1:17" s="180" customFormat="1">
       <c r="A102" s="213"/>
       <c r="B102" s="214"/>
       <c r="C102" s="215"/>
       <c r="D102" s="216"/>
       <c r="E102" s="216"/>
-      <c r="F102" s="216"/>
+      <c r="F102" s="382"/>
       <c r="G102" s="216"/>
-      <c r="H102" s="217"/>
+      <c r="H102" s="216"/>
       <c r="I102" s="217"/>
-      <c r="K102" s="214"/>
+      <c r="J102" s="217"/>
       <c r="L102" s="214"/>
       <c r="M102" s="214"/>
-      <c r="N102" s="260"/>
+      <c r="N102" s="214"/>
       <c r="O102" s="260"/>
       <c r="P102" s="260"/>
-    </row>
-    <row r="103" spans="1:16" s="180" customFormat="1">
+      <c r="Q102" s="260"/>
+    </row>
+    <row r="103" spans="1:17" s="180" customFormat="1">
       <c r="A103" s="213"/>
       <c r="B103" s="214"/>
       <c r="C103" s="215"/>
       <c r="D103" s="216"/>
       <c r="E103" s="216"/>
-      <c r="F103" s="216"/>
+      <c r="F103" s="382"/>
       <c r="G103" s="216"/>
-      <c r="H103" s="217"/>
+      <c r="H103" s="216"/>
       <c r="I103" s="217"/>
-      <c r="K103" s="214"/>
+      <c r="J103" s="217"/>
       <c r="L103" s="214"/>
       <c r="M103" s="214"/>
-      <c r="N103" s="260"/>
+      <c r="N103" s="214"/>
       <c r="O103" s="260"/>
       <c r="P103" s="260"/>
-    </row>
-    <row r="104" spans="1:16" s="180" customFormat="1">
+      <c r="Q103" s="260"/>
+    </row>
+    <row r="104" spans="1:17" s="180" customFormat="1">
       <c r="A104" s="213"/>
       <c r="B104" s="214"/>
       <c r="C104" s="215"/>
       <c r="D104" s="216"/>
       <c r="E104" s="216"/>
-      <c r="F104" s="216"/>
+      <c r="F104" s="382"/>
       <c r="G104" s="216"/>
-      <c r="H104" s="217"/>
+      <c r="H104" s="216"/>
       <c r="I104" s="217"/>
-      <c r="K104" s="214"/>
+      <c r="J104" s="217"/>
       <c r="L104" s="214"/>
       <c r="M104" s="214"/>
-      <c r="N104" s="260"/>
+      <c r="N104" s="214"/>
       <c r="O104" s="260"/>
       <c r="P104" s="260"/>
-    </row>
-    <row r="105" spans="1:16" s="180" customFormat="1">
+      <c r="Q104" s="260"/>
+    </row>
+    <row r="105" spans="1:17" s="180" customFormat="1">
       <c r="A105" s="213"/>
       <c r="B105" s="214"/>
       <c r="C105" s="215"/>
       <c r="D105" s="216"/>
       <c r="E105" s="216"/>
-      <c r="F105" s="216"/>
+      <c r="F105" s="382"/>
       <c r="G105" s="216"/>
-      <c r="H105" s="217"/>
+      <c r="H105" s="216"/>
       <c r="I105" s="217"/>
-      <c r="K105" s="214"/>
+      <c r="J105" s="217"/>
       <c r="L105" s="214"/>
       <c r="M105" s="214"/>
-      <c r="N105" s="260"/>
+      <c r="N105" s="214"/>
       <c r="O105" s="260"/>
       <c r="P105" s="260"/>
-    </row>
-    <row r="106" spans="1:16" s="180" customFormat="1">
+      <c r="Q105" s="260"/>
+    </row>
+    <row r="106" spans="1:17" s="180" customFormat="1">
       <c r="A106" s="213"/>
       <c r="B106" s="214"/>
       <c r="C106" s="215"/>
       <c r="D106" s="216"/>
       <c r="E106" s="216"/>
-      <c r="F106" s="216"/>
+      <c r="F106" s="382"/>
       <c r="G106" s="216"/>
-      <c r="H106" s="217"/>
+      <c r="H106" s="216"/>
       <c r="I106" s="217"/>
-      <c r="K106" s="214"/>
+      <c r="J106" s="217"/>
       <c r="L106" s="214"/>
       <c r="M106" s="214"/>
-      <c r="N106" s="260"/>
+      <c r="N106" s="214"/>
       <c r="O106" s="260"/>
       <c r="P106" s="260"/>
-    </row>
-    <row r="107" spans="1:16" s="180" customFormat="1">
+      <c r="Q106" s="260"/>
+    </row>
+    <row r="107" spans="1:17" s="180" customFormat="1">
       <c r="A107" s="213"/>
       <c r="B107" s="214"/>
       <c r="C107" s="215"/>
       <c r="D107" s="216"/>
       <c r="E107" s="216"/>
-      <c r="F107" s="216"/>
+      <c r="F107" s="382"/>
       <c r="G107" s="216"/>
-      <c r="H107" s="217"/>
+      <c r="H107" s="216"/>
       <c r="I107" s="217"/>
-      <c r="K107" s="214"/>
+      <c r="J107" s="217"/>
       <c r="L107" s="214"/>
       <c r="M107" s="214"/>
-      <c r="N107" s="260"/>
+      <c r="N107" s="214"/>
       <c r="O107" s="260"/>
       <c r="P107" s="260"/>
-    </row>
-    <row r="108" spans="1:16" s="180" customFormat="1">
+      <c r="Q107" s="260"/>
+    </row>
+    <row r="108" spans="1:17" s="180" customFormat="1">
       <c r="A108" s="213"/>
       <c r="B108" s="214"/>
       <c r="C108" s="215"/>
       <c r="D108" s="216"/>
       <c r="E108" s="216"/>
-      <c r="F108" s="216"/>
+      <c r="F108" s="382"/>
       <c r="G108" s="216"/>
-      <c r="H108" s="217"/>
+      <c r="H108" s="216"/>
       <c r="I108" s="217"/>
-      <c r="K108" s="214"/>
+      <c r="J108" s="217"/>
       <c r="L108" s="214"/>
       <c r="M108" s="214"/>
-      <c r="N108" s="260"/>
+      <c r="N108" s="214"/>
       <c r="O108" s="260"/>
       <c r="P108" s="260"/>
-    </row>
-    <row r="109" spans="1:16" s="180" customFormat="1">
+      <c r="Q108" s="260"/>
+    </row>
+    <row r="109" spans="1:17" s="180" customFormat="1">
       <c r="A109" s="213"/>
       <c r="B109" s="214"/>
       <c r="C109" s="215"/>
       <c r="D109" s="216"/>
       <c r="E109" s="216"/>
-      <c r="F109" s="216"/>
+      <c r="F109" s="382"/>
       <c r="G109" s="216"/>
-      <c r="H109" s="217"/>
+      <c r="H109" s="216"/>
       <c r="I109" s="217"/>
-      <c r="K109" s="214"/>
+      <c r="J109" s="217"/>
       <c r="L109" s="214"/>
       <c r="M109" s="214"/>
-      <c r="N109" s="260"/>
+      <c r="N109" s="214"/>
       <c r="O109" s="260"/>
       <c r="P109" s="260"/>
-    </row>
-    <row r="110" spans="1:16" s="180" customFormat="1">
+      <c r="Q109" s="260"/>
+    </row>
+    <row r="110" spans="1:17" s="180" customFormat="1">
       <c r="A110" s="213"/>
       <c r="B110" s="214"/>
       <c r="C110" s="215"/>
       <c r="D110" s="216"/>
       <c r="E110" s="216"/>
-      <c r="F110" s="216"/>
+      <c r="F110" s="382"/>
       <c r="G110" s="216"/>
-      <c r="H110" s="217"/>
+      <c r="H110" s="216"/>
       <c r="I110" s="217"/>
-      <c r="K110" s="214"/>
+      <c r="J110" s="217"/>
       <c r="L110" s="214"/>
       <c r="M110" s="214"/>
-      <c r="N110" s="260"/>
+      <c r="N110" s="214"/>
       <c r="O110" s="260"/>
       <c r="P110" s="260"/>
-    </row>
-    <row r="111" spans="1:16" s="180" customFormat="1">
+      <c r="Q110" s="260"/>
+    </row>
+    <row r="111" spans="1:17" s="180" customFormat="1">
       <c r="A111" s="213"/>
       <c r="B111" s="214"/>
       <c r="C111" s="215"/>
       <c r="D111" s="216"/>
       <c r="E111" s="216"/>
-      <c r="F111" s="216"/>
+      <c r="F111" s="382"/>
       <c r="G111" s="216"/>
-      <c r="H111" s="217"/>
+      <c r="H111" s="216"/>
       <c r="I111" s="217"/>
-      <c r="K111" s="214"/>
+      <c r="J111" s="217"/>
       <c r="L111" s="214"/>
       <c r="M111" s="214"/>
-      <c r="N111" s="260"/>
+      <c r="N111" s="214"/>
       <c r="O111" s="260"/>
       <c r="P111" s="260"/>
-    </row>
-    <row r="112" spans="1:16" s="180" customFormat="1">
+      <c r="Q111" s="260"/>
+    </row>
+    <row r="112" spans="1:17" s="180" customFormat="1">
       <c r="A112" s="213"/>
       <c r="B112" s="214"/>
       <c r="C112" s="215"/>
       <c r="D112" s="216"/>
       <c r="E112" s="216"/>
-      <c r="F112" s="216"/>
+      <c r="F112" s="382"/>
       <c r="G112" s="216"/>
-      <c r="H112" s="217"/>
+      <c r="H112" s="216"/>
       <c r="I112" s="217"/>
-      <c r="K112" s="214"/>
+      <c r="J112" s="217"/>
       <c r="L112" s="214"/>
       <c r="M112" s="214"/>
-      <c r="N112" s="260"/>
+      <c r="N112" s="214"/>
       <c r="O112" s="260"/>
       <c r="P112" s="260"/>
-    </row>
-    <row r="113" spans="1:16" s="180" customFormat="1">
+      <c r="Q112" s="260"/>
+    </row>
+    <row r="113" spans="1:17" s="180" customFormat="1">
       <c r="A113" s="213"/>
       <c r="B113" s="214"/>
       <c r="C113" s="215"/>
       <c r="D113" s="216"/>
       <c r="E113" s="216"/>
-      <c r="F113" s="216"/>
+      <c r="F113" s="382"/>
       <c r="G113" s="216"/>
-      <c r="H113" s="217"/>
+      <c r="H113" s="216"/>
       <c r="I113" s="217"/>
-      <c r="K113" s="214"/>
+      <c r="J113" s="217"/>
       <c r="L113" s="214"/>
       <c r="M113" s="214"/>
-      <c r="N113" s="260"/>
+      <c r="N113" s="214"/>
       <c r="O113" s="260"/>
       <c r="P113" s="260"/>
-    </row>
-    <row r="114" spans="1:16" s="180" customFormat="1">
+      <c r="Q113" s="260"/>
+    </row>
+    <row r="114" spans="1:17" s="180" customFormat="1">
       <c r="A114" s="213"/>
       <c r="B114" s="214"/>
       <c r="C114" s="215"/>
       <c r="D114" s="216"/>
       <c r="E114" s="216"/>
-      <c r="F114" s="216"/>
+      <c r="F114" s="382"/>
       <c r="G114" s="216"/>
-      <c r="H114" s="217"/>
+      <c r="H114" s="216"/>
       <c r="I114" s="217"/>
-      <c r="K114" s="214"/>
+      <c r="J114" s="217"/>
       <c r="L114" s="214"/>
       <c r="M114" s="214"/>
-      <c r="N114" s="260"/>
+      <c r="N114" s="214"/>
       <c r="O114" s="260"/>
       <c r="P114" s="260"/>
-    </row>
-    <row r="115" spans="1:16" s="180" customFormat="1">
+      <c r="Q114" s="260"/>
+    </row>
+    <row r="115" spans="1:17" s="180" customFormat="1">
       <c r="A115" s="213"/>
       <c r="B115" s="214"/>
       <c r="C115" s="215"/>
       <c r="D115" s="216"/>
       <c r="E115" s="216"/>
-      <c r="F115" s="216"/>
+      <c r="F115" s="382"/>
       <c r="G115" s="216"/>
-      <c r="H115" s="217"/>
+      <c r="H115" s="216"/>
       <c r="I115" s="217"/>
-      <c r="K115" s="214"/>
+      <c r="J115" s="217"/>
       <c r="L115" s="214"/>
       <c r="M115" s="214"/>
-      <c r="N115" s="260"/>
+      <c r="N115" s="214"/>
       <c r="O115" s="260"/>
       <c r="P115" s="260"/>
-    </row>
-    <row r="116" spans="1:16" s="180" customFormat="1">
+      <c r="Q115" s="260"/>
+    </row>
+    <row r="116" spans="1:17" s="180" customFormat="1">
       <c r="A116" s="213"/>
       <c r="B116" s="214"/>
       <c r="C116" s="215"/>
       <c r="D116" s="216"/>
       <c r="E116" s="216"/>
-      <c r="F116" s="216"/>
+      <c r="F116" s="382"/>
       <c r="G116" s="216"/>
-      <c r="H116" s="217"/>
+      <c r="H116" s="216"/>
       <c r="I116" s="217"/>
-      <c r="K116" s="214"/>
+      <c r="J116" s="217"/>
       <c r="L116" s="214"/>
       <c r="M116" s="214"/>
-      <c r="N116" s="260"/>
+      <c r="N116" s="214"/>
       <c r="O116" s="260"/>
       <c r="P116" s="260"/>
-    </row>
-    <row r="117" spans="1:16" s="180" customFormat="1">
+      <c r="Q116" s="260"/>
+    </row>
+    <row r="117" spans="1:17" s="180" customFormat="1">
       <c r="A117" s="213"/>
       <c r="B117" s="214"/>
       <c r="C117" s="215"/>
       <c r="D117" s="216"/>
       <c r="E117" s="216"/>
-      <c r="F117" s="216"/>
+      <c r="F117" s="382"/>
       <c r="G117" s="216"/>
-      <c r="H117" s="217"/>
+      <c r="H117" s="216"/>
       <c r="I117" s="217"/>
-      <c r="K117" s="214"/>
+      <c r="J117" s="217"/>
       <c r="L117" s="214"/>
       <c r="M117" s="214"/>
-      <c r="N117" s="260"/>
+      <c r="N117" s="214"/>
       <c r="O117" s="260"/>
       <c r="P117" s="260"/>
-    </row>
-    <row r="118" spans="1:16" s="180" customFormat="1">
+      <c r="Q117" s="260"/>
+    </row>
+    <row r="118" spans="1:17" s="180" customFormat="1">
       <c r="A118" s="213"/>
       <c r="B118" s="214"/>
       <c r="C118" s="215"/>
       <c r="D118" s="216"/>
       <c r="E118" s="216"/>
-      <c r="F118" s="216"/>
+      <c r="F118" s="382"/>
       <c r="G118" s="216"/>
-      <c r="H118" s="217"/>
+      <c r="H118" s="216"/>
       <c r="I118" s="217"/>
-      <c r="K118" s="214"/>
+      <c r="J118" s="217"/>
       <c r="L118" s="214"/>
       <c r="M118" s="214"/>
-      <c r="N118" s="260"/>
+      <c r="N118" s="214"/>
       <c r="O118" s="260"/>
       <c r="P118" s="260"/>
-    </row>
-    <row r="119" spans="1:16" s="180" customFormat="1">
+      <c r="Q118" s="260"/>
+    </row>
+    <row r="119" spans="1:17" s="180" customFormat="1">
       <c r="A119" s="213"/>
       <c r="B119" s="214"/>
       <c r="C119" s="215"/>
       <c r="D119" s="216"/>
       <c r="E119" s="216"/>
-      <c r="F119" s="216"/>
+      <c r="F119" s="382"/>
       <c r="G119" s="216"/>
-      <c r="H119" s="217"/>
+      <c r="H119" s="216"/>
       <c r="I119" s="217"/>
-      <c r="K119" s="214"/>
+      <c r="J119" s="217"/>
       <c r="L119" s="214"/>
       <c r="M119" s="214"/>
-      <c r="N119" s="260"/>
+      <c r="N119" s="214"/>
       <c r="O119" s="260"/>
       <c r="P119" s="260"/>
-    </row>
-    <row r="120" spans="1:16" s="180" customFormat="1">
+      <c r="Q119" s="260"/>
+    </row>
+    <row r="120" spans="1:17" s="180" customFormat="1">
       <c r="A120" s="213"/>
       <c r="B120" s="214"/>
       <c r="C120" s="215"/>
       <c r="D120" s="216"/>
       <c r="E120" s="216"/>
-      <c r="F120" s="216"/>
+      <c r="F120" s="382"/>
       <c r="G120" s="216"/>
-      <c r="H120" s="217"/>
+      <c r="H120" s="216"/>
       <c r="I120" s="217"/>
-      <c r="K120" s="214"/>
+      <c r="J120" s="217"/>
       <c r="L120" s="214"/>
       <c r="M120" s="214"/>
-      <c r="N120" s="260"/>
+      <c r="N120" s="214"/>
       <c r="O120" s="260"/>
       <c r="P120" s="260"/>
-    </row>
-    <row r="121" spans="1:16" s="180" customFormat="1">
+      <c r="Q120" s="260"/>
+    </row>
+    <row r="121" spans="1:17" s="180" customFormat="1">
       <c r="A121" s="213"/>
       <c r="B121" s="214"/>
       <c r="C121" s="215"/>
       <c r="D121" s="216"/>
       <c r="E121" s="216"/>
-      <c r="F121" s="216"/>
+      <c r="F121" s="382"/>
       <c r="G121" s="216"/>
-      <c r="H121" s="217"/>
+      <c r="H121" s="216"/>
       <c r="I121" s="217"/>
-      <c r="K121" s="214"/>
+      <c r="J121" s="217"/>
       <c r="L121" s="214"/>
       <c r="M121" s="214"/>
-      <c r="N121" s="260"/>
+      <c r="N121" s="214"/>
       <c r="O121" s="260"/>
       <c r="P121" s="260"/>
-    </row>
-    <row r="122" spans="1:16" s="180" customFormat="1">
+      <c r="Q121" s="260"/>
+    </row>
+    <row r="122" spans="1:17" s="180" customFormat="1">
       <c r="A122" s="213"/>
       <c r="B122" s="214"/>
       <c r="C122" s="215"/>
       <c r="D122" s="216"/>
       <c r="E122" s="216"/>
-      <c r="F122" s="216"/>
+      <c r="F122" s="382"/>
       <c r="G122" s="216"/>
-      <c r="H122" s="217"/>
+      <c r="H122" s="216"/>
       <c r="I122" s="217"/>
-      <c r="K122" s="214"/>
+      <c r="J122" s="217"/>
       <c r="L122" s="214"/>
       <c r="M122" s="214"/>
-      <c r="N122" s="260"/>
+      <c r="N122" s="214"/>
       <c r="O122" s="260"/>
       <c r="P122" s="260"/>
-    </row>
-    <row r="123" spans="1:16" s="180" customFormat="1">
+      <c r="Q122" s="260"/>
+    </row>
+    <row r="123" spans="1:17" s="180" customFormat="1">
       <c r="A123" s="213"/>
       <c r="B123" s="214"/>
       <c r="C123" s="215"/>
       <c r="D123" s="216"/>
       <c r="E123" s="216"/>
-      <c r="F123" s="216"/>
+      <c r="F123" s="382"/>
       <c r="G123" s="216"/>
-      <c r="H123" s="217"/>
+      <c r="H123" s="216"/>
       <c r="I123" s="217"/>
-      <c r="K123" s="214"/>
+      <c r="J123" s="217"/>
       <c r="L123" s="214"/>
       <c r="M123" s="214"/>
-      <c r="N123" s="260"/>
+      <c r="N123" s="214"/>
       <c r="O123" s="260"/>
       <c r="P123" s="260"/>
-    </row>
-    <row r="124" spans="1:16" s="180" customFormat="1">
+      <c r="Q123" s="260"/>
+    </row>
+    <row r="124" spans="1:17" s="180" customFormat="1">
       <c r="A124" s="213"/>
       <c r="B124" s="214"/>
       <c r="C124" s="215"/>
       <c r="D124" s="216"/>
       <c r="E124" s="216"/>
-      <c r="F124" s="216"/>
+      <c r="F124" s="382"/>
       <c r="G124" s="216"/>
-      <c r="H124" s="217"/>
+      <c r="H124" s="216"/>
       <c r="I124" s="217"/>
-      <c r="K124" s="214"/>
+      <c r="J124" s="217"/>
       <c r="L124" s="214"/>
       <c r="M124" s="214"/>
-      <c r="N124" s="260"/>
+      <c r="N124" s="214"/>
       <c r="O124" s="260"/>
       <c r="P124" s="260"/>
-    </row>
-    <row r="125" spans="1:16" s="180" customFormat="1">
+      <c r="Q124" s="260"/>
+    </row>
+    <row r="125" spans="1:17" s="180" customFormat="1">
       <c r="A125" s="213"/>
       <c r="B125" s="214"/>
       <c r="C125" s="215"/>
       <c r="D125" s="216"/>
       <c r="E125" s="216"/>
-      <c r="F125" s="216"/>
+      <c r="F125" s="382"/>
       <c r="G125" s="216"/>
-      <c r="H125" s="217"/>
+      <c r="H125" s="216"/>
       <c r="I125" s="217"/>
-      <c r="K125" s="214"/>
+      <c r="J125" s="217"/>
       <c r="L125" s="214"/>
       <c r="M125" s="214"/>
-      <c r="N125" s="260"/>
+      <c r="N125" s="214"/>
       <c r="O125" s="260"/>
       <c r="P125" s="260"/>
-    </row>
-    <row r="126" spans="1:16" s="180" customFormat="1">
+      <c r="Q125" s="260"/>
+    </row>
+    <row r="126" spans="1:17" s="180" customFormat="1">
       <c r="A126" s="213"/>
       <c r="B126" s="214"/>
       <c r="C126" s="215"/>
       <c r="D126" s="216"/>
       <c r="E126" s="216"/>
-      <c r="F126" s="216"/>
+      <c r="F126" s="382"/>
       <c r="G126" s="216"/>
-      <c r="H126" s="217"/>
+      <c r="H126" s="216"/>
       <c r="I126" s="217"/>
-      <c r="K126" s="214"/>
+      <c r="J126" s="217"/>
       <c r="L126" s="214"/>
       <c r="M126" s="214"/>
-      <c r="N126" s="260"/>
+      <c r="N126" s="214"/>
       <c r="O126" s="260"/>
       <c r="P126" s="260"/>
-    </row>
-    <row r="127" spans="1:16" s="180" customFormat="1">
+      <c r="Q126" s="260"/>
+    </row>
+    <row r="127" spans="1:17" s="180" customFormat="1">
       <c r="A127" s="213"/>
       <c r="B127" s="214"/>
       <c r="C127" s="215"/>
       <c r="D127" s="216"/>
       <c r="E127" s="216"/>
-      <c r="F127" s="216"/>
+      <c r="F127" s="382"/>
       <c r="G127" s="216"/>
-      <c r="H127" s="217"/>
+      <c r="H127" s="216"/>
       <c r="I127" s="217"/>
-      <c r="K127" s="214"/>
+      <c r="J127" s="217"/>
       <c r="L127" s="214"/>
       <c r="M127" s="214"/>
-      <c r="N127" s="260"/>
+      <c r="N127" s="214"/>
       <c r="O127" s="260"/>
       <c r="P127" s="260"/>
-    </row>
-    <row r="128" spans="1:16" s="180" customFormat="1">
+      <c r="Q127" s="260"/>
+    </row>
+    <row r="128" spans="1:17" s="180" customFormat="1">
       <c r="A128" s="213"/>
       <c r="B128" s="214"/>
       <c r="C128" s="215"/>
       <c r="D128" s="216"/>
       <c r="E128" s="216"/>
-      <c r="F128" s="216"/>
+      <c r="F128" s="382"/>
       <c r="G128" s="216"/>
-      <c r="H128" s="217"/>
+      <c r="H128" s="216"/>
       <c r="I128" s="217"/>
-      <c r="K128" s="214"/>
+      <c r="J128" s="217"/>
       <c r="L128" s="214"/>
       <c r="M128" s="214"/>
-      <c r="N128" s="260"/>
+      <c r="N128" s="214"/>
       <c r="O128" s="260"/>
       <c r="P128" s="260"/>
-    </row>
-    <row r="129" spans="1:16" s="180" customFormat="1">
+      <c r="Q128" s="260"/>
+    </row>
+    <row r="129" spans="1:17" s="180" customFormat="1">
       <c r="A129" s="213"/>
       <c r="B129" s="214"/>
       <c r="C129" s="215"/>
       <c r="D129" s="216"/>
       <c r="E129" s="216"/>
-      <c r="F129" s="216"/>
+      <c r="F129" s="382"/>
       <c r="G129" s="216"/>
-      <c r="H129" s="217"/>
+      <c r="H129" s="216"/>
       <c r="I129" s="217"/>
-      <c r="K129" s="214"/>
+      <c r="J129" s="217"/>
       <c r="L129" s="214"/>
       <c r="M129" s="214"/>
-      <c r="N129" s="260"/>
+      <c r="N129" s="214"/>
       <c r="O129" s="260"/>
       <c r="P129" s="260"/>
-    </row>
-    <row r="130" spans="1:16" s="180" customFormat="1">
+      <c r="Q129" s="260"/>
+    </row>
+    <row r="130" spans="1:17" s="180" customFormat="1">
       <c r="A130" s="213"/>
       <c r="B130" s="214"/>
       <c r="C130" s="215"/>
       <c r="D130" s="216"/>
       <c r="E130" s="216"/>
-      <c r="F130" s="216"/>
+      <c r="F130" s="382"/>
       <c r="G130" s="216"/>
-      <c r="H130" s="217"/>
+      <c r="H130" s="216"/>
       <c r="I130" s="217"/>
-      <c r="K130" s="214"/>
+      <c r="J130" s="217"/>
       <c r="L130" s="214"/>
       <c r="M130" s="214"/>
-      <c r="N130" s="260"/>
+      <c r="N130" s="214"/>
       <c r="O130" s="260"/>
       <c r="P130" s="260"/>
-    </row>
-    <row r="131" spans="1:16" s="180" customFormat="1">
+      <c r="Q130" s="260"/>
+    </row>
+    <row r="131" spans="1:17" s="180" customFormat="1">
       <c r="A131" s="213"/>
       <c r="B131" s="214"/>
       <c r="C131" s="215"/>
       <c r="D131" s="216"/>
       <c r="E131" s="216"/>
-      <c r="F131" s="216"/>
+      <c r="F131" s="382"/>
       <c r="G131" s="216"/>
-      <c r="H131" s="217"/>
+      <c r="H131" s="216"/>
       <c r="I131" s="217"/>
-      <c r="K131" s="214"/>
+      <c r="J131" s="217"/>
       <c r="L131" s="214"/>
       <c r="M131" s="214"/>
-      <c r="N131" s="260"/>
+      <c r="N131" s="214"/>
       <c r="O131" s="260"/>
       <c r="P131" s="260"/>
-    </row>
-    <row r="132" spans="1:16" s="180" customFormat="1">
+      <c r="Q131" s="260"/>
+    </row>
+    <row r="132" spans="1:17" s="180" customFormat="1">
       <c r="A132" s="213"/>
       <c r="B132" s="214"/>
       <c r="C132" s="215"/>
       <c r="D132" s="216"/>
       <c r="E132" s="216"/>
-      <c r="F132" s="216"/>
+      <c r="F132" s="382"/>
       <c r="G132" s="216"/>
-      <c r="H132" s="217"/>
+      <c r="H132" s="216"/>
       <c r="I132" s="217"/>
-      <c r="K132" s="214"/>
+      <c r="J132" s="217"/>
       <c r="L132" s="214"/>
       <c r="M132" s="214"/>
-      <c r="N132" s="260"/>
+      <c r="N132" s="214"/>
       <c r="O132" s="260"/>
       <c r="P132" s="260"/>
-    </row>
-    <row r="133" spans="1:16" s="180" customFormat="1">
+      <c r="Q132" s="260"/>
+    </row>
+    <row r="133" spans="1:17" s="180" customFormat="1">
       <c r="A133" s="213"/>
       <c r="B133" s="214"/>
       <c r="C133" s="215"/>
       <c r="D133" s="216"/>
       <c r="E133" s="216"/>
-      <c r="F133" s="216"/>
+      <c r="F133" s="382"/>
       <c r="G133" s="216"/>
-      <c r="H133" s="217"/>
+      <c r="H133" s="216"/>
       <c r="I133" s="217"/>
-      <c r="K133" s="214"/>
+      <c r="J133" s="217"/>
       <c r="L133" s="214"/>
       <c r="M133" s="214"/>
-      <c r="N133" s="260"/>
+      <c r="N133" s="214"/>
       <c r="O133" s="260"/>
       <c r="P133" s="260"/>
-    </row>
-    <row r="134" spans="1:16" s="180" customFormat="1">
+      <c r="Q133" s="260"/>
+    </row>
+    <row r="134" spans="1:17" s="180" customFormat="1">
       <c r="A134" s="213"/>
       <c r="B134" s="214"/>
       <c r="C134" s="215"/>
       <c r="D134" s="216"/>
       <c r="E134" s="216"/>
-      <c r="F134" s="216"/>
+      <c r="F134" s="382"/>
       <c r="G134" s="216"/>
-      <c r="H134" s="217"/>
+      <c r="H134" s="216"/>
       <c r="I134" s="217"/>
-      <c r="K134" s="214"/>
+      <c r="J134" s="217"/>
       <c r="L134" s="214"/>
       <c r="M134" s="214"/>
-      <c r="N134" s="260"/>
+      <c r="N134" s="214"/>
       <c r="O134" s="260"/>
       <c r="P134" s="260"/>
-    </row>
-    <row r="135" spans="1:16" s="180" customFormat="1">
+      <c r="Q134" s="260"/>
+    </row>
+    <row r="135" spans="1:17" s="180" customFormat="1">
       <c r="A135" s="213"/>
       <c r="B135" s="214"/>
       <c r="C135" s="215"/>
       <c r="D135" s="216"/>
       <c r="E135" s="216"/>
-      <c r="F135" s="216"/>
+      <c r="F135" s="382"/>
       <c r="G135" s="216"/>
-      <c r="H135" s="217"/>
+      <c r="H135" s="216"/>
       <c r="I135" s="217"/>
-      <c r="K135" s="214"/>
+      <c r="J135" s="217"/>
       <c r="L135" s="214"/>
       <c r="M135" s="214"/>
-      <c r="N135" s="260"/>
+      <c r="N135" s="214"/>
       <c r="O135" s="260"/>
       <c r="P135" s="260"/>
-    </row>
-    <row r="136" spans="1:16" s="180" customFormat="1">
+      <c r="Q135" s="260"/>
+    </row>
+    <row r="136" spans="1:17" s="180" customFormat="1">
       <c r="A136" s="213"/>
       <c r="B136" s="214"/>
       <c r="C136" s="215"/>
       <c r="D136" s="216"/>
       <c r="E136" s="216"/>
-      <c r="F136" s="216"/>
+      <c r="F136" s="382"/>
       <c r="G136" s="216"/>
-      <c r="H136" s="217"/>
+      <c r="H136" s="216"/>
       <c r="I136" s="217"/>
-      <c r="K136" s="214"/>
+      <c r="J136" s="217"/>
       <c r="L136" s="214"/>
       <c r="M136" s="214"/>
-      <c r="N136" s="260"/>
+      <c r="N136" s="214"/>
       <c r="O136" s="260"/>
       <c r="P136" s="260"/>
-    </row>
-    <row r="137" spans="1:16" s="180" customFormat="1">
+      <c r="Q136" s="260"/>
+    </row>
+    <row r="137" spans="1:17" s="180" customFormat="1">
       <c r="A137" s="213"/>
       <c r="B137" s="214"/>
       <c r="C137" s="215"/>
       <c r="D137" s="216"/>
       <c r="E137" s="216"/>
-      <c r="F137" s="216"/>
+      <c r="F137" s="382"/>
       <c r="G137" s="216"/>
-      <c r="H137" s="217"/>
+      <c r="H137" s="216"/>
       <c r="I137" s="217"/>
-      <c r="K137" s="214"/>
+      <c r="J137" s="217"/>
       <c r="L137" s="214"/>
       <c r="M137" s="214"/>
-      <c r="N137" s="260"/>
+      <c r="N137" s="214"/>
       <c r="O137" s="260"/>
       <c r="P137" s="260"/>
-    </row>
-    <row r="138" spans="1:16" s="180" customFormat="1">
+      <c r="Q137" s="260"/>
+    </row>
+    <row r="138" spans="1:17" s="180" customFormat="1">
       <c r="A138" s="213"/>
       <c r="B138" s="214"/>
       <c r="C138" s="215"/>
       <c r="D138" s="216"/>
       <c r="E138" s="216"/>
-      <c r="F138" s="216"/>
+      <c r="F138" s="382"/>
       <c r="G138" s="216"/>
-      <c r="H138" s="217"/>
+      <c r="H138" s="216"/>
       <c r="I138" s="217"/>
-      <c r="K138" s="214"/>
+      <c r="J138" s="217"/>
       <c r="L138" s="214"/>
       <c r="M138" s="214"/>
-      <c r="N138" s="260"/>
+      <c r="N138" s="214"/>
       <c r="O138" s="260"/>
       <c r="P138" s="260"/>
-    </row>
-    <row r="139" spans="1:16" s="180" customFormat="1">
+      <c r="Q138" s="260"/>
+    </row>
+    <row r="139" spans="1:17" s="180" customFormat="1">
       <c r="A139" s="213"/>
       <c r="B139" s="214"/>
       <c r="C139" s="215"/>
       <c r="D139" s="216"/>
       <c r="E139" s="216"/>
-      <c r="F139" s="216"/>
+      <c r="F139" s="382"/>
       <c r="G139" s="216"/>
-      <c r="H139" s="217"/>
+      <c r="H139" s="216"/>
       <c r="I139" s="217"/>
-      <c r="K139" s="214"/>
+      <c r="J139" s="217"/>
       <c r="L139" s="214"/>
       <c r="M139" s="214"/>
-      <c r="N139" s="260"/>
+      <c r="N139" s="214"/>
       <c r="O139" s="260"/>
       <c r="P139" s="260"/>
-    </row>
-    <row r="140" spans="1:16" s="180" customFormat="1">
+      <c r="Q139" s="260"/>
+    </row>
+    <row r="140" spans="1:17" s="180" customFormat="1">
       <c r="A140" s="213"/>
       <c r="B140" s="214"/>
       <c r="C140" s="215"/>
       <c r="D140" s="216"/>
       <c r="E140" s="216"/>
-      <c r="F140" s="216"/>
+      <c r="F140" s="382"/>
       <c r="G140" s="216"/>
-      <c r="H140" s="217"/>
+      <c r="H140" s="216"/>
       <c r="I140" s="217"/>
-      <c r="K140" s="214"/>
+      <c r="J140" s="217"/>
       <c r="L140" s="214"/>
       <c r="M140" s="214"/>
-      <c r="N140" s="260"/>
+      <c r="N140" s="214"/>
       <c r="O140" s="260"/>
       <c r="P140" s="260"/>
-    </row>
-    <row r="141" spans="1:16" s="180" customFormat="1">
+      <c r="Q140" s="260"/>
+    </row>
+    <row r="141" spans="1:17" s="180" customFormat="1">
       <c r="A141" s="213"/>
       <c r="B141" s="214"/>
       <c r="C141" s="215"/>
       <c r="D141" s="216"/>
       <c r="E141" s="216"/>
-      <c r="F141" s="216"/>
+      <c r="F141" s="382"/>
       <c r="G141" s="216"/>
-      <c r="H141" s="217"/>
+      <c r="H141" s="216"/>
       <c r="I141" s="217"/>
-      <c r="K141" s="214"/>
+      <c r="J141" s="217"/>
       <c r="L141" s="214"/>
       <c r="M141" s="214"/>
-      <c r="N141" s="260"/>
+      <c r="N141" s="214"/>
       <c r="O141" s="260"/>
       <c r="P141" s="260"/>
-    </row>
-    <row r="142" spans="1:16" s="180" customFormat="1">
+      <c r="Q141" s="260"/>
+    </row>
+    <row r="142" spans="1:17" s="180" customFormat="1">
       <c r="A142" s="213"/>
       <c r="B142" s="214"/>
       <c r="C142" s="215"/>
       <c r="D142" s="216"/>
       <c r="E142" s="216"/>
-      <c r="F142" s="216"/>
+      <c r="F142" s="382"/>
       <c r="G142" s="216"/>
-      <c r="H142" s="217"/>
+      <c r="H142" s="216"/>
       <c r="I142" s="217"/>
-      <c r="K142" s="214"/>
+      <c r="J142" s="217"/>
       <c r="L142" s="214"/>
       <c r="M142" s="214"/>
-      <c r="N142" s="260"/>
+      <c r="N142" s="214"/>
       <c r="O142" s="260"/>
       <c r="P142" s="260"/>
-    </row>
-    <row r="143" spans="1:16" s="180" customFormat="1">
+      <c r="Q142" s="260"/>
+    </row>
+    <row r="143" spans="1:17" s="180" customFormat="1">
       <c r="A143" s="213"/>
       <c r="B143" s="214"/>
       <c r="C143" s="215"/>
       <c r="D143" s="216"/>
       <c r="E143" s="216"/>
-      <c r="F143" s="216"/>
+      <c r="F143" s="382"/>
       <c r="G143" s="216"/>
-      <c r="H143" s="217"/>
+      <c r="H143" s="216"/>
       <c r="I143" s="217"/>
-      <c r="K143" s="214"/>
+      <c r="J143" s="217"/>
       <c r="L143" s="214"/>
       <c r="M143" s="214"/>
-      <c r="N143" s="260"/>
+      <c r="N143" s="214"/>
       <c r="O143" s="260"/>
       <c r="P143" s="260"/>
-    </row>
-    <row r="144" spans="1:16" s="180" customFormat="1">
+      <c r="Q143" s="260"/>
+    </row>
+    <row r="144" spans="1:17" s="180" customFormat="1">
       <c r="A144" s="213"/>
       <c r="B144" s="214"/>
       <c r="C144" s="215"/>
       <c r="D144" s="216"/>
       <c r="E144" s="216"/>
-      <c r="F144" s="216"/>
+      <c r="F144" s="382"/>
       <c r="G144" s="216"/>
-      <c r="H144" s="217"/>
+      <c r="H144" s="216"/>
       <c r="I144" s="217"/>
-      <c r="K144" s="214"/>
+      <c r="J144" s="217"/>
       <c r="L144" s="214"/>
       <c r="M144" s="214"/>
-      <c r="N144" s="260"/>
+      <c r="N144" s="214"/>
       <c r="O144" s="260"/>
       <c r="P144" s="260"/>
-    </row>
-    <row r="145" spans="1:16" s="180" customFormat="1">
+      <c r="Q144" s="260"/>
+    </row>
+    <row r="145" spans="1:17" s="180" customFormat="1">
       <c r="A145" s="213"/>
       <c r="B145" s="214"/>
       <c r="C145" s="215"/>
       <c r="D145" s="216"/>
       <c r="E145" s="216"/>
-      <c r="F145" s="216"/>
+      <c r="F145" s="382"/>
       <c r="G145" s="216"/>
-      <c r="H145" s="217"/>
+      <c r="H145" s="216"/>
       <c r="I145" s="217"/>
-      <c r="K145" s="214"/>
+      <c r="J145" s="217"/>
       <c r="L145" s="214"/>
       <c r="M145" s="214"/>
-      <c r="N145" s="260"/>
+      <c r="N145" s="214"/>
       <c r="O145" s="260"/>
       <c r="P145" s="260"/>
-    </row>
-    <row r="146" spans="1:16" s="180" customFormat="1">
+      <c r="Q145" s="260"/>
+    </row>
+    <row r="146" spans="1:17" s="180" customFormat="1">
       <c r="A146" s="213"/>
       <c r="B146" s="214"/>
       <c r="C146" s="215"/>
       <c r="D146" s="216"/>
       <c r="E146" s="216"/>
-      <c r="F146" s="216"/>
+      <c r="F146" s="382"/>
       <c r="G146" s="216"/>
-      <c r="H146" s="217"/>
+      <c r="H146" s="216"/>
       <c r="I146" s="217"/>
-      <c r="K146" s="214"/>
+      <c r="J146" s="217"/>
       <c r="L146" s="214"/>
       <c r="M146" s="214"/>
-      <c r="N146" s="260"/>
+      <c r="N146" s="214"/>
       <c r="O146" s="260"/>
       <c r="P146" s="260"/>
-    </row>
-    <row r="147" spans="1:16" s="180" customFormat="1">
+      <c r="Q146" s="260"/>
+    </row>
+    <row r="147" spans="1:17" s="180" customFormat="1">
       <c r="A147" s="213"/>
       <c r="B147" s="214"/>
       <c r="C147" s="215"/>
       <c r="D147" s="216"/>
       <c r="E147" s="216"/>
-      <c r="F147" s="216"/>
+      <c r="F147" s="382"/>
       <c r="G147" s="216"/>
-      <c r="H147" s="217"/>
+      <c r="H147" s="216"/>
       <c r="I147" s="217"/>
-      <c r="K147" s="214"/>
+      <c r="J147" s="217"/>
       <c r="L147" s="214"/>
       <c r="M147" s="214"/>
-      <c r="N147" s="260"/>
+      <c r="N147" s="214"/>
       <c r="O147" s="260"/>
       <c r="P147" s="260"/>
-    </row>
-    <row r="148" spans="1:16" s="180" customFormat="1">
+      <c r="Q147" s="260"/>
+    </row>
+    <row r="148" spans="1:17" s="180" customFormat="1">
       <c r="A148" s="213"/>
       <c r="B148" s="214"/>
       <c r="C148" s="215"/>
       <c r="D148" s="216"/>
       <c r="E148" s="216"/>
-      <c r="F148" s="216"/>
+      <c r="F148" s="382"/>
       <c r="G148" s="216"/>
-      <c r="H148" s="217"/>
+      <c r="H148" s="216"/>
       <c r="I148" s="217"/>
-      <c r="K148" s="214"/>
+      <c r="J148" s="217"/>
       <c r="L148" s="214"/>
       <c r="M148" s="214"/>
-      <c r="N148" s="260"/>
+      <c r="N148" s="214"/>
       <c r="O148" s="260"/>
       <c r="P148" s="260"/>
-    </row>
-    <row r="149" spans="1:16" s="180" customFormat="1">
+      <c r="Q148" s="260"/>
+    </row>
+    <row r="149" spans="1:17" s="180" customFormat="1">
       <c r="A149" s="213"/>
       <c r="B149" s="214"/>
       <c r="C149" s="215"/>
       <c r="D149" s="216"/>
       <c r="E149" s="216"/>
-      <c r="F149" s="216"/>
+      <c r="F149" s="382"/>
       <c r="G149" s="216"/>
-      <c r="H149" s="217"/>
+      <c r="H149" s="216"/>
       <c r="I149" s="217"/>
-      <c r="K149" s="214"/>
+      <c r="J149" s="217"/>
       <c r="L149" s="214"/>
       <c r="M149" s="214"/>
-      <c r="N149" s="260"/>
+      <c r="N149" s="214"/>
       <c r="O149" s="260"/>
       <c r="P149" s="260"/>
-    </row>
-    <row r="150" spans="1:16" s="180" customFormat="1">
+      <c r="Q149" s="260"/>
+    </row>
+    <row r="150" spans="1:17" s="180" customFormat="1">
       <c r="A150" s="213"/>
       <c r="B150" s="214"/>
       <c r="C150" s="215"/>
       <c r="D150" s="216"/>
       <c r="E150" s="216"/>
-      <c r="F150" s="216"/>
+      <c r="F150" s="382"/>
       <c r="G150" s="216"/>
-      <c r="H150" s="217"/>
+      <c r="H150" s="216"/>
       <c r="I150" s="217"/>
-      <c r="K150" s="214"/>
+      <c r="J150" s="217"/>
       <c r="L150" s="214"/>
       <c r="M150" s="214"/>
-      <c r="N150" s="260"/>
+      <c r="N150" s="214"/>
       <c r="O150" s="260"/>
       <c r="P150" s="260"/>
-    </row>
-    <row r="151" spans="1:16" s="180" customFormat="1">
+      <c r="Q150" s="260"/>
+    </row>
+    <row r="151" spans="1:17" s="180" customFormat="1">
       <c r="A151" s="213"/>
       <c r="B151" s="214"/>
       <c r="C151" s="215"/>
       <c r="D151" s="216"/>
       <c r="E151" s="216"/>
-      <c r="F151" s="216"/>
+      <c r="F151" s="382"/>
       <c r="G151" s="216"/>
-      <c r="H151" s="217"/>
+      <c r="H151" s="216"/>
       <c r="I151" s="217"/>
-      <c r="K151" s="214"/>
+      <c r="J151" s="217"/>
       <c r="L151" s="214"/>
       <c r="M151" s="214"/>
-      <c r="N151" s="260"/>
+      <c r="N151" s="214"/>
       <c r="O151" s="260"/>
       <c r="P151" s="260"/>
-    </row>
-    <row r="152" spans="1:16" s="180" customFormat="1">
+      <c r="Q151" s="260"/>
+    </row>
+    <row r="152" spans="1:17" s="180" customFormat="1">
       <c r="A152" s="213"/>
       <c r="B152" s="214"/>
       <c r="C152" s="215"/>
       <c r="D152" s="216"/>
       <c r="E152" s="216"/>
-      <c r="F152" s="216"/>
+      <c r="F152" s="382"/>
       <c r="G152" s="216"/>
-      <c r="H152" s="217"/>
+      <c r="H152" s="216"/>
       <c r="I152" s="217"/>
-      <c r="K152" s="214"/>
+      <c r="J152" s="217"/>
       <c r="L152" s="214"/>
       <c r="M152" s="214"/>
-      <c r="N152" s="260"/>
+      <c r="N152" s="214"/>
       <c r="O152" s="260"/>
       <c r="P152" s="260"/>
-    </row>
-    <row r="153" spans="1:16" s="180" customFormat="1">
+      <c r="Q152" s="260"/>
+    </row>
+    <row r="153" spans="1:17" s="180" customFormat="1">
       <c r="A153" s="213"/>
       <c r="B153" s="214"/>
       <c r="C153" s="215"/>
       <c r="D153" s="216"/>
       <c r="E153" s="216"/>
-      <c r="F153" s="216"/>
+      <c r="F153" s="382"/>
       <c r="G153" s="216"/>
-      <c r="H153" s="217"/>
+      <c r="H153" s="216"/>
       <c r="I153" s="217"/>
-      <c r="K153" s="214"/>
+      <c r="J153" s="217"/>
       <c r="L153" s="214"/>
       <c r="M153" s="214"/>
-      <c r="N153" s="260"/>
+      <c r="N153" s="214"/>
       <c r="O153" s="260"/>
       <c r="P153" s="260"/>
-    </row>
-    <row r="154" spans="1:16" s="180" customFormat="1">
+      <c r="Q153" s="260"/>
+    </row>
+    <row r="154" spans="1:17" s="180" customFormat="1">
       <c r="A154" s="213"/>
       <c r="B154" s="214"/>
       <c r="C154" s="215"/>
       <c r="D154" s="216"/>
       <c r="E154" s="216"/>
-      <c r="F154" s="216"/>
+      <c r="F154" s="382"/>
       <c r="G154" s="216"/>
-      <c r="H154" s="217"/>
+      <c r="H154" s="216"/>
       <c r="I154" s="217"/>
-      <c r="K154" s="214"/>
+      <c r="J154" s="217"/>
       <c r="L154" s="214"/>
       <c r="M154" s="214"/>
-      <c r="N154" s="260"/>
+      <c r="N154" s="214"/>
       <c r="O154" s="260"/>
       <c r="P154" s="260"/>
-    </row>
-    <row r="155" spans="1:16" s="180" customFormat="1">
+      <c r="Q154" s="260"/>
+    </row>
+    <row r="155" spans="1:17" s="180" customFormat="1">
       <c r="A155" s="213"/>
       <c r="B155" s="214"/>
       <c r="C155" s="215"/>
       <c r="D155" s="216"/>
       <c r="E155" s="216"/>
-      <c r="F155" s="216"/>
+      <c r="F155" s="382"/>
       <c r="G155" s="216"/>
-      <c r="H155" s="217"/>
+      <c r="H155" s="216"/>
       <c r="I155" s="217"/>
-      <c r="K155" s="214"/>
+      <c r="J155" s="217"/>
       <c r="L155" s="214"/>
       <c r="M155" s="214"/>
-      <c r="N155" s="260"/>
+      <c r="N155" s="214"/>
       <c r="O155" s="260"/>
       <c r="P155" s="260"/>
-    </row>
-    <row r="156" spans="1:16" s="180" customFormat="1">
+      <c r="Q155" s="260"/>
+    </row>
+    <row r="156" spans="1:17" s="180" customFormat="1">
       <c r="A156" s="213"/>
       <c r="B156" s="214"/>
       <c r="C156" s="215"/>
       <c r="D156" s="216"/>
       <c r="E156" s="216"/>
-      <c r="F156" s="216"/>
+      <c r="F156" s="382"/>
       <c r="G156" s="216"/>
-      <c r="H156" s="217"/>
+      <c r="H156" s="216"/>
       <c r="I156" s="217"/>
-      <c r="K156" s="214"/>
+      <c r="J156" s="217"/>
       <c r="L156" s="214"/>
       <c r="M156" s="214"/>
-      <c r="N156" s="260"/>
+      <c r="N156" s="214"/>
       <c r="O156" s="260"/>
       <c r="P156" s="260"/>
-    </row>
-    <row r="157" spans="1:16" s="180" customFormat="1">
+      <c r="Q156" s="260"/>
+    </row>
+    <row r="157" spans="1:17" s="180" customFormat="1">
       <c r="A157" s="213"/>
       <c r="B157" s="214"/>
       <c r="C157" s="215"/>
       <c r="D157" s="216"/>
       <c r="E157" s="216"/>
-      <c r="F157" s="216"/>
+      <c r="F157" s="382"/>
       <c r="G157" s="216"/>
-      <c r="H157" s="217"/>
+      <c r="H157" s="216"/>
       <c r="I157" s="217"/>
-      <c r="K157" s="214"/>
+      <c r="J157" s="217"/>
       <c r="L157" s="214"/>
       <c r="M157" s="214"/>
-      <c r="N157" s="260"/>
+      <c r="N157" s="214"/>
       <c r="O157" s="260"/>
       <c r="P157" s="260"/>
-    </row>
-    <row r="158" spans="1:16" s="180" customFormat="1">
+      <c r="Q157" s="260"/>
+    </row>
+    <row r="158" spans="1:17" s="180" customFormat="1">
       <c r="A158" s="213"/>
       <c r="B158" s="214"/>
       <c r="C158" s="215"/>
       <c r="D158" s="216"/>
       <c r="E158" s="216"/>
-      <c r="F158" s="216"/>
+      <c r="F158" s="382"/>
       <c r="G158" s="216"/>
-      <c r="H158" s="217"/>
+      <c r="H158" s="216"/>
       <c r="I158" s="217"/>
-      <c r="K158" s="214"/>
+      <c r="J158" s="217"/>
       <c r="L158" s="214"/>
       <c r="M158" s="214"/>
-      <c r="N158" s="260"/>
+      <c r="N158" s="214"/>
       <c r="O158" s="260"/>
       <c r="P158" s="260"/>
-    </row>
-    <row r="159" spans="1:16" s="180" customFormat="1">
+      <c r="Q158" s="260"/>
+    </row>
+    <row r="159" spans="1:17" s="180" customFormat="1">
       <c r="A159" s="213"/>
       <c r="B159" s="214"/>
       <c r="C159" s="215"/>
       <c r="D159" s="216"/>
       <c r="E159" s="216"/>
-      <c r="F159" s="216"/>
+      <c r="F159" s="382"/>
       <c r="G159" s="216"/>
-      <c r="H159" s="217"/>
+      <c r="H159" s="216"/>
       <c r="I159" s="217"/>
-      <c r="K159" s="214"/>
+      <c r="J159" s="217"/>
       <c r="L159" s="214"/>
       <c r="M159" s="214"/>
-      <c r="N159" s="260"/>
+      <c r="N159" s="214"/>
       <c r="O159" s="260"/>
       <c r="P159" s="260"/>
-    </row>
-    <row r="160" spans="1:16" s="180" customFormat="1">
+      <c r="Q159" s="260"/>
+    </row>
+    <row r="160" spans="1:17" s="180" customFormat="1">
       <c r="A160" s="213"/>
       <c r="B160" s="214"/>
       <c r="C160" s="215"/>
       <c r="D160" s="216"/>
       <c r="E160" s="216"/>
-      <c r="F160" s="216"/>
+      <c r="F160" s="382"/>
       <c r="G160" s="216"/>
-      <c r="H160" s="217"/>
+      <c r="H160" s="216"/>
       <c r="I160" s="217"/>
-      <c r="K160" s="214"/>
+      <c r="J160" s="217"/>
       <c r="L160" s="214"/>
       <c r="M160" s="214"/>
-      <c r="N160" s="260"/>
+      <c r="N160" s="214"/>
       <c r="O160" s="260"/>
       <c r="P160" s="260"/>
-    </row>
-    <row r="161" spans="1:16" s="180" customFormat="1">
+      <c r="Q160" s="260"/>
+    </row>
+    <row r="161" spans="1:17" s="180" customFormat="1">
       <c r="A161" s="213"/>
       <c r="B161" s="214"/>
       <c r="C161" s="215"/>
       <c r="D161" s="216"/>
       <c r="E161" s="216"/>
-      <c r="F161" s="216"/>
+      <c r="F161" s="382"/>
       <c r="G161" s="216"/>
-      <c r="H161" s="217"/>
+      <c r="H161" s="216"/>
       <c r="I161" s="217"/>
-      <c r="K161" s="214"/>
+      <c r="J161" s="217"/>
       <c r="L161" s="214"/>
       <c r="M161" s="214"/>
-      <c r="N161" s="260"/>
+      <c r="N161" s="214"/>
       <c r="O161" s="260"/>
       <c r="P161" s="260"/>
-    </row>
-    <row r="162" spans="1:16" s="180" customFormat="1">
+      <c r="Q161" s="260"/>
+    </row>
+    <row r="162" spans="1:17" s="180" customFormat="1">
       <c r="A162" s="213"/>
       <c r="B162" s="214"/>
       <c r="C162" s="215"/>
       <c r="D162" s="216"/>
       <c r="E162" s="216"/>
-      <c r="F162" s="216"/>
+      <c r="F162" s="382"/>
       <c r="G162" s="216"/>
-      <c r="H162" s="217"/>
+      <c r="H162" s="216"/>
       <c r="I162" s="217"/>
-      <c r="K162" s="214"/>
+      <c r="J162" s="217"/>
       <c r="L162" s="214"/>
       <c r="M162" s="214"/>
-      <c r="N162" s="260"/>
+      <c r="N162" s="214"/>
       <c r="O162" s="260"/>
       <c r="P162" s="260"/>
-    </row>
-    <row r="163" spans="1:16" s="180" customFormat="1">
+      <c r="Q162" s="260"/>
+    </row>
+    <row r="163" spans="1:17" s="180" customFormat="1">
       <c r="A163" s="213"/>
       <c r="B163" s="214"/>
       <c r="C163" s="215"/>
       <c r="D163" s="216"/>
       <c r="E163" s="216"/>
-      <c r="F163" s="216"/>
+      <c r="F163" s="382"/>
       <c r="G163" s="216"/>
-      <c r="H163" s="217"/>
+      <c r="H163" s="216"/>
       <c r="I163" s="217"/>
-      <c r="K163" s="214"/>
+      <c r="J163" s="217"/>
       <c r="L163" s="214"/>
       <c r="M163" s="214"/>
-      <c r="N163" s="260"/>
+      <c r="N163" s="214"/>
       <c r="O163" s="260"/>
       <c r="P163" s="260"/>
-    </row>
-    <row r="164" spans="1:16" s="180" customFormat="1">
+      <c r="Q163" s="260"/>
+    </row>
+    <row r="164" spans="1:17" s="180" customFormat="1">
       <c r="A164" s="213"/>
       <c r="B164" s="214"/>
       <c r="C164" s="215"/>
       <c r="D164" s="216"/>
       <c r="E164" s="216"/>
-      <c r="F164" s="216"/>
+      <c r="F164" s="382"/>
       <c r="G164" s="216"/>
-      <c r="H164" s="217"/>
+      <c r="H164" s="216"/>
       <c r="I164" s="217"/>
-      <c r="K164" s="214"/>
+      <c r="J164" s="217"/>
       <c r="L164" s="214"/>
       <c r="M164" s="214"/>
-      <c r="N164" s="260"/>
+      <c r="N164" s="214"/>
       <c r="O164" s="260"/>
       <c r="P164" s="260"/>
-    </row>
-    <row r="165" spans="1:16" s="180" customFormat="1">
+      <c r="Q164" s="260"/>
+    </row>
+    <row r="165" spans="1:17" s="180" customFormat="1">
       <c r="A165" s="213"/>
       <c r="B165" s="214"/>
       <c r="C165" s="215"/>
       <c r="D165" s="216"/>
       <c r="E165" s="216"/>
-      <c r="F165" s="216"/>
+      <c r="F165" s="382"/>
       <c r="G165" s="216"/>
-      <c r="H165" s="217"/>
+      <c r="H165" s="216"/>
       <c r="I165" s="217"/>
-      <c r="K165" s="214"/>
+      <c r="J165" s="217"/>
       <c r="L165" s="214"/>
       <c r="M165" s="214"/>
-      <c r="N165" s="260"/>
+      <c r="N165" s="214"/>
       <c r="O165" s="260"/>
       <c r="P165" s="260"/>
-    </row>
-    <row r="166" spans="1:16" s="180" customFormat="1">
+      <c r="Q165" s="260"/>
+    </row>
+    <row r="166" spans="1:17" s="180" customFormat="1">
       <c r="A166" s="213"/>
       <c r="B166" s="214"/>
       <c r="C166" s="215"/>
       <c r="D166" s="216"/>
       <c r="E166" s="216"/>
-      <c r="F166" s="216"/>
+      <c r="F166" s="382"/>
       <c r="G166" s="216"/>
-      <c r="H166" s="217"/>
+      <c r="H166" s="216"/>
       <c r="I166" s="217"/>
-      <c r="K166" s="214"/>
+      <c r="J166" s="217"/>
       <c r="L166" s="214"/>
       <c r="M166" s="214"/>
-      <c r="N166" s="260"/>
+      <c r="N166" s="214"/>
       <c r="O166" s="260"/>
       <c r="P166" s="260"/>
-    </row>
-    <row r="167" spans="1:16" s="180" customFormat="1">
+      <c r="Q166" s="260"/>
+    </row>
+    <row r="167" spans="1:17" s="180" customFormat="1">
       <c r="A167" s="213"/>
       <c r="B167" s="214"/>
       <c r="C167" s="215"/>
       <c r="D167" s="216"/>
       <c r="E167" s="216"/>
-      <c r="F167" s="247"/>
+      <c r="F167" s="382"/>
       <c r="G167" s="247"/>
-      <c r="H167" s="217"/>
+      <c r="H167" s="247"/>
       <c r="I167" s="217"/>
-      <c r="K167" s="214"/>
+      <c r="J167" s="217"/>
       <c r="L167" s="214"/>
       <c r="M167" s="214"/>
-      <c r="N167" s="260"/>
+      <c r="N167" s="214"/>
       <c r="O167" s="260"/>
       <c r="P167" s="260"/>
-    </row>
-    <row r="168" spans="1:16" s="180" customFormat="1">
+      <c r="Q167" s="260"/>
+    </row>
+    <row r="168" spans="1:17" s="180" customFormat="1">
       <c r="A168" s="213"/>
       <c r="B168" s="214"/>
       <c r="C168" s="215"/>
       <c r="D168" s="216"/>
       <c r="E168" s="216"/>
-      <c r="F168" s="247"/>
+      <c r="F168" s="382"/>
       <c r="G168" s="247"/>
-      <c r="H168" s="217"/>
+      <c r="H168" s="247"/>
       <c r="I168" s="217"/>
-      <c r="K168" s="214"/>
+      <c r="J168" s="217"/>
       <c r="L168" s="214"/>
       <c r="M168" s="214"/>
-      <c r="N168" s="260"/>
+      <c r="N168" s="214"/>
       <c r="O168" s="260"/>
       <c r="P168" s="260"/>
-    </row>
-    <row r="169" spans="1:16" s="180" customFormat="1">
+      <c r="Q168" s="260"/>
+    </row>
+    <row r="169" spans="1:17" s="180" customFormat="1">
       <c r="A169" s="213"/>
       <c r="B169" s="214"/>
       <c r="C169" s="215"/>
       <c r="D169" s="216"/>
       <c r="E169" s="216"/>
-      <c r="F169" s="247"/>
+      <c r="F169" s="382"/>
       <c r="G169" s="247"/>
-      <c r="H169" s="217"/>
+      <c r="H169" s="247"/>
       <c r="I169" s="217"/>
-      <c r="K169" s="214"/>
+      <c r="J169" s="217"/>
       <c r="L169" s="214"/>
       <c r="M169" s="214"/>
-      <c r="N169" s="260"/>
+      <c r="N169" s="214"/>
       <c r="O169" s="260"/>
       <c r="P169" s="260"/>
-    </row>
-    <row r="170" spans="1:16" s="180" customFormat="1">
+      <c r="Q169" s="260"/>
+    </row>
+    <row r="170" spans="1:17" s="180" customFormat="1">
       <c r="A170" s="213"/>
       <c r="B170" s="214"/>
       <c r="C170" s="215"/>
       <c r="D170" s="216"/>
       <c r="E170" s="216"/>
-      <c r="F170" s="247"/>
+      <c r="F170" s="382"/>
       <c r="G170" s="247"/>
-      <c r="H170" s="217"/>
+      <c r="H170" s="247"/>
       <c r="I170" s="217"/>
-      <c r="K170" s="214"/>
+      <c r="J170" s="217"/>
       <c r="L170" s="214"/>
       <c r="M170" s="214"/>
-      <c r="N170" s="260"/>
+      <c r="N170" s="214"/>
       <c r="O170" s="260"/>
       <c r="P170" s="260"/>
-    </row>
-    <row r="171" spans="1:16" s="180" customFormat="1">
+      <c r="Q170" s="260"/>
+    </row>
+    <row r="171" spans="1:17" s="180" customFormat="1">
       <c r="A171" s="213"/>
       <c r="B171" s="214"/>
       <c r="C171" s="215"/>
       <c r="D171" s="216"/>
       <c r="E171" s="216"/>
-      <c r="F171" s="247"/>
+      <c r="F171" s="382"/>
       <c r="G171" s="247"/>
-      <c r="H171" s="217"/>
+      <c r="H171" s="247"/>
       <c r="I171" s="217"/>
-      <c r="K171" s="214"/>
+      <c r="J171" s="217"/>
       <c r="L171" s="214"/>
       <c r="M171" s="214"/>
-      <c r="N171" s="260"/>
+      <c r="N171" s="214"/>
       <c r="O171" s="260"/>
       <c r="P171" s="260"/>
-    </row>
-    <row r="172" spans="1:16" s="180" customFormat="1">
+      <c r="Q171" s="260"/>
+    </row>
+    <row r="172" spans="1:17" s="180" customFormat="1">
       <c r="A172" s="213"/>
       <c r="B172" s="214"/>
       <c r="C172" s="215"/>
       <c r="D172" s="216"/>
       <c r="E172" s="216"/>
-      <c r="F172" s="247"/>
+      <c r="F172" s="382"/>
       <c r="G172" s="247"/>
-      <c r="H172" s="217"/>
+      <c r="H172" s="247"/>
       <c r="I172" s="217"/>
-      <c r="K172" s="214"/>
+      <c r="J172" s="217"/>
       <c r="L172" s="214"/>
       <c r="M172" s="214"/>
-      <c r="N172" s="260"/>
+      <c r="N172" s="214"/>
       <c r="O172" s="260"/>
       <c r="P172" s="260"/>
-    </row>
-    <row r="173" spans="1:16" s="180" customFormat="1">
+      <c r="Q172" s="260"/>
+    </row>
+    <row r="173" spans="1:17" s="180" customFormat="1">
       <c r="A173" s="213"/>
       <c r="B173" s="214"/>
       <c r="C173" s="215"/>
       <c r="D173" s="216"/>
       <c r="E173" s="216"/>
-      <c r="F173" s="247"/>
+      <c r="F173" s="382"/>
       <c r="G173" s="247"/>
-      <c r="H173" s="217"/>
+      <c r="H173" s="247"/>
       <c r="I173" s="217"/>
-      <c r="K173" s="214"/>
+      <c r="J173" s="217"/>
       <c r="L173" s="214"/>
       <c r="M173" s="214"/>
-      <c r="N173" s="260"/>
+      <c r="N173" s="214"/>
       <c r="O173" s="260"/>
       <c r="P173" s="260"/>
-    </row>
-    <row r="174" spans="1:16" s="180" customFormat="1">
+      <c r="Q173" s="260"/>
+    </row>
+    <row r="174" spans="1:17" s="180" customFormat="1">
       <c r="A174" s="213"/>
       <c r="B174" s="214"/>
       <c r="C174" s="215"/>
       <c r="D174" s="216"/>
       <c r="E174" s="216"/>
-      <c r="F174" s="247"/>
+      <c r="F174" s="382"/>
       <c r="G174" s="247"/>
-      <c r="H174" s="217"/>
+      <c r="H174" s="247"/>
       <c r="I174" s="217"/>
-      <c r="K174" s="214"/>
+      <c r="J174" s="217"/>
       <c r="L174" s="214"/>
       <c r="M174" s="214"/>
-      <c r="N174" s="260"/>
+      <c r="N174" s="214"/>
       <c r="O174" s="260"/>
       <c r="P174" s="260"/>
+      <c r="Q174" s="260"/>
     </row>
   </sheetData>
-  <sortState ref="A2:J23">
-    <sortCondition ref="H2:H23"/>
+  <sortState ref="A2:L23">
+    <sortCondition ref="I2:I23"/>
   </sortState>
-  <conditionalFormatting sqref="H23:I23">
+  <conditionalFormatting sqref="I23:J23">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="J6" r:id="rId1" display="https://www.sciencedirect.com/science/article/pii/S0735109713006980?via%3Dihub"/>
+    <hyperlink ref="K6" r:id="rId1" display="https://www.sciencedirect.com/science/article/pii/S0735109713006980?via%3Dihub"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
@@ -8212,18 +8452,18 @@
       <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
-    <col min="4" max="4" width="70.83203125" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="262"/>
-    <col min="6" max="15" width="8.83203125" style="3"/>
-    <col min="16" max="16" width="8.83203125" style="3" customWidth="1"/>
-    <col min="17" max="17" width="8.83203125" style="3"/>
-    <col min="18" max="18" width="8.83203125" style="3" customWidth="1"/>
-    <col min="19" max="94" width="8.83203125" style="3"/>
+    <col min="4" max="4" width="70.875" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="262"/>
+    <col min="6" max="15" width="8.875" style="3"/>
+    <col min="16" max="16" width="8.875" style="3" customWidth="1"/>
+    <col min="17" max="17" width="8.875" style="3"/>
+    <col min="18" max="18" width="8.875" style="3" customWidth="1"/>
+    <col min="19" max="94" width="8.875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:94">
@@ -17438,7 +17678,7 @@
       <c r="CN107" s="3"/>
       <c r="CO107" s="3"/>
     </row>
-    <row r="108" spans="1:93" s="58" customFormat="1" ht="13">
+    <row r="108" spans="1:93" s="58" customFormat="1" ht="12.75">
       <c r="A108" s="156">
         <v>19</v>
       </c>
@@ -18616,17 +18856,17 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="33" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="33" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.58203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="50.5" customWidth="1"/>
     <col min="7" max="22" width="33" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" s="48" customFormat="1" ht="13.5">
+    <row r="1" spans="1:96" s="48" customFormat="1" ht="12.75">
       <c r="A1" s="138" t="s">
         <v>0</v>
       </c>
@@ -18736,7 +18976,7 @@
       <c r="CQ1" s="44"/>
       <c r="CR1" s="44"/>
     </row>
-    <row r="2" spans="1:96" s="24" customFormat="1" ht="31">
+    <row r="2" spans="1:96" s="24" customFormat="1" ht="31.5">
       <c r="A2" s="143">
         <v>10</v>
       </c>
@@ -19307,9 +19547,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="20.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.83203125" style="48" customWidth="1"/>
-    <col min="3" max="3" width="88.83203125" style="48" customWidth="1"/>
+    <col min="1" max="1" width="20.875" style="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.875" style="48" customWidth="1"/>
+    <col min="3" max="3" width="88.875" style="48" customWidth="1"/>
     <col min="4" max="4" width="13" style="44" customWidth="1"/>
     <col min="5" max="121" width="11" style="44"/>
     <col min="122" max="16384" width="11" style="48"/>
@@ -26723,7 +26963,7 @@
       <c r="DP107" s="44"/>
       <c r="DQ107" s="44"/>
     </row>
-    <row r="108" spans="1:121" s="56" customFormat="1" ht="30.65" customHeight="1">
+    <row r="108" spans="1:121" s="56" customFormat="1" ht="30.6" customHeight="1">
       <c r="A108" s="135">
         <v>18</v>
       </c>
@@ -34028,16 +34268,16 @@
       <selection pane="bottomLeft" activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="20.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="23.5" style="283" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" style="37" customWidth="1"/>
+    <col min="2" max="2" width="28.375" style="37" customWidth="1"/>
     <col min="3" max="3" width="11" style="36" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="36" customWidth="1"/>
-    <col min="5" max="5" width="47.58203125" style="308" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="39"/>
-    <col min="7" max="33" width="10.83203125" style="40"/>
-    <col min="34" max="16384" width="10.83203125" style="5"/>
+    <col min="5" max="5" width="47.625" style="308" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="39"/>
+    <col min="7" max="33" width="10.875" style="40"/>
+    <col min="34" max="16384" width="10.875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="6" customFormat="1" ht="20.25" customHeight="1">
@@ -37585,17 +37825,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.08203125" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="4" width="15.08203125" style="4"/>
-    <col min="5" max="7" width="15.08203125" style="338"/>
-    <col min="8" max="8" width="15.08203125" style="341"/>
-    <col min="9" max="9" width="15.08203125" style="368"/>
-    <col min="13" max="13" width="15.08203125" style="339"/>
+    <col min="2" max="4" width="15.125" style="4"/>
+    <col min="5" max="7" width="15.125" style="338"/>
+    <col min="8" max="8" width="15.125" style="341"/>
+    <col min="9" max="9" width="15.125" style="366"/>
+    <col min="13" max="13" width="15.125" style="339"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -37620,7 +37860,7 @@
       <c r="H1" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="I1" s="367" t="s">
+      <c r="I1" s="365" t="s">
         <v>608</v>
       </c>
       <c r="J1" t="s">
@@ -37630,22 +37870,22 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="333"/>
-      <c r="B2" s="365" t="s">
+      <c r="B2" s="377" t="s">
         <v>594</v>
       </c>
-      <c r="C2" s="365"/>
-      <c r="D2" s="365"/>
-      <c r="E2" s="366" t="s">
+      <c r="C2" s="377"/>
+      <c r="D2" s="377"/>
+      <c r="E2" s="378" t="s">
         <v>597</v>
       </c>
-      <c r="F2" s="366"/>
-      <c r="G2" s="366"/>
+      <c r="F2" s="378"/>
+      <c r="G2" s="378"/>
       <c r="H2" s="340"/>
-      <c r="J2" s="365" t="s">
+      <c r="J2" s="377" t="s">
         <v>594</v>
       </c>
-      <c r="K2" s="365"/>
-      <c r="L2" s="365"/>
+      <c r="K2" s="377"/>
+      <c r="L2" s="377"/>
       <c r="M2" s="335"/>
     </row>
     <row r="3" spans="1:13">
@@ -37673,7 +37913,7 @@
       <c r="H3" s="340" t="s">
         <v>599</v>
       </c>
-      <c r="I3" s="369" t="s">
+      <c r="I3" s="367" t="s">
         <v>601</v>
       </c>
       <c r="J3" s="337" t="s">
@@ -37712,7 +37952,7 @@
         <v>219</v>
       </c>
       <c r="H4" s="364"/>
-      <c r="I4" s="370" t="s">
+      <c r="I4" s="368" t="s">
         <v>602</v>
       </c>
       <c r="M4" s="363" t="s">
@@ -37738,7 +37978,7 @@
       <c r="F5" s="363"/>
       <c r="G5" s="363"/>
       <c r="H5" s="364"/>
-      <c r="I5" s="370" t="s">
+      <c r="I5" s="368" t="s">
         <v>602</v>
       </c>
       <c r="M5" s="363" t="s">
@@ -37762,7 +38002,7 @@
       <c r="F6" s="363"/>
       <c r="G6" s="363"/>
       <c r="H6" s="364"/>
-      <c r="I6" s="370" t="s">
+      <c r="I6" s="368" t="s">
         <v>602</v>
       </c>
       <c r="M6" s="363" t="s">
@@ -37788,7 +38028,7 @@
         <v>219</v>
       </c>
       <c r="H7" s="344"/>
-      <c r="I7" s="371" t="s">
+      <c r="I7" s="369" t="s">
         <v>602</v>
       </c>
       <c r="M7" s="343" t="s">
@@ -37814,7 +38054,7 @@
         <v>219</v>
       </c>
       <c r="H8" s="344"/>
-      <c r="I8" s="371" t="s">
+      <c r="I8" s="369" t="s">
         <v>602</v>
       </c>
       <c r="M8" s="343" t="s">
@@ -37840,7 +38080,7 @@
         <v>219</v>
       </c>
       <c r="H9" s="344"/>
-      <c r="I9" s="371" t="s">
+      <c r="I9" s="369" t="s">
         <v>602</v>
       </c>
       <c r="M9" s="343" t="s">
@@ -37864,7 +38104,7 @@
         <v>219</v>
       </c>
       <c r="H10" s="347"/>
-      <c r="I10" s="372" t="s">
+      <c r="I10" s="370" t="s">
         <v>602</v>
       </c>
       <c r="M10" s="346" t="s">
@@ -37888,7 +38128,7 @@
         <v>219</v>
       </c>
       <c r="H11" s="347"/>
-      <c r="I11" s="372" t="s">
+      <c r="I11" s="370" t="s">
         <v>602</v>
       </c>
       <c r="M11" s="346" t="s">
@@ -37914,7 +38154,7 @@
         <v>219</v>
       </c>
       <c r="H12" s="344"/>
-      <c r="I12" s="371" t="s">
+      <c r="I12" s="369" t="s">
         <v>602</v>
       </c>
       <c r="M12" s="343" t="s">
@@ -37934,7 +38174,7 @@
       <c r="F13" s="363"/>
       <c r="G13" s="363"/>
       <c r="H13" s="364"/>
-      <c r="I13" s="370" t="s">
+      <c r="I13" s="368" t="s">
         <v>602</v>
       </c>
       <c r="M13" s="363" t="s">
@@ -37960,7 +38200,7 @@
       <c r="H14" s="364" t="s">
         <v>219</v>
       </c>
-      <c r="I14" s="370" t="s">
+      <c r="I14" s="368" t="s">
         <v>603</v>
       </c>
       <c r="M14" s="363" t="s">
@@ -37984,7 +38224,7 @@
         <v>219</v>
       </c>
       <c r="H15" s="358"/>
-      <c r="I15" s="373" t="s">
+      <c r="I15" s="371" t="s">
         <v>604</v>
       </c>
       <c r="M15" s="357"/>
@@ -38006,7 +38246,7 @@
         <v>219</v>
       </c>
       <c r="H16" s="358"/>
-      <c r="I16" s="373" t="s">
+      <c r="I16" s="371" t="s">
         <v>604</v>
       </c>
       <c r="M16" s="357"/>
@@ -38028,7 +38268,7 @@
         <v>219</v>
       </c>
       <c r="H17" s="361"/>
-      <c r="I17" s="374" t="s">
+      <c r="I17" s="372" t="s">
         <v>604</v>
       </c>
       <c r="M17" s="360"/>
@@ -38050,7 +38290,7 @@
         <v>219</v>
       </c>
       <c r="H18" s="361"/>
-      <c r="I18" s="374" t="s">
+      <c r="I18" s="372" t="s">
         <v>605</v>
       </c>
       <c r="M18" s="360"/>
@@ -38074,7 +38314,7 @@
       <c r="H19" s="364" t="s">
         <v>219</v>
       </c>
-      <c r="I19" s="370" t="s">
+      <c r="I19" s="368" t="s">
         <v>606</v>
       </c>
       <c r="M19" s="363"/>
@@ -38096,7 +38336,7 @@
       <c r="H20" s="349" t="s">
         <v>219</v>
       </c>
-      <c r="I20" s="375" t="s">
+      <c r="I20" s="373" t="s">
         <v>606</v>
       </c>
       <c r="M20" s="348"/>
@@ -38118,7 +38358,7 @@
       <c r="H21" s="349" t="s">
         <v>219</v>
       </c>
-      <c r="I21" s="375" t="s">
+      <c r="I21" s="373" t="s">
         <v>606</v>
       </c>
       <c r="M21" s="348"/>
@@ -38138,7 +38378,7 @@
       <c r="F22" s="351"/>
       <c r="G22" s="351"/>
       <c r="H22" s="352"/>
-      <c r="I22" s="376" t="s">
+      <c r="I22" s="374" t="s">
         <v>607</v>
       </c>
       <c r="M22" s="351"/>
@@ -38160,7 +38400,7 @@
       <c r="F23" s="354"/>
       <c r="G23" s="354"/>
       <c r="H23" s="355"/>
-      <c r="I23" s="377" t="s">
+      <c r="I23" s="375" t="s">
         <v>607</v>
       </c>
       <c r="M23" s="354"/>
@@ -38182,7 +38422,7 @@
       <c r="F24" s="354"/>
       <c r="G24" s="354"/>
       <c r="H24" s="355"/>
-      <c r="I24" s="377" t="s">
+      <c r="I24" s="375" t="s">
         <v>607</v>
       </c>
       <c r="M24" s="354"/>
@@ -38202,92 +38442,92 @@
       <c r="F25" s="351"/>
       <c r="G25" s="351"/>
       <c r="H25" s="352"/>
-      <c r="I25" s="376" t="s">
+      <c r="I25" s="374" t="s">
         <v>607</v>
       </c>
       <c r="M25" s="351"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="I26" s="378"/>
+      <c r="I26" s="376"/>
     </row>
     <row r="27" spans="1:13">
       <c r="H27" s="342"/>
-      <c r="I27" s="378"/>
+      <c r="I27" s="376"/>
       <c r="J27" s="320"/>
     </row>
     <row r="28" spans="1:13">
       <c r="H28" s="342"/>
-      <c r="I28" s="378"/>
+      <c r="I28" s="376"/>
       <c r="J28" s="320"/>
     </row>
     <row r="29" spans="1:13">
       <c r="H29" s="342"/>
-      <c r="I29" s="378"/>
+      <c r="I29" s="376"/>
       <c r="J29" s="320"/>
     </row>
     <row r="30" spans="1:13">
       <c r="H30" s="342"/>
-      <c r="I30" s="378"/>
+      <c r="I30" s="376"/>
       <c r="J30" s="320"/>
     </row>
     <row r="31" spans="1:13">
       <c r="H31" s="342"/>
-      <c r="I31" s="378"/>
+      <c r="I31" s="376"/>
       <c r="J31" s="320"/>
     </row>
     <row r="32" spans="1:13">
       <c r="H32" s="342"/>
-      <c r="I32" s="378"/>
+      <c r="I32" s="376"/>
       <c r="J32" s="320"/>
     </row>
     <row r="33" spans="8:10">
       <c r="H33" s="342"/>
-      <c r="I33" s="378"/>
+      <c r="I33" s="376"/>
       <c r="J33" s="320"/>
     </row>
     <row r="34" spans="8:10">
       <c r="H34" s="342"/>
-      <c r="I34" s="378"/>
+      <c r="I34" s="376"/>
       <c r="J34" s="320"/>
     </row>
     <row r="35" spans="8:10">
       <c r="H35" s="342"/>
-      <c r="I35" s="378"/>
+      <c r="I35" s="376"/>
       <c r="J35" s="320"/>
     </row>
     <row r="36" spans="8:10">
       <c r="H36" s="342"/>
-      <c r="I36" s="378"/>
+      <c r="I36" s="376"/>
       <c r="J36" s="320"/>
     </row>
     <row r="37" spans="8:10">
       <c r="H37" s="342"/>
-      <c r="I37" s="378"/>
+      <c r="I37" s="376"/>
       <c r="J37" s="320"/>
     </row>
     <row r="38" spans="8:10">
       <c r="H38" s="342"/>
-      <c r="I38" s="378"/>
+      <c r="I38" s="376"/>
       <c r="J38" s="320"/>
     </row>
     <row r="39" spans="8:10">
       <c r="H39" s="342"/>
-      <c r="I39" s="378"/>
+      <c r="I39" s="376"/>
       <c r="J39" s="320"/>
     </row>
     <row r="40" spans="8:10">
       <c r="H40" s="342"/>
-      <c r="I40" s="378"/>
+      <c r="I40" s="376"/>
       <c r="J40" s="320"/>
     </row>
     <row r="41" spans="8:10">
       <c r="H41" s="342"/>
-      <c r="I41" s="378"/>
+      <c r="I41" s="376"/>
       <c r="J41" s="320"/>
     </row>
     <row r="42" spans="8:10">
       <c r="H42" s="342"/>
-      <c r="I42" s="378"/>
+      <c r="I42" s="376"/>
       <c r="J42" s="320"/>
     </row>
   </sheetData>
@@ -38314,7 +38554,7 @@
       <selection activeCell="A36" sqref="A1:A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="98" customWidth="1"/>
   </cols>
